--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -273,8 +273,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="99">
+  <cellStyleXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,7 +599,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="99">
+  <cellStyles count="101">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -643,6 +649,7 @@
     <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -692,6 +699,7 @@
     <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2011,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -3379,8 +3387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3805,8 +3813,8 @@
       <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>20</v>
+      <c r="B17" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="8">
         <v>36</v>
@@ -3884,7 +3892,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="6">
         <v>26</v>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -3388,7 +3388,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3427,16 +3427,16 @@
         <v>31</v>
       </c>
       <c r="C2" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>
@@ -3505,16 +3505,16 @@
         <v>9</v>
       </c>
       <c r="C5" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" s="8">
         <v>2</v>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -273,8 +273,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="101">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,7 +611,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="101">
+  <cellStyles count="105">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -650,6 +662,8 @@
     <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -700,6 +714,8 @@
     <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3388,7 +3404,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3453,10 +3469,10 @@
         <v>27</v>
       </c>
       <c r="C3" s="8">
-        <v>3</v>
+        <v>-4</v>
       </c>
       <c r="D3" s="8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="8">
         <v>4</v>
@@ -3579,7 +3595,7 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="6">

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" activeTab="1"/>
+    <workbookView xWindow="4700" yWindow="1740" windowWidth="25600" windowHeight="14300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
     <sheet name="locations" sheetId="3" r:id="rId2"/>
+    <sheet name="watchTower" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
   <si>
     <t>INT_index</t>
   </si>
@@ -126,12 +127,20 @@
     <t>toolShop</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>INT_level</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_waringMinute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -168,8 +177,19 @@
       <color theme="11"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +208,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -272,6 +298,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -590,7 +631,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -610,8 +651,64 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="105">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -664,59 +761,6 @@
     <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2035,9 +2079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
-    </sheetView>
+    <sheetView showGridLines="0" showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
@@ -3403,7 +3445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -4095,4 +4137,356 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14700" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="14700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -273,8 +273,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,7 +617,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="107">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -664,6 +670,7 @@
     <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -716,6 +723,7 @@
     <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3404,7 +3412,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3595,8 +3603,8 @@
       <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>11</v>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="6">
         <v>26</v>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="31">
   <si>
     <t>INT_index</t>
   </si>
@@ -46,16 +46,10 @@
     <t>INT_tile_y</t>
   </si>
   <si>
-    <t>warehouse</t>
-  </si>
-  <si>
     <t>dragonEyrie</t>
   </si>
   <si>
     <t>materialDepot</t>
-  </si>
-  <si>
-    <t>armyCamp</t>
   </si>
   <si>
     <t>barracks</t>
@@ -273,8 +267,50 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,7 +653,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="121">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -671,6 +707,13 @@
     <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -724,6 +767,13 @@
     <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2057,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -3412,7 +3462,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3422,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -3448,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6">
         <v>8</v>
@@ -3474,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="8">
         <v>-4</v>
@@ -3500,7 +3550,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6">
         <v>16</v>
@@ -3526,7 +3576,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="8">
         <v>18</v>
@@ -3552,7 +3602,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6">
         <v>6</v>
@@ -3578,7 +3628,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8">
         <v>16</v>
@@ -3604,7 +3654,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="6">
         <v>26</v>
@@ -3630,7 +3680,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="8">
         <v>26</v>
@@ -3656,7 +3706,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="6">
         <v>26</v>
@@ -3682,7 +3732,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" s="8">
         <v>6</v>
@@ -3708,7 +3758,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" s="6">
         <v>16</v>
@@ -3734,7 +3784,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="8">
         <v>26</v>
@@ -3760,7 +3810,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" s="6">
         <v>36</v>
@@ -3786,7 +3836,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="8">
         <v>36</v>
@@ -3812,7 +3862,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="6">
         <v>36</v>
@@ -3838,7 +3888,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" s="8">
         <v>36</v>
@@ -3864,7 +3914,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6">
         <v>6</v>
@@ -3889,8 +3939,8 @@
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>8</v>
+      <c r="B19" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="8">
         <v>16</v>
@@ -3915,8 +3965,8 @@
       <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>20</v>
+      <c r="B20" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C20" s="6">
         <v>26</v>
@@ -3942,7 +3992,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C21" s="8">
         <v>36</v>
@@ -3968,7 +4018,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="6">
         <v>46</v>
@@ -3994,7 +4044,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="6">
         <v>46</v>
@@ -4020,7 +4070,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="6">
         <v>46</v>
@@ -4046,7 +4096,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="6">
         <v>46</v>
@@ -4072,7 +4122,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="6">
         <v>46</v>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="0" windowWidth="25600" windowHeight="14700" activeTab="1"/>
+    <workbookView xWindow="4820" yWindow="4120" windowWidth="25600" windowHeight="15540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
     <sheet name="locations" sheetId="3" r:id="rId2"/>
+    <sheet name="allianceRight" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="62">
   <si>
     <t>INT_index</t>
   </si>
@@ -119,13 +120,114 @@
   <si>
     <t>toolShop</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_titleLevel</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_CanEditAlliance</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_CanGiveUpArchon</t>
+  </si>
+  <si>
+    <t>BOOL_CanEditAllianceMemeberTitle</t>
+  </si>
+  <si>
+    <t>BOOL_CanEditAllianceObject</t>
+  </si>
+  <si>
+    <t>BOOL_CanActivateShirneEvent</t>
+  </si>
+  <si>
+    <t>BOOL_CanActivateGVG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOOL_CanAddAdvancedItemsToAllianceShop</t>
+  </si>
+  <si>
+    <t>BOOL_CanEditAllianceNotice</t>
+  </si>
+  <si>
+    <t>BOOL_CanSendAllianceMail</t>
+  </si>
+  <si>
+    <t>BOOL_CanUpgradeAllianceBuilding</t>
+  </si>
+  <si>
+    <t>BOOL_CanInvatePlayer</t>
+  </si>
+  <si>
+    <t>BOOL_CanHandleAllianceApply</t>
+  </si>
+  <si>
+    <t>BOOL_CanKickOutMember</t>
+  </si>
+  <si>
+    <t>BOOL_CanUpgradeMemberLevel</t>
+  </si>
+  <si>
+    <t>BOOL_CanDemotionMemberLevel</t>
+  </si>
+  <si>
+    <t>BOOL_CanEditAllianceDesc</t>
+  </si>
+  <si>
+    <t>BOOL_CanEditAllianceJoinType</t>
+  </si>
+  <si>
+    <t>BOOL_CanBuyAdvancedItemsFromAllianceShop</t>
+  </si>
+  <si>
+    <t>BOOL_CanActivateAllianceRevenge</t>
+  </si>
+  <si>
+    <t>archon</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>quartermaster</t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>elite</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -162,8 +264,19 @@
       <color theme="11"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,8 +295,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB1A0C7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -266,8 +385,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -631,8 +802,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -652,8 +877,99 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="139">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -714,67 +1030,15 @@
     <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2093,7 +2357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV67"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -3461,7 +3725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -4141,6 +4405,504 @@
       </c>
       <c r="H26" s="6">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="33.25" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="27.25" customWidth="1"/>
+    <col min="10" max="10" width="22.75" customWidth="1"/>
+    <col min="11" max="11" width="20.25" customWidth="1"/>
+    <col min="12" max="12" width="24.25" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="14" max="14" width="27.25" customWidth="1"/>
+    <col min="15" max="15" width="26.125" customWidth="1"/>
+    <col min="16" max="16" width="22.125" customWidth="1"/>
+    <col min="17" max="17" width="16.25" customWidth="1"/>
+    <col min="18" max="18" width="16.875" customWidth="1"/>
+    <col min="19" max="19" width="21" customWidth="1"/>
+    <col min="20" max="20" width="29.625" customWidth="1"/>
+    <col min="21" max="21" width="23.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="12">
+        <v>6</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="14">
+        <v>5</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="14">
+        <v>4</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S6" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="U6" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="S7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="4120" windowWidth="25600" windowHeight="15540" activeTab="2"/>
+    <workbookView xWindow="5980" yWindow="420" windowWidth="25600" windowHeight="15540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
     <sheet name="locations" sheetId="3" r:id="rId2"/>
     <sheet name="allianceRight" sheetId="4" r:id="rId3"/>
+    <sheet name="watchTower" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="64">
   <si>
     <t>INT_index</t>
   </si>
@@ -220,6 +221,14 @@
   </si>
   <si>
     <t>true</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_waringMinute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_level</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4423,7 +4432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="L1" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="L1" workbookViewId="0">
       <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
@@ -4915,4 +4924,356 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5980" yWindow="420" windowWidth="25600" windowHeight="15540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>stable</t>
   </si>
   <si>
-    <t>workShop</t>
-  </si>
-  <si>
     <t>watchTower</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -230,6 +227,9 @@
   <si>
     <t>INT_level</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
   </si>
 </sst>
 </file>
@@ -909,7 +909,75 @@
     </xf>
   </cellXfs>
   <cellStyles count="139">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -979,75 +1047,7 @@
     <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -3734,8 +3734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -3771,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6">
         <v>8</v>
@@ -3797,7 +3797,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="8">
         <v>-4</v>
@@ -3823,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6">
         <v>16</v>
@@ -3875,7 +3875,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" s="6">
         <v>6</v>
@@ -4187,7 +4187,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C18" s="6">
         <v>6</v>
@@ -4395,7 +4395,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6">
         <v>46</v>
@@ -4461,457 +4461,457 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="M1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="U1" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="12">
         <v>6</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>61</v>
-      </c>
       <c r="F2" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U2" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="14">
         <v>5</v>
       </c>
       <c r="C3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="J3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="K3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="L3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U3" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="14">
         <v>4</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="K4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="L4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="M4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="N4" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="O4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="T4" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="14">
         <v>3</v>
       </c>
       <c r="C5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="N5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="O5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="P5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="Q5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="R5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="S5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="T5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="T5" s="15" t="s">
-        <v>59</v>
-      </c>
       <c r="U5" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U6" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="14">
         <v>1</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4930,7 +4930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4941,10 +4941,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,13 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
     <sheet name="locations" sheetId="3" r:id="rId2"/>
     <sheet name="allianceRight" sheetId="4" r:id="rId3"/>
     <sheet name="watchTower" sheetId="5" r:id="rId4"/>
+    <sheet name="pve_normal" sheetId="6" r:id="rId5"/>
+    <sheet name="pve_elite" sheetId="7" r:id="rId6"/>
+    <sheet name="pve_boss" sheetId="8" r:id="rId7"/>
+    <sheet name="pve_npc" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="478">
   <si>
     <t>INT_index</t>
   </si>
@@ -230,6 +234,1254 @@
   </si>
   <si>
     <t>workshop</t>
+  </si>
+  <si>
+    <t>STR_dragon_hp_strength_vitality</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_soldiers</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_rewards</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,100,100,100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,100,100,101</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,102</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,103</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,104</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,105</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,106</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,107</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,108</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,109</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,12;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,13;</t>
+  </si>
+  <si>
+    <t>resources,wood,14;</t>
+  </si>
+  <si>
+    <t>resources,wood,15;</t>
+  </si>
+  <si>
+    <t>resources,wood,16;</t>
+  </si>
+  <si>
+    <t>resources,wood,17;</t>
+  </si>
+  <si>
+    <t>resources,wood,18;</t>
+  </si>
+  <si>
+    <t>resources,wood,19;</t>
+  </si>
+  <si>
+    <t>resources,wood,20;</t>
+  </si>
+  <si>
+    <t>resources,wood,21;</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,101</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,102</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,103</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,104</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,105</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,106</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,107</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,108</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,109</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,110</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,110</t>
+  </si>
+  <si>
+    <t>resources,wood,22;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,111</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,111</t>
+  </si>
+  <si>
+    <t>resources,wood,23;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,112</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,112</t>
+  </si>
+  <si>
+    <t>resources,wood,24;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,113</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,113</t>
+  </si>
+  <si>
+    <t>resources,wood,25;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,114</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,114</t>
+  </si>
+  <si>
+    <t>resources,wood,26;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,115</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,115</t>
+  </si>
+  <si>
+    <t>resources,wood,27;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,116</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,116</t>
+  </si>
+  <si>
+    <t>resources,wood,28;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,117</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,117</t>
+  </si>
+  <si>
+    <t>resources,wood,29;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,118</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,118</t>
+  </si>
+  <si>
+    <t>resources,wood,30;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,119</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,119</t>
+  </si>
+  <si>
+    <t>resources,wood,31;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,120</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,120</t>
+  </si>
+  <si>
+    <t>resources,wood,32;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,121</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,121</t>
+  </si>
+  <si>
+    <t>resources,wood,33;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,122</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,122</t>
+  </si>
+  <si>
+    <t>resources,wood,34;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,123</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,123</t>
+  </si>
+  <si>
+    <t>resources,wood,35;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,124</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,124</t>
+  </si>
+  <si>
+    <t>resources,wood,36;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,125</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,125</t>
+  </si>
+  <si>
+    <t>resources,wood,37;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,126</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,126</t>
+  </si>
+  <si>
+    <t>resources,wood,38;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,127</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,127</t>
+  </si>
+  <si>
+    <t>resources,wood,39;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,128</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,128</t>
+  </si>
+  <si>
+    <t>resources,wood,40;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,129</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,129</t>
+  </si>
+  <si>
+    <t>resources,wood,41;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,130</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,130</t>
+  </si>
+  <si>
+    <t>resources,wood,42;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,131</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,131</t>
+  </si>
+  <si>
+    <t>resources,wood,43;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,132</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,132</t>
+  </si>
+  <si>
+    <t>resources,wood,44;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,133</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,133</t>
+  </si>
+  <si>
+    <t>resources,wood,45;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,134</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,134</t>
+  </si>
+  <si>
+    <t>resources,wood,46;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,135</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,135</t>
+  </si>
+  <si>
+    <t>resources,wood,47;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,136</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,136</t>
+  </si>
+  <si>
+    <t>resources,wood,48;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,137</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,137</t>
+  </si>
+  <si>
+    <t>resources,wood,49;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,138</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,138</t>
+  </si>
+  <si>
+    <t>resources,wood,50;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,139</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,139</t>
+  </si>
+  <si>
+    <t>resources,wood,51;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,140</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,140</t>
+  </si>
+  <si>
+    <t>resources,wood,52;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,141</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,141</t>
+  </si>
+  <si>
+    <t>resources,wood,53;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,142</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,142</t>
+  </si>
+  <si>
+    <t>resources,wood,54;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,143</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,143</t>
+  </si>
+  <si>
+    <t>resources,wood,55;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,144</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,144</t>
+  </si>
+  <si>
+    <t>resources,wood,56;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,145</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,145</t>
+  </si>
+  <si>
+    <t>resources,wood,57;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,146</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,146</t>
+  </si>
+  <si>
+    <t>resources,wood,58;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,147</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,147</t>
+  </si>
+  <si>
+    <t>resources,wood,59;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,148</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,148</t>
+  </si>
+  <si>
+    <t>resources,wood,60;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,149</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,149</t>
+  </si>
+  <si>
+    <t>resources,wood,61;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,150</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,150</t>
+  </si>
+  <si>
+    <t>resources,wood,62;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,151</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,151</t>
+  </si>
+  <si>
+    <t>resources,wood,63;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,152</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,152</t>
+  </si>
+  <si>
+    <t>resources,wood,64;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,153</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,153</t>
+  </si>
+  <si>
+    <t>resources,wood,65;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,154</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,154</t>
+  </si>
+  <si>
+    <t>resources,wood,66;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,155</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,155</t>
+  </si>
+  <si>
+    <t>resources,wood,67;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,156</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,156</t>
+  </si>
+  <si>
+    <t>resources,wood,68;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,157</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,157</t>
+  </si>
+  <si>
+    <t>resources,wood,69;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,158</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,158</t>
+  </si>
+  <si>
+    <t>resources,wood,70;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,159</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,159</t>
+  </si>
+  <si>
+    <t>resources,wood,71;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,160</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,160</t>
+  </si>
+  <si>
+    <t>resources,wood,72;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,161</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,161</t>
+  </si>
+  <si>
+    <t>resources,wood,73;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,162</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,162</t>
+  </si>
+  <si>
+    <t>resources,wood,74;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,163</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,163</t>
+  </si>
+  <si>
+    <t>resources,wood,75;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,164</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,164</t>
+  </si>
+  <si>
+    <t>resources,wood,76;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,165</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,165</t>
+  </si>
+  <si>
+    <t>resources,wood,77;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,166</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,166</t>
+  </si>
+  <si>
+    <t>resources,wood,78;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,167</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,167</t>
+  </si>
+  <si>
+    <t>resources,wood,79;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,168</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,168</t>
+  </si>
+  <si>
+    <t>resources,wood,80;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,169</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,169</t>
+  </si>
+  <si>
+    <t>resources,wood,81;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,170</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,170</t>
+  </si>
+  <si>
+    <t>resources,wood,82;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,171</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,171</t>
+  </si>
+  <si>
+    <t>resources,wood,83;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,172</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,172</t>
+  </si>
+  <si>
+    <t>resources,wood,84;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,173</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,173</t>
+  </si>
+  <si>
+    <t>resources,wood,85;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,174</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,174</t>
+  </si>
+  <si>
+    <t>resources,wood,86;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,175</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,175</t>
+  </si>
+  <si>
+    <t>resources,wood,87;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,176</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,176</t>
+  </si>
+  <si>
+    <t>resources,wood,88;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,177</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,177</t>
+  </si>
+  <si>
+    <t>resources,wood,89;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,178</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,178</t>
+  </si>
+  <si>
+    <t>resources,wood,90;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,179</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,179</t>
+  </si>
+  <si>
+    <t>resources,wood,91;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,180</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,180</t>
+  </si>
+  <si>
+    <t>resources,wood,92;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,181</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,181</t>
+  </si>
+  <si>
+    <t>resources,wood,93;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,182</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,182</t>
+  </si>
+  <si>
+    <t>resources,wood,94;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,183</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,183</t>
+  </si>
+  <si>
+    <t>resources,wood,95;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,184</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,184</t>
+  </si>
+  <si>
+    <t>resources,wood,96;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,185</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,185</t>
+  </si>
+  <si>
+    <t>resources,wood,97;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,186</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,186</t>
+  </si>
+  <si>
+    <t>resources,wood,98;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,187</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,187</t>
+  </si>
+  <si>
+    <t>resources,wood,99;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,188</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,188</t>
+  </si>
+  <si>
+    <t>resources,wood,100;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,189</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,189</t>
+  </si>
+  <si>
+    <t>resources,wood,101;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,190</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,190</t>
+  </si>
+  <si>
+    <t>resources,wood,102;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,191</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,191</t>
+  </si>
+  <si>
+    <t>resources,wood,103;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,192</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,192</t>
+  </si>
+  <si>
+    <t>resources,wood,104;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,193</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,193</t>
+  </si>
+  <si>
+    <t>resources,wood,105;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,194</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,194</t>
+  </si>
+  <si>
+    <t>resources,wood,106;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,195</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,195</t>
+  </si>
+  <si>
+    <t>resources,wood,107;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,196</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,196</t>
+  </si>
+  <si>
+    <t>resources,wood,108;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,197</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,197</t>
+  </si>
+  <si>
+    <t>resources,wood,109;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,198</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,198</t>
+  </si>
+  <si>
+    <t>resources,wood,110;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,199</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,199</t>
+  </si>
+  <si>
+    <t>resources,wood,111;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,200</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,200</t>
+  </si>
+  <si>
+    <t>resources,wood,112;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,201</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,201</t>
+  </si>
+  <si>
+    <t>resources,wood,113;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,202</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,202</t>
+  </si>
+  <si>
+    <t>resources,wood,114;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,203</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,203</t>
+  </si>
+  <si>
+    <t>resources,wood,115;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,204</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,204</t>
+  </si>
+  <si>
+    <t>resources,wood,116;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,205</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,205</t>
+  </si>
+  <si>
+    <t>resources,wood,117;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,206</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,206</t>
+  </si>
+  <si>
+    <t>resources,wood,118;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,207</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,207</t>
+  </si>
+  <si>
+    <t>resources,wood,119;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,208</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,208</t>
+  </si>
+  <si>
+    <t>resources,wood,120;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,209</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,209</t>
+  </si>
+  <si>
+    <t>resources,wood,121;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,210</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,210</t>
+  </si>
+  <si>
+    <t>resources,wood,122;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,211</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,211</t>
+  </si>
+  <si>
+    <t>resources,wood,123;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,212</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,212</t>
+  </si>
+  <si>
+    <t>resources,wood,124;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,213</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,213</t>
+  </si>
+  <si>
+    <t>resources,wood,125;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,214</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,214</t>
+  </si>
+  <si>
+    <t>resources,wood,126;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,215</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,215</t>
+  </si>
+  <si>
+    <t>resources,wood,127;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,216</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,216</t>
+  </si>
+  <si>
+    <t>resources,wood,128;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,217</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,217</t>
+  </si>
+  <si>
+    <t>resources,wood,129;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,218</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,218</t>
+  </si>
+  <si>
+    <t>resources,wood,130;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,219</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,219</t>
+  </si>
+  <si>
+    <t>resources,wood,131;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,220</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,220</t>
+  </si>
+  <si>
+    <t>resources,wood,132;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,221</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,221</t>
+  </si>
+  <si>
+    <t>resources,wood,133;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,222</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,222</t>
+  </si>
+  <si>
+    <t>resources,wood,134;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,223</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,223</t>
+  </si>
+  <si>
+    <t>resources,wood,135;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,224</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,224</t>
+  </si>
+  <si>
+    <t>resources,wood,136;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,225</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,225</t>
+  </si>
+  <si>
+    <t>resources,wood,137;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,226</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,226</t>
+  </si>
+  <si>
+    <t>resources,wood,138;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,227</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,227</t>
+  </si>
+  <si>
+    <t>resources,wood,139;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,228</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,228</t>
+  </si>
+  <si>
+    <t>resources,wood,140;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,229</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,229</t>
+  </si>
+  <si>
+    <t>resources,wood,141;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,230</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,230</t>
+  </si>
+  <si>
+    <t>resources,wood,142;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,231</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,231</t>
+  </si>
+  <si>
+    <t>resources,wood,143;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,232</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,232</t>
+  </si>
+  <si>
+    <t>resources,wood,144;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,233</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,233</t>
+  </si>
+  <si>
+    <t>resources,wood,145;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,234</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,234</t>
+  </si>
+  <si>
+    <t>resources,wood,146;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,235</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,235</t>
+  </si>
+  <si>
+    <t>resources,wood,147;</t>
+  </si>
+  <si>
+    <t>redDragon,100,100,236</t>
+  </si>
+  <si>
+    <t>swordsman_1,100;sentinel_1,236</t>
+  </si>
+  <si>
+    <t>resources,wood,148;</t>
   </si>
 </sst>
 </file>
@@ -447,8 +1699,116 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -908,7 +2268,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="175">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -978,6 +2338,24 @@
     <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1047,6 +2425,24 @@
     <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2366,8 +3762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV67"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView showGridLines="0" showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -3734,7 +5130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -4432,9 +5828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
@@ -4930,7 +6324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A14" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5276,4 +6670,3913 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G138"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C66" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" t="s">
+        <v>278</v>
+      </c>
+      <c r="D72" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" t="s">
+        <v>281</v>
+      </c>
+      <c r="D73" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" t="s">
+        <v>284</v>
+      </c>
+      <c r="D74" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" t="s">
+        <v>287</v>
+      </c>
+      <c r="D75" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C77" t="s">
+        <v>293</v>
+      </c>
+      <c r="D77" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" t="s">
+        <v>296</v>
+      </c>
+      <c r="D78" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C79" t="s">
+        <v>299</v>
+      </c>
+      <c r="D79" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80" t="s">
+        <v>302</v>
+      </c>
+      <c r="D80" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C81" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C82" t="s">
+        <v>308</v>
+      </c>
+      <c r="D82" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C83" t="s">
+        <v>311</v>
+      </c>
+      <c r="D83" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C84" t="s">
+        <v>314</v>
+      </c>
+      <c r="D84" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C85" t="s">
+        <v>317</v>
+      </c>
+      <c r="D85" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C86" t="s">
+        <v>320</v>
+      </c>
+      <c r="D86" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C87" t="s">
+        <v>323</v>
+      </c>
+      <c r="D87" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C88" t="s">
+        <v>326</v>
+      </c>
+      <c r="D88" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C89" t="s">
+        <v>329</v>
+      </c>
+      <c r="D89" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C90" t="s">
+        <v>332</v>
+      </c>
+      <c r="D90" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C91" t="s">
+        <v>335</v>
+      </c>
+      <c r="D91" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C92" t="s">
+        <v>338</v>
+      </c>
+      <c r="D92" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C93" t="s">
+        <v>341</v>
+      </c>
+      <c r="D93" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C94" t="s">
+        <v>344</v>
+      </c>
+      <c r="D94" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C95" t="s">
+        <v>347</v>
+      </c>
+      <c r="D95" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C96" t="s">
+        <v>350</v>
+      </c>
+      <c r="D96" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C97" t="s">
+        <v>353</v>
+      </c>
+      <c r="D97" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C98" t="s">
+        <v>356</v>
+      </c>
+      <c r="D98" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C99" t="s">
+        <v>359</v>
+      </c>
+      <c r="D99" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C100" t="s">
+        <v>362</v>
+      </c>
+      <c r="D100" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C101" t="s">
+        <v>365</v>
+      </c>
+      <c r="D101" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C102" t="s">
+        <v>368</v>
+      </c>
+      <c r="D102" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C103" t="s">
+        <v>371</v>
+      </c>
+      <c r="D103" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C104" t="s">
+        <v>374</v>
+      </c>
+      <c r="D104" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C105" t="s">
+        <v>377</v>
+      </c>
+      <c r="D105" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" t="s">
+        <v>380</v>
+      </c>
+      <c r="D106" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C107" t="s">
+        <v>383</v>
+      </c>
+      <c r="D107" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C108" t="s">
+        <v>386</v>
+      </c>
+      <c r="D108" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C109" t="s">
+        <v>389</v>
+      </c>
+      <c r="D109" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C110" t="s">
+        <v>392</v>
+      </c>
+      <c r="D110" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C111" t="s">
+        <v>395</v>
+      </c>
+      <c r="D111" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C112" t="s">
+        <v>398</v>
+      </c>
+      <c r="D112" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C113" t="s">
+        <v>401</v>
+      </c>
+      <c r="D113" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C114" t="s">
+        <v>404</v>
+      </c>
+      <c r="D114" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C115" t="s">
+        <v>407</v>
+      </c>
+      <c r="D115" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="3">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C116" t="s">
+        <v>410</v>
+      </c>
+      <c r="D116" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C117" t="s">
+        <v>413</v>
+      </c>
+      <c r="D117" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C118" t="s">
+        <v>416</v>
+      </c>
+      <c r="D118" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C119" t="s">
+        <v>419</v>
+      </c>
+      <c r="D119" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C120" t="s">
+        <v>422</v>
+      </c>
+      <c r="D120" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C121" t="s">
+        <v>425</v>
+      </c>
+      <c r="D121" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C122" t="s">
+        <v>428</v>
+      </c>
+      <c r="D122" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C123" t="s">
+        <v>431</v>
+      </c>
+      <c r="D123" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C124" t="s">
+        <v>434</v>
+      </c>
+      <c r="D124" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C125" t="s">
+        <v>437</v>
+      </c>
+      <c r="D125" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C126" t="s">
+        <v>440</v>
+      </c>
+      <c r="D126" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C127" t="s">
+        <v>443</v>
+      </c>
+      <c r="D127" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C128" t="s">
+        <v>446</v>
+      </c>
+      <c r="D128" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C129" t="s">
+        <v>449</v>
+      </c>
+      <c r="D129" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C130" t="s">
+        <v>452</v>
+      </c>
+      <c r="D130" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C131" t="s">
+        <v>455</v>
+      </c>
+      <c r="D131" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C132" t="s">
+        <v>458</v>
+      </c>
+      <c r="D132" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C133" t="s">
+        <v>461</v>
+      </c>
+      <c r="D133" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C134" t="s">
+        <v>464</v>
+      </c>
+      <c r="D134" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C135" t="s">
+        <v>467</v>
+      </c>
+      <c r="D135" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C136" t="s">
+        <v>470</v>
+      </c>
+      <c r="D136" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C137" t="s">
+        <v>473</v>
+      </c>
+      <c r="D137" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C138" t="s">
+        <v>476</v>
+      </c>
+      <c r="D138" t="s">
+        <v>477</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="31.75" customWidth="1"/>
+    <col min="3" max="3" width="35.125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" t="s">
+        <v>152</v>
+      </c>
+      <c r="D30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" t="s">
+        <v>173</v>
+      </c>
+      <c r="D37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C42" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D49" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C51" t="s">
+        <v>215</v>
+      </c>
+      <c r="D51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" t="s">
+        <v>218</v>
+      </c>
+      <c r="D52" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D55" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D56" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C57" t="s">
+        <v>233</v>
+      </c>
+      <c r="D57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" t="s">
+        <v>239</v>
+      </c>
+      <c r="D59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" t="s">
+        <v>245</v>
+      </c>
+      <c r="D61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C63" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C64" t="s">
+        <v>254</v>
+      </c>
+      <c r="D64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C65" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C66" t="s">
+        <v>260</v>
+      </c>
+      <c r="D66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" t="s">
+        <v>266</v>
+      </c>
+      <c r="D68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" t="s">
+        <v>269</v>
+      </c>
+      <c r="D69" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C70" t="s">
+        <v>272</v>
+      </c>
+      <c r="D70" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C71" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" t="s">
+        <v>278</v>
+      </c>
+      <c r="D72" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" t="s">
+        <v>281</v>
+      </c>
+      <c r="D73" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" t="s">
+        <v>284</v>
+      </c>
+      <c r="D74" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" t="s">
+        <v>287</v>
+      </c>
+      <c r="D75" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C76" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C77" t="s">
+        <v>293</v>
+      </c>
+      <c r="D77" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" t="s">
+        <v>296</v>
+      </c>
+      <c r="D78" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C79" t="s">
+        <v>299</v>
+      </c>
+      <c r="D79" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C80" t="s">
+        <v>302</v>
+      </c>
+      <c r="D80" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C81" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" t="s">
+        <v>306</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D18" sqref="A1:D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="29.75" customWidth="1"/>
+    <col min="4" max="4" width="16.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection sqref="A1:D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="48">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="48">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="48">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="48">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="48">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="48">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="48">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="48">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="48">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="48">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="48">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="48">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="48">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="48">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="48">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="48">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="48">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="48">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="48">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="48">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="48">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="48">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="491">
   <si>
     <t>INT_index</t>
   </si>
@@ -1482,6 +1482,46 @@
   </si>
   <si>
     <t>resources,wood,148;</t>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>WOODCUTTER</t>
+  </si>
+  <si>
+    <t>QUARRIER</t>
+  </si>
+  <si>
+    <t>MINER</t>
+  </si>
+  <si>
+    <t>FARMER</t>
+  </si>
+  <si>
+    <t>CAMP</t>
+  </si>
+  <si>
+    <t>CRASHED_AIRSHIP</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION_RUINS</t>
+  </si>
+  <si>
+    <t>KEEL</t>
+  </si>
+  <si>
+    <t>WARRIORS_TOMB</t>
+  </si>
+  <si>
+    <t>OBELISK</t>
+  </si>
+  <si>
+    <t>ANCIENT_RUINS</t>
+  </si>
+  <si>
+    <t>ENTRANCE_DOOR</t>
   </si>
 </sst>
 </file>
@@ -10198,377 +10238,160 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:D26"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="40.25" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>478</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="48">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="48">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="48">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="48">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="48">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="48">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="48">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="48">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="48">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="48">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="48">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="48">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="48">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="48">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="48">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="48">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="48">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="48">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="48">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="48">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="48">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="48">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="48">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="48">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" t="s">
-        <v>141</v>
-      </c>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -1739,8 +1739,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
+  <cellStyleXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2308,7 +2374,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="175">
+  <cellStyles count="197">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2396,6 +2462,17 @@
     <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2483,6 +2560,17 @@
     <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3803,7 +3891,7 @@
   <dimension ref="A1:IV67"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -5168,15 +5256,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5202,7 +5290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5228,7 +5316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -5254,7 +5342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -5280,7 +5368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -5306,12 +5394,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="6">
         <v>6</v>
@@ -5332,12 +5420,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C7" s="8">
         <v>16</v>
@@ -5358,7 +5446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -5384,12 +5472,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="8">
         <v>26</v>
@@ -5409,8 +5497,9 @@
       <c r="H9" s="8">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -5436,7 +5525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -5462,7 +5551,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -5488,7 +5577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -5514,7 +5603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -5540,12 +5629,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>16</v>
+      <c r="B15" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C15" s="8">
         <v>36</v>
@@ -5565,13 +5654,14 @@
       <c r="H15" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C16" s="6">
         <v>36</v>
@@ -10240,8 +10330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="155">
   <si>
     <t>INT_index</t>
   </si>
@@ -474,1014 +474,6 @@
   </si>
   <si>
     <t>resources,wood,36;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,125</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,125</t>
-  </si>
-  <si>
-    <t>resources,wood,37;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,126</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,126</t>
-  </si>
-  <si>
-    <t>resources,wood,38;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,127</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,127</t>
-  </si>
-  <si>
-    <t>resources,wood,39;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,128</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,128</t>
-  </si>
-  <si>
-    <t>resources,wood,40;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,129</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,129</t>
-  </si>
-  <si>
-    <t>resources,wood,41;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,130</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,130</t>
-  </si>
-  <si>
-    <t>resources,wood,42;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,131</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,131</t>
-  </si>
-  <si>
-    <t>resources,wood,43;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,132</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,132</t>
-  </si>
-  <si>
-    <t>resources,wood,44;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,133</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,133</t>
-  </si>
-  <si>
-    <t>resources,wood,45;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,134</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,134</t>
-  </si>
-  <si>
-    <t>resources,wood,46;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,135</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,135</t>
-  </si>
-  <si>
-    <t>resources,wood,47;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,136</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,136</t>
-  </si>
-  <si>
-    <t>resources,wood,48;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,137</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,137</t>
-  </si>
-  <si>
-    <t>resources,wood,49;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,138</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,138</t>
-  </si>
-  <si>
-    <t>resources,wood,50;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,139</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,139</t>
-  </si>
-  <si>
-    <t>resources,wood,51;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,140</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,140</t>
-  </si>
-  <si>
-    <t>resources,wood,52;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,141</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,141</t>
-  </si>
-  <si>
-    <t>resources,wood,53;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,142</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,142</t>
-  </si>
-  <si>
-    <t>resources,wood,54;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,143</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,143</t>
-  </si>
-  <si>
-    <t>resources,wood,55;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,144</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,144</t>
-  </si>
-  <si>
-    <t>resources,wood,56;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,145</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,145</t>
-  </si>
-  <si>
-    <t>resources,wood,57;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,146</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,146</t>
-  </si>
-  <si>
-    <t>resources,wood,58;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,147</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,147</t>
-  </si>
-  <si>
-    <t>resources,wood,59;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,148</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,148</t>
-  </si>
-  <si>
-    <t>resources,wood,60;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,149</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,149</t>
-  </si>
-  <si>
-    <t>resources,wood,61;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,150</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,150</t>
-  </si>
-  <si>
-    <t>resources,wood,62;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,151</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,151</t>
-  </si>
-  <si>
-    <t>resources,wood,63;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,152</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,152</t>
-  </si>
-  <si>
-    <t>resources,wood,64;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,153</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,153</t>
-  </si>
-  <si>
-    <t>resources,wood,65;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,154</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,154</t>
-  </si>
-  <si>
-    <t>resources,wood,66;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,155</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,155</t>
-  </si>
-  <si>
-    <t>resources,wood,67;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,156</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,156</t>
-  </si>
-  <si>
-    <t>resources,wood,68;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,157</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,157</t>
-  </si>
-  <si>
-    <t>resources,wood,69;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,158</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,158</t>
-  </si>
-  <si>
-    <t>resources,wood,70;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,159</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,159</t>
-  </si>
-  <si>
-    <t>resources,wood,71;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,160</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,160</t>
-  </si>
-  <si>
-    <t>resources,wood,72;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,161</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,161</t>
-  </si>
-  <si>
-    <t>resources,wood,73;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,162</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,162</t>
-  </si>
-  <si>
-    <t>resources,wood,74;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,163</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,163</t>
-  </si>
-  <si>
-    <t>resources,wood,75;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,164</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,164</t>
-  </si>
-  <si>
-    <t>resources,wood,76;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,165</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,165</t>
-  </si>
-  <si>
-    <t>resources,wood,77;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,166</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,166</t>
-  </si>
-  <si>
-    <t>resources,wood,78;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,167</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,167</t>
-  </si>
-  <si>
-    <t>resources,wood,79;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,168</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,168</t>
-  </si>
-  <si>
-    <t>resources,wood,80;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,169</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,169</t>
-  </si>
-  <si>
-    <t>resources,wood,81;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,170</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,170</t>
-  </si>
-  <si>
-    <t>resources,wood,82;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,171</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,171</t>
-  </si>
-  <si>
-    <t>resources,wood,83;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,172</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,172</t>
-  </si>
-  <si>
-    <t>resources,wood,84;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,173</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,173</t>
-  </si>
-  <si>
-    <t>resources,wood,85;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,174</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,174</t>
-  </si>
-  <si>
-    <t>resources,wood,86;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,175</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,175</t>
-  </si>
-  <si>
-    <t>resources,wood,87;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,176</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,176</t>
-  </si>
-  <si>
-    <t>resources,wood,88;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,177</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,177</t>
-  </si>
-  <si>
-    <t>resources,wood,89;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,178</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,178</t>
-  </si>
-  <si>
-    <t>resources,wood,90;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,179</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,179</t>
-  </si>
-  <si>
-    <t>resources,wood,91;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,180</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,180</t>
-  </si>
-  <si>
-    <t>resources,wood,92;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,181</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,181</t>
-  </si>
-  <si>
-    <t>resources,wood,93;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,182</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,182</t>
-  </si>
-  <si>
-    <t>resources,wood,94;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,183</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,183</t>
-  </si>
-  <si>
-    <t>resources,wood,95;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,184</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,184</t>
-  </si>
-  <si>
-    <t>resources,wood,96;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,185</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,185</t>
-  </si>
-  <si>
-    <t>resources,wood,97;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,186</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,186</t>
-  </si>
-  <si>
-    <t>resources,wood,98;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,187</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,187</t>
-  </si>
-  <si>
-    <t>resources,wood,99;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,188</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,188</t>
-  </si>
-  <si>
-    <t>resources,wood,100;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,189</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,189</t>
-  </si>
-  <si>
-    <t>resources,wood,101;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,190</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,190</t>
-  </si>
-  <si>
-    <t>resources,wood,102;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,191</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,191</t>
-  </si>
-  <si>
-    <t>resources,wood,103;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,192</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,192</t>
-  </si>
-  <si>
-    <t>resources,wood,104;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,193</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,193</t>
-  </si>
-  <si>
-    <t>resources,wood,105;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,194</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,194</t>
-  </si>
-  <si>
-    <t>resources,wood,106;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,195</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,195</t>
-  </si>
-  <si>
-    <t>resources,wood,107;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,196</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,196</t>
-  </si>
-  <si>
-    <t>resources,wood,108;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,197</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,197</t>
-  </si>
-  <si>
-    <t>resources,wood,109;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,198</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,198</t>
-  </si>
-  <si>
-    <t>resources,wood,110;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,199</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,199</t>
-  </si>
-  <si>
-    <t>resources,wood,111;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,200</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,200</t>
-  </si>
-  <si>
-    <t>resources,wood,112;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,201</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,201</t>
-  </si>
-  <si>
-    <t>resources,wood,113;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,202</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,202</t>
-  </si>
-  <si>
-    <t>resources,wood,114;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,203</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,203</t>
-  </si>
-  <si>
-    <t>resources,wood,115;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,204</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,204</t>
-  </si>
-  <si>
-    <t>resources,wood,116;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,205</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,205</t>
-  </si>
-  <si>
-    <t>resources,wood,117;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,206</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,206</t>
-  </si>
-  <si>
-    <t>resources,wood,118;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,207</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,207</t>
-  </si>
-  <si>
-    <t>resources,wood,119;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,208</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,208</t>
-  </si>
-  <si>
-    <t>resources,wood,120;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,209</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,209</t>
-  </si>
-  <si>
-    <t>resources,wood,121;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,210</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,210</t>
-  </si>
-  <si>
-    <t>resources,wood,122;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,211</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,211</t>
-  </si>
-  <si>
-    <t>resources,wood,123;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,212</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,212</t>
-  </si>
-  <si>
-    <t>resources,wood,124;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,213</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,213</t>
-  </si>
-  <si>
-    <t>resources,wood,125;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,214</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,214</t>
-  </si>
-  <si>
-    <t>resources,wood,126;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,215</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,215</t>
-  </si>
-  <si>
-    <t>resources,wood,127;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,216</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,216</t>
-  </si>
-  <si>
-    <t>resources,wood,128;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,217</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,217</t>
-  </si>
-  <si>
-    <t>resources,wood,129;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,218</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,218</t>
-  </si>
-  <si>
-    <t>resources,wood,130;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,219</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,219</t>
-  </si>
-  <si>
-    <t>resources,wood,131;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,220</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,220</t>
-  </si>
-  <si>
-    <t>resources,wood,132;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,221</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,221</t>
-  </si>
-  <si>
-    <t>resources,wood,133;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,222</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,222</t>
-  </si>
-  <si>
-    <t>resources,wood,134;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,223</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,223</t>
-  </si>
-  <si>
-    <t>resources,wood,135;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,224</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,224</t>
-  </si>
-  <si>
-    <t>resources,wood,136;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,225</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,225</t>
-  </si>
-  <si>
-    <t>resources,wood,137;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,226</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,226</t>
-  </si>
-  <si>
-    <t>resources,wood,138;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,227</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,227</t>
-  </si>
-  <si>
-    <t>resources,wood,139;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,228</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,228</t>
-  </si>
-  <si>
-    <t>resources,wood,140;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,229</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,229</t>
-  </si>
-  <si>
-    <t>resources,wood,141;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,230</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,230</t>
-  </si>
-  <si>
-    <t>resources,wood,142;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,231</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,231</t>
-  </si>
-  <si>
-    <t>resources,wood,143;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,232</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,232</t>
-  </si>
-  <si>
-    <t>resources,wood,144;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,233</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,233</t>
-  </si>
-  <si>
-    <t>resources,wood,145;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,234</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,234</t>
-  </si>
-  <si>
-    <t>resources,wood,146;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,235</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,235</t>
-  </si>
-  <si>
-    <t>resources,wood,147;</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,236</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,236</t>
-  </si>
-  <si>
-    <t>resources,wood,148;</t>
   </si>
   <si>
     <t>STR_type</t>
@@ -5258,7 +4250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -6804,10 +5796,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -6921,1840 +5913,6 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D43" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C46" t="s">
-        <v>200</v>
-      </c>
-      <c r="D46" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" t="s">
-        <v>206</v>
-      </c>
-      <c r="D48" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" t="s">
-        <v>209</v>
-      </c>
-      <c r="D49" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C50" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C51" t="s">
-        <v>215</v>
-      </c>
-      <c r="D51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="4">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" t="s">
-        <v>218</v>
-      </c>
-      <c r="D52" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="4">
-        <v>52</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="4">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C54" t="s">
-        <v>224</v>
-      </c>
-      <c r="D54" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="4">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C55" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="3">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C56" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="4">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C57" t="s">
-        <v>233</v>
-      </c>
-      <c r="D57" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="4">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" t="s">
-        <v>236</v>
-      </c>
-      <c r="D58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="4">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C59" t="s">
-        <v>239</v>
-      </c>
-      <c r="D59" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="4">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C60" t="s">
-        <v>242</v>
-      </c>
-      <c r="D60" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="4">
-        <v>60</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C61" t="s">
-        <v>245</v>
-      </c>
-      <c r="D61" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="3">
-        <v>61</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C62" t="s">
-        <v>248</v>
-      </c>
-      <c r="D62" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="4">
-        <v>62</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C63" t="s">
-        <v>251</v>
-      </c>
-      <c r="D63" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="4">
-        <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C64" t="s">
-        <v>254</v>
-      </c>
-      <c r="D64" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="4">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C65" t="s">
-        <v>257</v>
-      </c>
-      <c r="D65" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="4">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C66" t="s">
-        <v>260</v>
-      </c>
-      <c r="D66" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="4">
-        <v>66</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C67" t="s">
-        <v>263</v>
-      </c>
-      <c r="D67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="3">
-        <v>67</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C68" t="s">
-        <v>266</v>
-      </c>
-      <c r="D68" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="4">
-        <v>68</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C69" t="s">
-        <v>269</v>
-      </c>
-      <c r="D69" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="4">
-        <v>69</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C70" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="4">
-        <v>70</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C71" t="s">
-        <v>275</v>
-      </c>
-      <c r="D71" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="4">
-        <v>71</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72" t="s">
-        <v>278</v>
-      </c>
-      <c r="D72" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="4">
-        <v>72</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C73" t="s">
-        <v>281</v>
-      </c>
-      <c r="D73" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="3">
-        <v>73</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C74" t="s">
-        <v>284</v>
-      </c>
-      <c r="D74" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="4">
-        <v>74</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C75" t="s">
-        <v>287</v>
-      </c>
-      <c r="D75" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="4">
-        <v>75</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C76" t="s">
-        <v>290</v>
-      </c>
-      <c r="D76" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="4">
-        <v>76</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C77" t="s">
-        <v>293</v>
-      </c>
-      <c r="D77" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="4">
-        <v>77</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C78" t="s">
-        <v>296</v>
-      </c>
-      <c r="D78" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="4">
-        <v>78</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" t="s">
-        <v>299</v>
-      </c>
-      <c r="D79" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="3">
-        <v>79</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C80" t="s">
-        <v>302</v>
-      </c>
-      <c r="D80" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="4">
-        <v>80</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C81" t="s">
-        <v>305</v>
-      </c>
-      <c r="D81" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="4">
-        <v>81</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="C82" t="s">
-        <v>308</v>
-      </c>
-      <c r="D82" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="4">
-        <v>82</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C83" t="s">
-        <v>311</v>
-      </c>
-      <c r="D83" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="4">
-        <v>83</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="C84" t="s">
-        <v>314</v>
-      </c>
-      <c r="D84" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="4">
-        <v>84</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C85" t="s">
-        <v>317</v>
-      </c>
-      <c r="D85" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="3">
-        <v>85</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C86" t="s">
-        <v>320</v>
-      </c>
-      <c r="D86" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="4">
-        <v>86</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C87" t="s">
-        <v>323</v>
-      </c>
-      <c r="D87" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="4">
-        <v>87</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="C88" t="s">
-        <v>326</v>
-      </c>
-      <c r="D88" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="4">
-        <v>88</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="C89" t="s">
-        <v>329</v>
-      </c>
-      <c r="D89" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="4">
-        <v>89</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="C90" t="s">
-        <v>332</v>
-      </c>
-      <c r="D90" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="4">
-        <v>90</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="C91" t="s">
-        <v>335</v>
-      </c>
-      <c r="D91" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="3">
-        <v>91</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C92" t="s">
-        <v>338</v>
-      </c>
-      <c r="D92" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="4">
-        <v>92</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="C93" t="s">
-        <v>341</v>
-      </c>
-      <c r="D93" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="4">
-        <v>93</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C94" t="s">
-        <v>344</v>
-      </c>
-      <c r="D94" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="4">
-        <v>94</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C95" t="s">
-        <v>347</v>
-      </c>
-      <c r="D95" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="4">
-        <v>95</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C96" t="s">
-        <v>350</v>
-      </c>
-      <c r="D96" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="4">
-        <v>96</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C97" t="s">
-        <v>353</v>
-      </c>
-      <c r="D97" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="3">
-        <v>97</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C98" t="s">
-        <v>356</v>
-      </c>
-      <c r="D98" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="4">
-        <v>98</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C99" t="s">
-        <v>359</v>
-      </c>
-      <c r="D99" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="4">
-        <v>99</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C100" t="s">
-        <v>362</v>
-      </c>
-      <c r="D100" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="4">
-        <v>100</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="C101" t="s">
-        <v>365</v>
-      </c>
-      <c r="D101" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="4">
-        <v>101</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C102" t="s">
-        <v>368</v>
-      </c>
-      <c r="D102" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="4">
-        <v>102</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C103" t="s">
-        <v>371</v>
-      </c>
-      <c r="D103" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="3">
-        <v>103</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C104" t="s">
-        <v>374</v>
-      </c>
-      <c r="D104" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="4">
-        <v>104</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C105" t="s">
-        <v>377</v>
-      </c>
-      <c r="D105" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="4">
-        <v>105</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C106" t="s">
-        <v>380</v>
-      </c>
-      <c r="D106" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="4">
-        <v>106</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C107" t="s">
-        <v>383</v>
-      </c>
-      <c r="D107" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="4">
-        <v>107</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C108" t="s">
-        <v>386</v>
-      </c>
-      <c r="D108" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="4">
-        <v>108</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C109" t="s">
-        <v>389</v>
-      </c>
-      <c r="D109" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="3">
-        <v>109</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="C110" t="s">
-        <v>392</v>
-      </c>
-      <c r="D110" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="4">
-        <v>110</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C111" t="s">
-        <v>395</v>
-      </c>
-      <c r="D111" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="4">
-        <v>111</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C112" t="s">
-        <v>398</v>
-      </c>
-      <c r="D112" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="4">
-        <v>112</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C113" t="s">
-        <v>401</v>
-      </c>
-      <c r="D113" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="4">
-        <v>113</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C114" t="s">
-        <v>404</v>
-      </c>
-      <c r="D114" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="4">
-        <v>114</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="C115" t="s">
-        <v>407</v>
-      </c>
-      <c r="D115" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="3">
-        <v>115</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C116" t="s">
-        <v>410</v>
-      </c>
-      <c r="D116" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="4">
-        <v>116</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C117" t="s">
-        <v>413</v>
-      </c>
-      <c r="D117" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="4">
-        <v>117</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C118" t="s">
-        <v>416</v>
-      </c>
-      <c r="D118" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="4">
-        <v>118</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C119" t="s">
-        <v>419</v>
-      </c>
-      <c r="D119" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="4">
-        <v>119</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C120" t="s">
-        <v>422</v>
-      </c>
-      <c r="D120" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="4">
-        <v>120</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C121" t="s">
-        <v>425</v>
-      </c>
-      <c r="D121" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="3">
-        <v>121</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C122" t="s">
-        <v>428</v>
-      </c>
-      <c r="D122" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="4">
-        <v>122</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C123" t="s">
-        <v>431</v>
-      </c>
-      <c r="D123" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="4">
-        <v>123</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C124" t="s">
-        <v>434</v>
-      </c>
-      <c r="D124" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="4">
-        <v>124</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="C125" t="s">
-        <v>437</v>
-      </c>
-      <c r="D125" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="4">
-        <v>125</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C126" t="s">
-        <v>440</v>
-      </c>
-      <c r="D126" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="4">
-        <v>126</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C127" t="s">
-        <v>443</v>
-      </c>
-      <c r="D127" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="3">
-        <v>127</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C128" t="s">
-        <v>446</v>
-      </c>
-      <c r="D128" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="4">
-        <v>128</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="C129" t="s">
-        <v>449</v>
-      </c>
-      <c r="D129" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="4">
-        <v>129</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C130" t="s">
-        <v>452</v>
-      </c>
-      <c r="D130" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="4">
-        <v>130</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="C131" t="s">
-        <v>455</v>
-      </c>
-      <c r="D131" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="4">
-        <v>131</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="C132" t="s">
-        <v>458</v>
-      </c>
-      <c r="D132" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="4">
-        <v>132</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="C133" t="s">
-        <v>461</v>
-      </c>
-      <c r="D133" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="3">
-        <v>133</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="C134" t="s">
-        <v>464</v>
-      </c>
-      <c r="D134" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="4">
-        <v>134</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="C135" t="s">
-        <v>467</v>
-      </c>
-      <c r="D135" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="4">
-        <v>135</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="C136" t="s">
-        <v>470</v>
-      </c>
-      <c r="D136" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="4">
-        <v>136</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="C137" t="s">
-        <v>473</v>
-      </c>
-      <c r="D137" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="4">
-        <v>137</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="C138" t="s">
-        <v>476</v>
-      </c>
-      <c r="D138" t="s">
-        <v>477</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8769,10 +5927,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -8856,1070 +6014,6 @@
       </c>
       <c r="D5" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" t="s">
-        <v>143</v>
-      </c>
-      <c r="D27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C29" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C30" t="s">
-        <v>152</v>
-      </c>
-      <c r="D30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C31" t="s">
-        <v>155</v>
-      </c>
-      <c r="D31" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C35" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C37" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C40" t="s">
-        <v>182</v>
-      </c>
-      <c r="D40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C41" t="s">
-        <v>185</v>
-      </c>
-      <c r="D41" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C42" t="s">
-        <v>188</v>
-      </c>
-      <c r="D42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C43" t="s">
-        <v>191</v>
-      </c>
-      <c r="D43" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C45" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C46" t="s">
-        <v>200</v>
-      </c>
-      <c r="D46" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C48" t="s">
-        <v>206</v>
-      </c>
-      <c r="D48" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C49" t="s">
-        <v>209</v>
-      </c>
-      <c r="D49" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C50" t="s">
-        <v>212</v>
-      </c>
-      <c r="D50" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C51" t="s">
-        <v>215</v>
-      </c>
-      <c r="D51" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="4">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C52" t="s">
-        <v>218</v>
-      </c>
-      <c r="D52" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="4">
-        <v>52</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C53" t="s">
-        <v>221</v>
-      </c>
-      <c r="D53" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="4">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C54" t="s">
-        <v>224</v>
-      </c>
-      <c r="D54" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="4">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C55" t="s">
-        <v>227</v>
-      </c>
-      <c r="D55" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="4">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C56" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="4">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C57" t="s">
-        <v>233</v>
-      </c>
-      <c r="D57" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="4">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C58" t="s">
-        <v>236</v>
-      </c>
-      <c r="D58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="4">
-        <v>58</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C59" t="s">
-        <v>239</v>
-      </c>
-      <c r="D59" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="4">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C60" t="s">
-        <v>242</v>
-      </c>
-      <c r="D60" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="4">
-        <v>60</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C61" t="s">
-        <v>245</v>
-      </c>
-      <c r="D61" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="4">
-        <v>61</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C62" t="s">
-        <v>248</v>
-      </c>
-      <c r="D62" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="4">
-        <v>62</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C63" t="s">
-        <v>251</v>
-      </c>
-      <c r="D63" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="4">
-        <v>63</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="C64" t="s">
-        <v>254</v>
-      </c>
-      <c r="D64" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="4">
-        <v>64</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C65" t="s">
-        <v>257</v>
-      </c>
-      <c r="D65" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="4">
-        <v>65</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C66" t="s">
-        <v>260</v>
-      </c>
-      <c r="D66" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="4">
-        <v>66</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C67" t="s">
-        <v>263</v>
-      </c>
-      <c r="D67" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="4">
-        <v>67</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C68" t="s">
-        <v>266</v>
-      </c>
-      <c r="D68" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="4">
-        <v>68</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="C69" t="s">
-        <v>269</v>
-      </c>
-      <c r="D69" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="4">
-        <v>69</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C70" t="s">
-        <v>272</v>
-      </c>
-      <c r="D70" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="4">
-        <v>70</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C71" t="s">
-        <v>275</v>
-      </c>
-      <c r="D71" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="4">
-        <v>71</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C72" t="s">
-        <v>278</v>
-      </c>
-      <c r="D72" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="4">
-        <v>72</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C73" t="s">
-        <v>281</v>
-      </c>
-      <c r="D73" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="4">
-        <v>73</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C74" t="s">
-        <v>284</v>
-      </c>
-      <c r="D74" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="4">
-        <v>74</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="C75" t="s">
-        <v>287</v>
-      </c>
-      <c r="D75" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="4">
-        <v>75</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C76" t="s">
-        <v>290</v>
-      </c>
-      <c r="D76" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="4">
-        <v>76</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C77" t="s">
-        <v>293</v>
-      </c>
-      <c r="D77" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="4">
-        <v>77</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C78" t="s">
-        <v>296</v>
-      </c>
-      <c r="D78" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="4">
-        <v>78</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="C79" t="s">
-        <v>299</v>
-      </c>
-      <c r="D79" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="4">
-        <v>79</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C80" t="s">
-        <v>302</v>
-      </c>
-      <c r="D80" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="4">
-        <v>80</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C81" t="s">
-        <v>305</v>
-      </c>
-      <c r="D81" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -9939,7 +6033,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="A1:D26"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -10331,7 +6425,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -10342,7 +6436,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>478</v>
+        <v>142</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>66</v>
@@ -10350,7 +6444,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>479</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -10358,7 +6452,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>480</v>
+        <v>144</v>
       </c>
       <c r="B3" t="s">
         <v>79</v>
@@ -10366,7 +6460,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>481</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -10374,7 +6468,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>482</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
@@ -10382,7 +6476,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>483</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -10390,7 +6484,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>484</v>
+        <v>148</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -10398,7 +6492,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>485</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -10406,7 +6500,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>486</v>
+        <v>150</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -10414,7 +6508,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>487</v>
+        <v>151</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -10422,7 +6516,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>488</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -10430,7 +6524,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>489</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s">
         <v>99</v>
@@ -10438,7 +6532,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>490</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
         <v>102</v>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="pve_elite" sheetId="7" r:id="rId6"/>
     <sheet name="pve_boss" sheetId="8" r:id="rId7"/>
     <sheet name="pve_npc" sheetId="9" r:id="rId8"/>
+    <sheet name="soldier_vs" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="175">
   <si>
     <t>INT_index</t>
   </si>
@@ -283,37 +284,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>resources,wood,12;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,wood,13;</t>
-  </si>
-  <si>
-    <t>resources,wood,14;</t>
-  </si>
-  <si>
-    <t>resources,wood,15;</t>
-  </si>
-  <si>
-    <t>resources,wood,16;</t>
-  </si>
-  <si>
-    <t>resources,wood,17;</t>
-  </si>
-  <si>
-    <t>resources,wood,18;</t>
-  </si>
-  <si>
-    <t>resources,wood,19;</t>
-  </si>
-  <si>
-    <t>resources,wood,20;</t>
-  </si>
-  <si>
-    <t>resources,wood,21;</t>
-  </si>
-  <si>
     <t>swordsman_1,100;sentinel_1,101</t>
   </si>
   <si>
@@ -347,133 +317,88 @@
     <t>swordsman_1,100;sentinel_1,110</t>
   </si>
   <si>
-    <t>resources,wood,22;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,111</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,111</t>
   </si>
   <si>
-    <t>resources,wood,23;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,112</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,112</t>
   </si>
   <si>
-    <t>resources,wood,24;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,113</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,113</t>
   </si>
   <si>
-    <t>resources,wood,25;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,114</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,114</t>
   </si>
   <si>
-    <t>resources,wood,26;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,115</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,115</t>
   </si>
   <si>
-    <t>resources,wood,27;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,116</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,116</t>
   </si>
   <si>
-    <t>resources,wood,28;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,117</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,117</t>
   </si>
   <si>
-    <t>resources,wood,29;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,118</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,118</t>
   </si>
   <si>
-    <t>resources,wood,30;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,119</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,119</t>
   </si>
   <si>
-    <t>resources,wood,31;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,120</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,120</t>
   </si>
   <si>
-    <t>resources,wood,32;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,121</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,121</t>
   </si>
   <si>
-    <t>resources,wood,33;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,122</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,122</t>
   </si>
   <si>
-    <t>resources,wood,34;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,123</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,123</t>
   </si>
   <si>
-    <t>resources,wood,35;</t>
-  </si>
-  <si>
     <t>redDragon,100,100,124</t>
   </si>
   <si>
     <t>swordsman_1,100;sentinel_1,124</t>
-  </si>
-  <si>
-    <t>resources,wood,36;</t>
   </si>
   <si>
     <t>STR_type</t>
@@ -514,6 +439,150 @@
   </si>
   <si>
     <t>ENTRANCE_DOOR</t>
+  </si>
+  <si>
+    <t>resources,wood,12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,13</t>
+  </si>
+  <si>
+    <t>resources,wood,14</t>
+  </si>
+  <si>
+    <t>resources,wood,15</t>
+  </si>
+  <si>
+    <t>resources,wood,16</t>
+  </si>
+  <si>
+    <t>resources,wood,17</t>
+  </si>
+  <si>
+    <t>resources,wood,12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,18</t>
+  </si>
+  <si>
+    <t>resources,wood,19</t>
+  </si>
+  <si>
+    <t>resources,wood,20</t>
+  </si>
+  <si>
+    <t>resources,wood,21</t>
+  </si>
+  <si>
+    <t>resources,wood,22</t>
+  </si>
+  <si>
+    <t>resources,wood,23</t>
+  </si>
+  <si>
+    <t>resources,wood,24</t>
+  </si>
+  <si>
+    <t>resources,wood,25</t>
+  </si>
+  <si>
+    <t>resources,wood,26</t>
+  </si>
+  <si>
+    <t>resources,wood,27</t>
+  </si>
+  <si>
+    <t>resources,wood,28</t>
+  </si>
+  <si>
+    <t>resources,wood,29</t>
+  </si>
+  <si>
+    <t>resources,wood,30</t>
+  </si>
+  <si>
+    <t>resources,wood,31</t>
+  </si>
+  <si>
+    <t>resources,wood,32</t>
+  </si>
+  <si>
+    <t>resources,wood,33</t>
+  </si>
+  <si>
+    <t>resources,wood,34</t>
+  </si>
+  <si>
+    <t>resources,wood,35</t>
+  </si>
+  <si>
+    <t>resources,wood,36</t>
+  </si>
+  <si>
+    <t>swordsman_2,100;sentinel_2,100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_2,100;sentinel_2,101</t>
+  </si>
+  <si>
+    <t>swordsman_2,100;sentinel_2,102</t>
+  </si>
+  <si>
+    <t>swordsman_2,100;sentinel_2,103</t>
+  </si>
+  <si>
+    <t>swordsman_2,100;sentinel_2,104</t>
+  </si>
+  <si>
+    <t>swordsman_2,100;sentinel_2,105</t>
+  </si>
+  <si>
+    <t>STR_soldier_type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>infantry</t>
+  </si>
+  <si>
+    <t>archer</t>
+  </si>
+  <si>
+    <t>cavalry</t>
+  </si>
+  <si>
+    <t>siege</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>STR_infantry</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_archer</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_cavalry</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_siege</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_wall</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>weak</t>
   </si>
 </sst>
 </file>
@@ -731,8 +800,98 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="197">
+  <cellStyleXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1366,7 +1525,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="197">
+  <cellStyles count="227">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1465,6 +1624,21 @@
     <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1563,6 +1737,21 @@
     <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5798,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -5837,10 +6026,10 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5851,10 +6040,10 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5865,10 +6054,10 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5879,10 +6068,10 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5893,10 +6082,10 @@
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5907,10 +6096,10 @@
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5930,7 +6119,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -5971,7 +6160,7 @@
         <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5982,10 +6171,10 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5996,10 +6185,10 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -6010,10 +6199,10 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6033,7 +6222,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -6069,7 +6258,7 @@
         <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6080,10 +6269,10 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -6094,10 +6283,10 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6108,10 +6297,10 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -6122,10 +6311,10 @@
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -6136,10 +6325,10 @@
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -6150,10 +6339,10 @@
         <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6164,10 +6353,10 @@
         <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -6178,10 +6367,10 @@
         <v>75</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -6192,10 +6381,10 @@
         <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -6203,13 +6392,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -6217,13 +6406,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -6231,13 +6420,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6245,13 +6434,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6259,13 +6448,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6273,13 +6462,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -6287,13 +6476,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -6301,13 +6490,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -6315,13 +6504,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -6329,13 +6518,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -6343,13 +6532,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -6357,13 +6546,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -6371,13 +6560,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -6385,13 +6574,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -6399,13 +6588,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -6425,7 +6614,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -6436,7 +6625,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>66</v>
@@ -6444,98 +6633,98 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -6586,4 +6775,142 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="7.25" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="9"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D6" t="s">
+        <v>173</v>
+      </c>
+      <c r="E6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -521,25 +521,6 @@
     <t>resources,wood,36</t>
   </si>
   <si>
-    <t>swordsman_2,100;sentinel_2,100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_2,100;sentinel_2,101</t>
-  </si>
-  <si>
-    <t>swordsman_2,100;sentinel_2,102</t>
-  </si>
-  <si>
-    <t>swordsman_2,100;sentinel_2,103</t>
-  </si>
-  <si>
-    <t>swordsman_2,100;sentinel_2,104</t>
-  </si>
-  <si>
-    <t>swordsman_2,100;sentinel_2,105</t>
-  </si>
-  <si>
     <t>STR_soldier_type</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -583,6 +564,25 @@
   </si>
   <si>
     <t>weak</t>
+  </si>
+  <si>
+    <t>swordsman_2,10;sentinel_2,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>swordsman_2,10;sentinel_2,11</t>
+  </si>
+  <si>
+    <t>swordsman_2,10;sentinel_2,12</t>
+  </si>
+  <si>
+    <t>swordsman_2,10;sentinel_2,13</t>
+  </si>
+  <si>
+    <t>swordsman_2,10;sentinel_2,14</t>
+  </si>
+  <si>
+    <t>swordsman_2,10;sentinel_2,15</t>
   </si>
 </sst>
 </file>
@@ -5987,8 +5987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -6026,7 +6026,7 @@
         <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
         <v>130</v>
@@ -6040,7 +6040,7 @@
         <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
         <v>131</v>
@@ -6054,7 +6054,7 @@
         <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
         <v>132</v>
@@ -6068,7 +6068,7 @@
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
         <v>133</v>
@@ -6082,7 +6082,7 @@
         <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="D6" t="s">
         <v>134</v>
@@ -6096,7 +6096,7 @@
         <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
         <v>135</v>
@@ -6781,7 +6781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -6798,109 +6798,109 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>168</v>
-      </c>
       <c r="C1" s="9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
         <v>167</v>
       </c>
-      <c r="B6" t="s">
-        <v>174</v>
-      </c>
-      <c r="C6" t="s">
-        <v>173</v>
-      </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="189">
   <si>
     <t>INT_index</t>
   </si>
@@ -583,13 +583,69 @@
   </si>
   <si>
     <t>swordsman_2,10;sentinel_2,15</t>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,18,60;resources,stone,18,30;resources,food,18,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_rewards_type</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,infantryAtkBonus_1,1,20;items,archerAtkBonus_1,1,20;items,cavalryAtkBonus_1,1,20;items,siegeAtkBonus_1,1,20;items,masterOfDefender_1,1,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,woodClass_1,1,20;items,stoneClass_1,1,20;items,ironClass_1,1,20;items,foodClass_1,1,20;items,woodClass_1,1,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,woodBonus_1,1,20;items,stoneBonus_1,1,20;items,ironBonus_1,1,20;items,foodBonus_1,1,20;items,coinClass_1,1,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRAP_MONSTER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,dragonHpBonus_1,1,1;items,dragonExpBonus_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,heroBlood_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,vipActive_1,18,60;items,vipActive_2,18,30;items,vipActive_3,18,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -636,6 +692,11 @@
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="5">
@@ -800,7 +861,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="227">
+  <cellStyleXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1482,8 +1543,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1524,8 +1615,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="227">
+  <cellStyles count="237">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1639,6 +1733,11 @@
     <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1752,6 +1851,11 @@
     <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5987,8 +6091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -6221,8 +6325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -6611,129 +6715,176 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="40.25" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="118.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>184</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>183</v>
+      </c>
+      <c r="C8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
         <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>187</v>
+      </c>
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B11" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="4" t="s">
         <v>129</v>
       </c>
       <c r="B13" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1">
@@ -6769,6 +6920,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" activeTab="6"/>
+    <workbookView xWindow="2520" yWindow="0" windowWidth="26880" windowHeight="17040" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,9 @@
     <sheet name="pve_boss" sheetId="8" r:id="rId7"/>
     <sheet name="pve_npc" sheetId="9" r:id="rId8"/>
     <sheet name="soldier_vs" sheetId="10" r:id="rId9"/>
+    <sheet name="wonder_grassLand" sheetId="11" r:id="rId10"/>
+    <sheet name="wonder_desert" sheetId="12" r:id="rId11"/>
+    <sheet name="wonder_iceField" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="219">
   <si>
     <t>INT_index</t>
   </si>
@@ -638,6 +641,120 @@
   </si>
   <si>
     <t>items,vipActive_1,18,60;items,vipActive_2,18,30;items,vipActive_3,18,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>highcastle</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>norland</t>
+  </si>
+  <si>
+    <t>rainhaven</t>
+  </si>
+  <si>
+    <t>dunwall</t>
+  </si>
+  <si>
+    <t>STR_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_order</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_awardHonourPerDay</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_title</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_x</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>medal_3,curse_2,curse_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>medal_4,medal_5,curse_4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>medal_1,medal_2,curse_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>medal_6,curse_5,curse_6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>medal_7,curse_7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gateway</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lostmoor</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackiron</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>kanan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rockwarren</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>whitemoon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>coldcastle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>silverden</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greygriffin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>scar</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_terrain</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>grassLand</t>
+  </si>
+  <si>
+    <t>desert</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceField</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +762,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -697,6 +814,11 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times"/>
     </font>
   </fonts>
   <fills count="5">
@@ -861,7 +983,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="237">
+  <cellStyleXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1573,8 +1695,86 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1618,8 +1818,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="237">
+  <cellStyles count="263">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1738,6 +1941,19 @@
     <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1856,6 +2072,19 @@
     <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4539,6 +4768,501 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>30000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2">
+        <v>273</v>
+      </c>
+      <c r="G2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>20000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3">
+        <v>510</v>
+      </c>
+      <c r="G3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>15000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4">
+        <v>782</v>
+      </c>
+      <c r="G4">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>12000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5">
+        <v>680</v>
+      </c>
+      <c r="G5">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F6">
+        <v>440</v>
+      </c>
+      <c r="G6">
+        <v>926</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>30000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2">
+        <v>1252</v>
+      </c>
+      <c r="G2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>20000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3">
+        <v>1304</v>
+      </c>
+      <c r="G3">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>15000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4">
+        <v>1112</v>
+      </c>
+      <c r="G4">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>12000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5">
+        <v>1140</v>
+      </c>
+      <c r="G5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6">
+        <v>932</v>
+      </c>
+      <c r="G6">
+        <v>680</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>30000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2">
+        <v>746</v>
+      </c>
+      <c r="G2">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>20000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F3">
+        <v>448</v>
+      </c>
+      <c r="G3">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>15000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F4">
+        <v>198</v>
+      </c>
+      <c r="G4">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>12000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5">
+        <v>410</v>
+      </c>
+      <c r="G5">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" t="s">
+        <v>218</v>
+      </c>
+      <c r="F6">
+        <v>404</v>
+      </c>
+      <c r="G6">
+        <v>1176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
@@ -6325,7 +7049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -6934,7 +7658,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="0" windowWidth="26880" windowHeight="17040" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="9960" yWindow="4360" windowWidth="25600" windowHeight="15540" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="wonder_grassLand" sheetId="11" r:id="rId10"/>
     <sheet name="wonder_desert" sheetId="12" r:id="rId11"/>
     <sheet name="wonder_iceField" sheetId="13" r:id="rId12"/>
+    <sheet name="selena_question" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="229">
   <si>
     <t>INT_index</t>
   </si>
@@ -755,6 +756,44 @@
   </si>
   <si>
     <t>iceField</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_index</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_correct</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级木工小屋，石匠小屋，矿工小屋，农夫小屋占用城民，因此我们应该：</t>
+  </si>
+  <si>
+    <t>优先升级住宅</t>
+  </si>
+  <si>
+    <t>鼓励城民生育</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>进攻其他玩家，抢些人回来！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL_answer_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL_answer_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL_answer_3</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +801,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -820,8 +859,20 @@
       <color rgb="FF000000"/>
       <name val="Times"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -846,8 +897,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2A1C7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -982,8 +1039,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="263">
+  <cellStyleXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1773,8 +1845,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1821,8 +1965,161 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="263">
+  <cellStyles count="287">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1954,138 +2251,18 @@
     <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -4937,9 +5114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
@@ -5102,8 +5277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -5247,8 +5422,396 @@
       <c r="F6">
         <v>404</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="18">
         <v>1176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="54.625" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+      <c r="C13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" t="s">
+        <v>222</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>221</v>
+      </c>
+      <c r="C16" t="s">
+        <v>222</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="339">
   <si>
     <t>INT_index</t>
   </si>
@@ -767,18 +767,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>升级木工小屋，石匠小屋，矿工小屋，农夫小屋占用城民，因此我们应该：</t>
-  </si>
-  <si>
     <t>优先升级住宅</t>
-  </si>
-  <si>
-    <t>鼓励城民生育</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>进攻其他玩家，抢些人回来！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LOCAL_title</t>
@@ -795,6 +784,353 @@
   <si>
     <t>LOCAL_answer_3</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩建城市可以解锁更多新建筑，获得更多坑位，那么怎么扩建城市呢？</t>
+  </si>
+  <si>
+    <t>龙如果想要晋升星级，下面哪一个不是必要条件？</t>
+  </si>
+  <si>
+    <t>想要提升龙的技能等级，你需要下面哪一种资源？</t>
+  </si>
+  <si>
+    <t>匹配联盟战斗是根据什么条件进行匹配的？</t>
+  </si>
+  <si>
+    <t>升级联盟宫殿可以获得什么好处？</t>
+  </si>
+  <si>
+    <t>如果不驻防龙城市将不会主动防御敌方的进攻，那么在哪里设置驻防在城市的龙呢？</t>
+  </si>
+  <si>
+    <t>建筑升级到一定等级后需要特殊的建筑材料，这些建筑材料主要来自哪种渠道？</t>
+  </si>
+  <si>
+    <t>联盟荣耀值是非常重要的资源，哪种方式不是联盟获得荣耀值的方式？</t>
+  </si>
+  <si>
+    <t>下面哪种方式，不能提升战斗后可治愈伤兵的上限？</t>
+  </si>
+  <si>
+    <t>在联盟匹配战时，你可以通过龙突袭敌方玩家城市获得什么？</t>
+  </si>
+  <si>
+    <t>如何提升城市中住宅的可建造数量？</t>
+  </si>
+  <si>
+    <t>当城墙的耐久度完全降低到0时会产生什么后果？</t>
+  </si>
+  <si>
+    <t>通过探险可以获得大量的资源，稀有材料和道具，那么从什么敌方进入探险地图呢？</t>
+  </si>
+  <si>
+    <t>以下哪一个条件是控制龙装备的材料掉落的数量和品质？</t>
+  </si>
+  <si>
+    <t>联盟会战一旦由联盟盟主发起，并匹配成功后，会发生什么？</t>
+  </si>
+  <si>
+    <t>想要带兵出征，下面哪一个条件不是必要的条件？</t>
+  </si>
+  <si>
+    <t>如何提升联盟领地上村落的等级，从而在采集过程中获得更多资源？</t>
+  </si>
+  <si>
+    <t>如何提升自己在联盟领地上采集村落中资源的效率?</t>
+  </si>
+  <si>
+    <t>在什么地方可以花费忠诚值购买原本需要花费金龙币才能获得道具？</t>
+  </si>
+  <si>
+    <t>当发觉你的盟友被攻击，你如何帮助盟友抵御这次攻击？</t>
+  </si>
+  <si>
+    <t>已经招募的部队会持续消耗粮食，当粮食为0时，你的部队会发生什么？</t>
+  </si>
+  <si>
+    <t>在探险时可能会获得一些特殊材料，可以招募特殊的亡灵兵种，那么亡灵兵种有什么特殊属性？</t>
+  </si>
+  <si>
+    <t>升级木工小屋，石匠小屋，矿工小屋，农夫小屋会占用城民，因此我们应该：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何提升城市中木材小屋的可建造数量？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何提升城市中石料小屋的可建造数量？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何提升城市中矿工小屋的可建造数量？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何提升城市中农场小屋的可建造数量？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何在强化龙装备的过程中，获得更多经验值，最快提升装备强化的星级？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何将住宅，木材小屋，石料小屋，矿工小屋，农夫小屋在城市中移动位置？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要提升部队的最大派出人口上限，下面哪一个方式不是正确的方式？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>向神灵祈祷</t>
+  </si>
+  <si>
+    <t>提升龙的等级</t>
+  </si>
+  <si>
+    <t>英雄之血</t>
+  </si>
+  <si>
+    <t>你和开发者之间的关系</t>
+  </si>
+  <si>
+    <t>提升联盟的成员上限</t>
+  </si>
+  <si>
+    <t>在城市的城墙</t>
+  </si>
+  <si>
+    <t>用相同颜色的装备强化</t>
+  </si>
+  <si>
+    <t>带领部队在外征战</t>
+  </si>
+  <si>
+    <t>向联盟捐赠资源</t>
+  </si>
+  <si>
+    <t>升级城市中医院</t>
+  </si>
+  <si>
+    <t>抢走敌方城市的银币</t>
+  </si>
+  <si>
+    <t>提升住宅的等级</t>
+  </si>
+  <si>
+    <t>提升城堡等级</t>
+  </si>
+  <si>
+    <t>提升石匠工坊的等级</t>
+  </si>
+  <si>
+    <t>提升矿工小屋的等级</t>
+  </si>
+  <si>
+    <t>用手指拖动想要移动的建筑</t>
+  </si>
+  <si>
+    <t>敌方联盟会击溃你的城市，获得额外的联盟积分</t>
+  </si>
+  <si>
+    <t>城堡旁边的飞艇</t>
+  </si>
+  <si>
+    <t>在一场战斗中获得更多的击杀积分</t>
+  </si>
+  <si>
+    <t>有发生什么吗？不知道</t>
+  </si>
+  <si>
+    <t>必须派出一条巨龙</t>
+  </si>
+  <si>
+    <t>在联盟的秩序大厅中升级科技</t>
+  </si>
+  <si>
+    <t>尽量采集同一种资源，从而提升该资源的采集熟练度</t>
+  </si>
+  <si>
+    <t>联盟领地的联盟宫殿</t>
+  </si>
+  <si>
+    <t>选中盟友城市派出部队协防</t>
+  </si>
+  <si>
+    <t>士兵的战斗力会降低</t>
+  </si>
+  <si>
+    <t>长得很特别</t>
+  </si>
+  <si>
+    <t>鼓励城民生育</t>
+  </si>
+  <si>
+    <t>雇佣奴隶开垦荒地</t>
+  </si>
+  <si>
+    <t>升级龙的技能</t>
+  </si>
+  <si>
+    <t>技能点数</t>
+  </si>
+  <si>
+    <t>你联盟的战斗力</t>
+  </si>
+  <si>
+    <t>能够建一个私人泳池</t>
+  </si>
+  <si>
+    <t>在地图上选一座高耸的山峰</t>
+  </si>
+  <si>
+    <t>用相同部位，相同龙的装备强化</t>
+  </si>
+  <si>
+    <t>生产自工具作坊</t>
+  </si>
+  <si>
+    <t>参加联盟匹配战</t>
+  </si>
+  <si>
+    <t>升级学院中的相应科技</t>
+  </si>
+  <si>
+    <t>敌方城市的相关情报</t>
+  </si>
+  <si>
+    <t>提升市政厅的等级</t>
+  </si>
+  <si>
+    <t>提升木工小屋的等级</t>
+  </si>
+  <si>
+    <t>提升铸造工坊的等级</t>
+  </si>
+  <si>
+    <t>升级农夫小屋的等级</t>
+  </si>
+  <si>
+    <t>用你的意念进行移动</t>
+  </si>
+  <si>
+    <t>你将无法派遣部队</t>
+  </si>
+  <si>
+    <t>联盟领地的月门</t>
+  </si>
+  <si>
+    <t>和赛琳娜搞好关系</t>
+  </si>
+  <si>
+    <t>己方和敌方的联盟领地拼接到一起</t>
+  </si>
+  <si>
+    <t>必须派出军事单位</t>
+  </si>
+  <si>
+    <t>装备并强化龙的发球</t>
+  </si>
+  <si>
+    <t>在心里默默祈祷</t>
+  </si>
+  <si>
+    <t>快用信用卡充值吧！</t>
+  </si>
+  <si>
+    <t>联盟领地中的商店</t>
+  </si>
+  <si>
+    <t>给盟友要送一封邮件支持他</t>
+  </si>
+  <si>
+    <t>士兵会不停的逃走</t>
+  </si>
+  <si>
+    <t>不会持续消耗粮食</t>
+  </si>
+  <si>
+    <t>进攻其他玩家，抢些人回来！</t>
+  </si>
+  <si>
+    <t>升级城堡</t>
+  </si>
+  <si>
+    <t>强化龙的装备</t>
+  </si>
+  <si>
+    <t>信用卡</t>
+  </si>
+  <si>
+    <t>你自己的战斗力</t>
+  </si>
+  <si>
+    <t>能够扩大联盟领地</t>
+  </si>
+  <si>
+    <t>在心里默念咒语</t>
+  </si>
+  <si>
+    <t>用刚刚炼制出的装备强化</t>
+  </si>
+  <si>
+    <t>生产自车间</t>
+  </si>
+  <si>
+    <t>给联盟盟主点赞</t>
+  </si>
+  <si>
+    <t>升级城市中住宅</t>
+  </si>
+  <si>
+    <t>消耗敌方龙的生命值</t>
+  </si>
+  <si>
+    <t>提升锯木工坊的等级</t>
+  </si>
+  <si>
+    <t>提升石料小屋的等级</t>
+  </si>
+  <si>
+    <t>提升磨坊的等级</t>
+  </si>
+  <si>
+    <t>在小屋倚畔⒂一栏中使用建筑移动按钮</t>
+  </si>
+  <si>
+    <t>损失所有的资源</t>
+  </si>
+  <si>
+    <t>城市中的龙巢</t>
+  </si>
+  <si>
+    <t>击杀掉敌方的龙</t>
+  </si>
+  <si>
+    <t>会获得一大笔联盟荣耀值</t>
+  </si>
+  <si>
+    <t>必须派出英雄</t>
+  </si>
+  <si>
+    <t>向联盟盟主发邮件</t>
+  </si>
+  <si>
+    <t>提升联盟宫殿的等级</t>
+  </si>
+  <si>
+    <t>城市中的贸易行会</t>
+  </si>
+  <si>
+    <t>派出一支部队占领村落</t>
+  </si>
+  <si>
+    <t>什么都会不发生</t>
+  </si>
+  <si>
+    <t>没有什么特别</t>
   </si>
 </sst>
 </file>
@@ -1055,8 +1391,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="287">
+  <cellStyleXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1975,8 +2323,152 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="287">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="291">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2120,149 +2612,9 @@
     <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -5440,15 +5792,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="54.625" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="65.625" customWidth="1"/>
     <col min="3" max="3" width="15.625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
@@ -5459,16 +5812,16 @@
         <v>219</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>228</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>220</v>
@@ -5478,17 +5831,17 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" t="s">
         <v>221</v>
       </c>
-      <c r="C2" t="s">
-        <v>222</v>
-      </c>
       <c r="D2" s="20" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -5499,19 +5852,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>223</v>
+        <v>284</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>224</v>
+        <v>313</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5519,19 +5872,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>224</v>
+        <v>314</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5539,16 +5892,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C5" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>223</v>
+        <v>286</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>224</v>
+        <v>315</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -5559,19 +5912,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>223</v>
+        <v>287</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>224</v>
+        <v>316</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5579,19 +5932,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>224</v>
+        <v>317</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5599,36 +5952,36 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>223</v>
+        <v>289</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>221</v>
+      <c r="B9" s="20" t="s">
+        <v>253</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>223</v>
+        <v>290</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -5639,19 +5992,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>224</v>
+        <v>320</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5659,19 +6012,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>223</v>
+        <v>292</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>224</v>
+        <v>321</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5679,19 +6032,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>223</v>
+        <v>293</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>224</v>
+        <v>322</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5699,19 +6052,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>223</v>
+        <v>294</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>224</v>
+        <v>323</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5719,98 +6072,358 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="C14" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>221</v>
+      <c r="B15" s="20" t="s">
+        <v>249</v>
       </c>
       <c r="C15" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>223</v>
+        <v>296</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>224</v>
+        <v>324</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>221</v>
+      <c r="B16" s="20" t="s">
+        <v>250</v>
       </c>
       <c r="C16" t="s">
-        <v>222</v>
+        <v>269</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>224</v>
+        <v>325</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>221</v>
+      <c r="B17" s="20" t="s">
+        <v>251</v>
       </c>
       <c r="C17" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>221</v>
+      <c r="B18" s="20" t="s">
+        <v>252</v>
       </c>
       <c r="C18" t="s">
-        <v>222</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>224</v>
+        <v>268</v>
+      </c>
+      <c r="D18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" t="s">
+        <v>326</v>
       </c>
       <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="32">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D19" t="s">
+        <v>299</v>
+      </c>
+      <c r="E19" t="s">
+        <v>327</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="48">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C20" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" t="s">
+        <v>328</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E21" t="s">
+        <v>329</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="32">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>239</v>
+      </c>
+      <c r="C22" t="s">
+        <v>274</v>
+      </c>
+      <c r="D22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" t="s">
+        <v>330</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="32">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" t="s">
+        <v>275</v>
+      </c>
+      <c r="D23" t="s">
+        <v>303</v>
+      </c>
+      <c r="E23" t="s">
+        <v>331</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E24" t="s">
+        <v>332</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E25" t="s">
+        <v>313</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="32">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="48">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E27" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28" t="s">
+        <v>335</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="32">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>245</v>
+      </c>
+      <c r="C29" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E29" t="s">
+        <v>336</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" t="s">
+        <v>310</v>
+      </c>
+      <c r="E30" t="s">
+        <v>337</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>247</v>
+      </c>
+      <c r="C31" t="s">
+        <v>282</v>
+      </c>
+      <c r="D31" t="s">
+        <v>311</v>
+      </c>
+      <c r="E31" t="s">
+        <v>338</v>
+      </c>
+      <c r="F31">
         <v>2</v>
       </c>
     </row>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="4360" windowWidth="25600" windowHeight="15540" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="2020" yWindow="1540" windowWidth="29440" windowHeight="17500" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="339">
   <si>
     <t>INT_index</t>
   </si>
@@ -763,10 +763,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>INT_correct</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>优先升级住宅</t>
   </si>
   <si>
@@ -932,9 +928,6 @@
     <t>用手指拖动想要移动的建筑</t>
   </si>
   <si>
-    <t>敌方联盟会击溃你的城市，获得额外的联盟积分</t>
-  </si>
-  <si>
     <t>城堡旁边的飞艇</t>
   </si>
   <si>
@@ -956,9 +949,6 @@
     <t>联盟领地的联盟宫殿</t>
   </si>
   <si>
-    <t>选中盟友城市派出部队协防</t>
-  </si>
-  <si>
     <t>士兵的战斗力会降低</t>
   </si>
   <si>
@@ -1034,18 +1024,9 @@
     <t>装备并强化龙的发球</t>
   </si>
   <si>
-    <t>在心里默默祈祷</t>
-  </si>
-  <si>
-    <t>快用信用卡充值吧！</t>
-  </si>
-  <si>
     <t>联盟领地中的商店</t>
   </si>
   <si>
-    <t>给盟友要送一封邮件支持他</t>
-  </si>
-  <si>
     <t>士兵会不停的逃走</t>
   </si>
   <si>
@@ -1070,9 +1051,6 @@
     <t>能够扩大联盟领地</t>
   </si>
   <si>
-    <t>在心里默念咒语</t>
-  </si>
-  <si>
     <t>用刚刚炼制出的装备强化</t>
   </si>
   <si>
@@ -1097,9 +1075,6 @@
     <t>提升磨坊的等级</t>
   </si>
   <si>
-    <t>在小屋倚畔⒂一栏中使用建筑移动按钮</t>
-  </si>
-  <si>
     <t>损失所有的资源</t>
   </si>
   <si>
@@ -1124,13 +1099,46 @@
     <t>城市中的贸易行会</t>
   </si>
   <si>
-    <t>派出一支部队占领村落</t>
-  </si>
-  <si>
     <t>什么都会不发生</t>
   </si>
   <si>
     <t>没有什么特别</t>
+  </si>
+  <si>
+    <t>在小屋-信息中使用建筑移动按钮</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方联盟会获得额外的联盟积分</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在城市的城堡</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升城堡等级</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>给村落提供帮助</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>赶快充值吧！</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>给盟友要送一封邮件并支持他</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在聊天频道强烈谴责这种行为</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中盟友城市并派出部队协防</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1391,8 +1399,350 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="291">
+  <cellStyleXfs count="405">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2323,7 +2673,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="291">
+  <cellStyles count="405">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2469,6 +2819,63 @@
     <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2614,6 +3021,63 @@
     <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5792,639 +6256,546 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="C3" sqref="C3:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="65.625" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
         <v>219</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>226</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>285</v>
-      </c>
       <c r="E4" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>287</v>
+        <v>228</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D6" t="s">
+        <v>258</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>317</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="C9" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>290</v>
+        <v>252</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="D9" t="s">
+        <v>261</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>291</v>
+        <v>231</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" t="s">
+        <v>262</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" t="s">
-        <v>264</v>
+        <v>232</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>314</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>289</v>
+      </c>
+      <c r="E11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" t="s">
-        <v>265</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>293</v>
+        <v>233</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="D12" t="s">
+        <v>264</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" t="s">
-        <v>266</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>294</v>
+        <v>234</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" t="s">
+        <v>265</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C14" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="D14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>296</v>
+        <v>248</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D15" t="s">
+        <v>267</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C17" t="s">
-        <v>270</v>
+        <v>250</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>294</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>267</v>
+      </c>
+      <c r="E17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C18" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="E18" t="s">
-        <v>326</v>
-      </c>
-      <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="32">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" t="s">
-        <v>271</v>
+        <v>253</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>330</v>
       </c>
       <c r="D19" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="E19" t="s">
-        <v>327</v>
-      </c>
-      <c r="F19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="48">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>237</v>
-      </c>
-      <c r="C20" t="s">
-        <v>272</v>
+        <v>236</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>331</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E20" t="s">
-        <v>328</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E21" t="s">
-        <v>329</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="32">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="32">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E22" t="s">
-        <v>330</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="32">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="32">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C23" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>273</v>
       </c>
       <c r="E23" t="s">
-        <v>331</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="D24" t="s">
-        <v>304</v>
+        <v>274</v>
       </c>
       <c r="E24" t="s">
-        <v>332</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>333</v>
       </c>
       <c r="D25" t="s">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="E25" t="s">
-        <v>313</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="32">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" t="s">
-        <v>277</v>
-      </c>
-      <c r="D26" t="s">
-        <v>306</v>
+        <v>275</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>334</v>
       </c>
       <c r="E26" t="s">
-        <v>333</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="48">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="32">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
-      </c>
-      <c r="D27" t="s">
-        <v>307</v>
+        <v>276</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>335</v>
       </c>
       <c r="E27" t="s">
-        <v>334</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>279</v>
+        <v>303</v>
       </c>
       <c r="D28" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E28" t="s">
-        <v>335</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="32">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>245</v>
-      </c>
-      <c r="C29" t="s">
-        <v>280</v>
-      </c>
-      <c r="D29" t="s">
-        <v>309</v>
-      </c>
-      <c r="E29" t="s">
+        <v>244</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="E29" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C30" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="D30" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
       <c r="E30" t="s">
-        <v>337</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C31" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="D31" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="E31" t="s">
-        <v>338</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -8618,7 +8989,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="1540" windowWidth="29440" windowHeight="17500" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="1040" yWindow="0" windowWidth="25600" windowHeight="14320" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,13 @@
     <sheet name="pve_normal" sheetId="6" r:id="rId5"/>
     <sheet name="pve_elite" sheetId="7" r:id="rId6"/>
     <sheet name="pve_boss" sheetId="8" r:id="rId7"/>
-    <sheet name="pve_npc" sheetId="9" r:id="rId8"/>
-    <sheet name="soldier_vs" sheetId="10" r:id="rId9"/>
-    <sheet name="wonder_grassLand" sheetId="11" r:id="rId10"/>
-    <sheet name="wonder_desert" sheetId="12" r:id="rId11"/>
-    <sheet name="wonder_iceField" sheetId="13" r:id="rId12"/>
-    <sheet name="selena_question" sheetId="14" r:id="rId13"/>
+    <sheet name="pve_dragon" sheetId="15" r:id="rId8"/>
+    <sheet name="pve_npc" sheetId="9" r:id="rId9"/>
+    <sheet name="soldier_vs" sheetId="10" r:id="rId10"/>
+    <sheet name="wonder_grassLand" sheetId="11" r:id="rId11"/>
+    <sheet name="wonder_desert" sheetId="12" r:id="rId12"/>
+    <sheet name="wonder_iceField" sheetId="13" r:id="rId13"/>
+    <sheet name="selena_question" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="414">
   <si>
     <t>INT_index</t>
   </si>
@@ -241,10 +242,6 @@
     <t>workshop</t>
   </si>
   <si>
-    <t>STR_dragon_hp_strength_vitality</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_soldiers</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -253,158 +250,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>redDragon,100,100,100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,100,100,101</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,102</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,103</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,104</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,105</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,106</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,107</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,108</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,109</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,101</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,102</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,103</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,104</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,105</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,106</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,107</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,108</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,109</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,110</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,110</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,111</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,111</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,112</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,112</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,113</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,113</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,114</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,114</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,115</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,115</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,116</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,116</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,117</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,117</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,118</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,118</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,119</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,119</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,120</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,120</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,121</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,121</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,122</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,122</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,123</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,123</t>
-  </si>
-  <si>
-    <t>redDragon,100,100,124</t>
-  </si>
-  <si>
-    <t>swordsman_1,100;sentinel_1,124</t>
-  </si>
-  <si>
     <t>STR_type</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -440,89 +285,6 @@
   </si>
   <si>
     <t>ANCIENT_RUINS</t>
-  </si>
-  <si>
-    <t>ENTRANCE_DOOR</t>
-  </si>
-  <si>
-    <t>resources,wood,12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,wood,13</t>
-  </si>
-  <si>
-    <t>resources,wood,14</t>
-  </si>
-  <si>
-    <t>resources,wood,15</t>
-  </si>
-  <si>
-    <t>resources,wood,16</t>
-  </si>
-  <si>
-    <t>resources,wood,17</t>
-  </si>
-  <si>
-    <t>resources,wood,12</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,wood,18</t>
-  </si>
-  <si>
-    <t>resources,wood,19</t>
-  </si>
-  <si>
-    <t>resources,wood,20</t>
-  </si>
-  <si>
-    <t>resources,wood,21</t>
-  </si>
-  <si>
-    <t>resources,wood,22</t>
-  </si>
-  <si>
-    <t>resources,wood,23</t>
-  </si>
-  <si>
-    <t>resources,wood,24</t>
-  </si>
-  <si>
-    <t>resources,wood,25</t>
-  </si>
-  <si>
-    <t>resources,wood,26</t>
-  </si>
-  <si>
-    <t>resources,wood,27</t>
-  </si>
-  <si>
-    <t>resources,wood,28</t>
-  </si>
-  <si>
-    <t>resources,wood,29</t>
-  </si>
-  <si>
-    <t>resources,wood,30</t>
-  </si>
-  <si>
-    <t>resources,wood,31</t>
-  </si>
-  <si>
-    <t>resources,wood,32</t>
-  </si>
-  <si>
-    <t>resources,wood,33</t>
-  </si>
-  <si>
-    <t>resources,wood,34</t>
-  </si>
-  <si>
-    <t>resources,wood,35</t>
-  </si>
-  <si>
-    <t>resources,wood,36</t>
   </si>
   <si>
     <t>STR_soldier_type</t>
@@ -570,25 +332,6 @@
     <t>weak</t>
   </si>
   <si>
-    <t>swordsman_2,10;sentinel_2,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>swordsman_2,10;sentinel_2,11</t>
-  </si>
-  <si>
-    <t>swordsman_2,10;sentinel_2,12</t>
-  </si>
-  <si>
-    <t>swordsman_2,10;sentinel_2,13</t>
-  </si>
-  <si>
-    <t>swordsman_2,10;sentinel_2,14</t>
-  </si>
-  <si>
-    <t>swordsman_2,10;sentinel_2,15</t>
-  </si>
-  <si>
     <t>all</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -606,10 +349,6 @@
   </si>
   <si>
     <t>random</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,wood,18,60;resources,stone,18,30;resources,food,18,10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -617,34 +356,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>items,infantryAtkBonus_1,1,20;items,archerAtkBonus_1,1,20;items,cavalryAtkBonus_1,1,20;items,siegeAtkBonus_1,1,20;items,masterOfDefender_1,1,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,woodClass_1,1,20;items,stoneClass_1,1,20;items,ironClass_1,1,20;items,foodClass_1,1,20;items,woodClass_1,1,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,woodBonus_1,1,20;items,stoneBonus_1,1,20;items,ironBonus_1,1,20;items,foodBonus_1,1,20;items,coinClass_1,1,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>TRAP_MONSTER</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,dragonHpBonus_1,1,1;items,dragonExpBonus_1,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,heroBlood_1,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,vipActive_1,18,60;items,vipActive_2,18,30;items,vipActive_3,18,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>highcastle</t>
   </si>
   <si>
@@ -1138,6 +849,652 @@
   </si>
   <si>
     <t>选中盟友城市并派出部队协防</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>想要招募更高级的兵种，你需要在训练营地，猎手大厅，马厩，车间中对兵种晋级。那么晋级需要的条件是什么？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级军事科技，提升兵种的军事科技水平</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>积攒经验值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集一套兵种的卡牌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在城市中的城堡中，可以变更城市的地形，那么变更城市的地形有什么具体的好处？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升对应龙的生命恢复速度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在进攻敌方城市的时候，可以观察其地形，并派出相应的龙带领部队战斗，这么做的好处是？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升龙的力量，并获得额外的兵种加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在联盟宫殿，可以变更联盟的地形，那么变更联盟的地形有什么特殊的用途？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀敌方单位时，会掉落对应龙的装备材料</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>换个口味，没什么作用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得不同的资源产量加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个信息没什么价值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>派出相应的兵种可以获得加成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用来区分敌我双方的领土不一样</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,iron,500;resources,food,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,500;resources,iron,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,500;resources,stone,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,stone,500;resources,iron,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldierMaterials,deathHand,1;soldierMaterials,soulStone,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldierMaterials,heroBones,1;soldierMaterials,magicBox,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,coin,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_1,8;crossbowman_1,7;horseArcher_1,3;swordsman_1,5;lancer_1,2;archer_1,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_1,8;sentinel_1,7;horseArcher_1,3;archer_1,5;ballista_1,1;swordsman_1,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_1,4;swordsman_1,7;archer_1,6;sentinel_1,5;horseArcher_1,2;crossbowman_1,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_1,2;archer_1,7;crossbowman_1,6;swordsman_1,5;lancer_1,2;sentinel_1,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathKnight,4;skeletonWarrior,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>meatWagon,2;skeletonArcher,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2,8;archer_2,7;horseArcher_2,3;swordsman_2,5;ballista_2,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>archer_2,8;swordsman_2,7;lancer_2,3;crossbowman_2,5;catapult_2,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_2,4;crossbowman_2,7;swordsman_2,6;archer_2,5;horseArcher_2,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_2,2;crossbowman_2,7;lancer_2,3;archer_2_5;swordsman_2,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_normal_dragon_strength_vitality</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,4,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,5,5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,6,6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,8,9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,13,14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,19,21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,23,26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,27,31</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,31,35</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_elite_dragon_strength_vitality</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,9,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,12,13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,14,16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,19,22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,32,36</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,47,53</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,58,65</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,68,76</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,78,88</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_boss_dragon_strength_vitality</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,22,25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,29,32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,35,40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,48,54</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,80,90</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,118,133</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,144,162</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,170,191</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,195,220</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,84,95</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,101,113</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,134,150</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,216,242</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,281,316</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,314,353</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,551,620</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,617,694</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,748,842</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,822,924</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,68,77</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,170,192</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,211,238</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,117,132</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,293,330</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,334,376</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,248,279</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,621,698</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,703,791</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,347,390</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,867,975</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,1379,1551</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,682,768</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,1706,1920</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,1870,2104</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,2054,2311</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,5136,5778</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,4675,5260</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,4266,4780</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,1542,1735</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,3856,4338</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,3446,3877</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,2166,2437</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,785,883</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,1962,2207</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,1757,1976</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,1552,1746</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,539,606</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,1347,1516</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,835,940</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,733,824</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,252,284</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,630,709</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,528,594</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,426,479</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,infantryAtkBonus_1,1,20;items,archerAtkBonus_1,1,20;items,cavalryAtkBonus_1,1,20;items,siegeAtkBonus_1,1,20;items,masterOfDefender_1,1,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,woodBonus_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,stoneBonus_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,ironBonus_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,foodBonus_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,taxesBonus_1,1,40;items,citizenBonus_1,1,30;items,troopSizeBonus_1,1,30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,dragonHpBonus_1,1;items,dragonExpBonus_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,vipActive_1,1,60;items,vipActive_2,1,30;items,vipActive_3,1,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,stamina_2,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,50</t>
+  </si>
+  <si>
+    <t>resources,gem,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,30</t>
+  </si>
+  <si>
+    <t>resources,gem,40</t>
+  </si>
+  <si>
+    <t>resources,gem,60</t>
+  </si>
+  <si>
+    <t>resources,gem,70</t>
+  </si>
+  <si>
+    <t>resources,gem,80</t>
+  </si>
+  <si>
+    <t>resources,gem,90</t>
+  </si>
+  <si>
+    <t>resources,gem,100</t>
+  </si>
+  <si>
+    <t>resources,gem,110</t>
+  </si>
+  <si>
+    <t>resources,gem,120</t>
+  </si>
+  <si>
+    <t>resources,gem,130</t>
+  </si>
+  <si>
+    <t>resources,gem,140</t>
+  </si>
+  <si>
+    <t>resources,gem,150</t>
+  </si>
+  <si>
+    <t>resources,gem,160</t>
+  </si>
+  <si>
+    <t>resources,gem,170</t>
+  </si>
+  <si>
+    <t>resources,gem,180</t>
+  </si>
+  <si>
+    <t>resources,gem,190</t>
+  </si>
+  <si>
+    <t>resources,gem,200</t>
+  </si>
+  <si>
+    <t>resources,gem,210</t>
+  </si>
+  <si>
+    <t>resources,gem,220</t>
+  </si>
+  <si>
+    <t>resources,gem,230</t>
+  </si>
+  <si>
+    <t>resources,gem,240</t>
+  </si>
+  <si>
+    <t>catapult_3,3;swordsman_3,11;lancer_3,5;archer_3,9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3,13;sentinel_3,47;horseArcher_3,20;crossbowman_3,33</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,37;swordsman_3,126;lancer_3,52;archer_3,83</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3,79;sentinel_3,267;horseArcher_3,109;crossbowman_3,170</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,143;swordsman_3,483;lancer_3,196;archer_3,302</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3,235;sentinel_3,791;horseArcher_3,320;crossbowman_3,489</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,359;swordsman_3,1204;lancer_3,486;archer_3,739</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3,519;sentinel_3,1737;horseArcher_3,700;crossbowman_3,1061</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,718;swordsman_3,2403;lancer_3,967;archer_3,1463</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3,961;sentinel_3,3215;horseArcher_3,1292;crossbowman_3,1953</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,1252;swordsman_3,4186;lancer_3,1681;archer_3,2538</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3,1595;sentinel_3,5328;horseArcher_3,2139;crossbowman_3,3226</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,1993;swordsman_3,6655;lancer_3,2670;archer_3,4024</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3,2449;sentinel_3,8177;horseArcher_3,3279;crossbowman_3,4940</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,2968;swordsman_3,9908;lancer_3,3972;archer_3,5981</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3,3553;sentinel_3,11859;horseArcher_4753;crossbowman_3,7154</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,4207;swordsman_3,14041;lancer_3,5627;archer_3,8465</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3,4934;sentinel_3,16466;horseArcher_3,6597;crossbowman_3,9923</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,5738;swordsman_3,19146;lancer_3,7670;archer_3,11533</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3,6621;sentinel_3,22091;horseArcher_3,8848;crossbowman_3,13303</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,7588;swordsman_3,25313;lancer_3,10138;archer_3,15238</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3,8640;sentinel_3,28824;horseArcher_3,11543;crossbowman_3,17347</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,9783;swordsman_3,32632;lancer_3,13067;archer_3,19635</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_3,11018;sentinel_3,36751;horseArcher_3,14715;crossbowman_3,22108</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,speedup_3,1,30;items,speedup_4,1,30;items,speedup_5,1,30;items,speedup_6,1,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,heroBlood_1,1,40;items,heroBlood_2,1,20;items,warSpeedupClass_1,1,40</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1248,7 +1605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1398,8 +1755,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="405">
+  <cellStyleXfs count="531">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2615,8 +2987,386 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2672,8 +3422,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="405">
+  <cellStyles count="531">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2876,6 +3627,69 @@
     <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -3078,6 +3892,69 @@
     <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5766,152 +6643,125 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="7.125" customWidth="1"/>
+    <col min="6" max="6" width="7.25" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>199</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G1" s="9"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>30000</v>
+      <c r="A2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" t="s">
+        <v>90</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F2">
-        <v>273</v>
-      </c>
-      <c r="G2">
-        <v>680</v>
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>20000</v>
+      <c r="A3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
-      </c>
-      <c r="F3">
-        <v>510</v>
-      </c>
-      <c r="G3">
-        <v>512</v>
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>15000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>201</v>
+      <c r="A4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4">
-        <v>782</v>
-      </c>
-      <c r="G4">
-        <v>476</v>
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>12000</v>
+      <c r="A5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5">
-        <v>680</v>
-      </c>
-      <c r="G5">
-        <v>724</v>
+        <v>90</v>
+      </c>
+      <c r="F5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>10000</v>
+      <c r="A6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F6">
-        <v>440</v>
-      </c>
-      <c r="G6">
-        <v>926</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5930,41 +6780,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5973,21 +6825,21 @@
         <v>30000</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="F2">
-        <v>1252</v>
+        <v>273</v>
       </c>
       <c r="G2">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>208</v>
+        <v>98</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5996,21 +6848,21 @@
         <v>20000</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="F3">
-        <v>1304</v>
+        <v>510</v>
       </c>
       <c r="G3">
-        <v>974</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6019,21 +6871,21 @@
         <v>15000</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="F4">
-        <v>1112</v>
+        <v>782</v>
       </c>
       <c r="G4">
-        <v>600</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6042,21 +6894,21 @@
         <v>12000</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="F5">
-        <v>1140</v>
+        <v>680</v>
       </c>
       <c r="G5">
-        <v>386</v>
+        <v>724</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6065,16 +6917,16 @@
         <v>10000</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>124</v>
       </c>
       <c r="F6">
-        <v>932</v>
+        <v>440</v>
       </c>
       <c r="G6">
-        <v>680</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -6093,43 +6945,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>215</v>
+        <v>123</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6138,21 +6988,21 @@
         <v>30000</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="F2">
-        <v>746</v>
+        <v>1252</v>
       </c>
       <c r="G2">
-        <v>1554</v>
+        <v>674</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6161,21 +7011,21 @@
         <v>20000</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="F3">
-        <v>448</v>
+        <v>1304</v>
       </c>
       <c r="G3">
-        <v>1670</v>
+        <v>974</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>212</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6184,21 +7034,21 @@
         <v>15000</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="F4">
-        <v>198</v>
+        <v>1112</v>
       </c>
       <c r="G4">
-        <v>1458</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>213</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6207,21 +7057,21 @@
         <v>12000</v>
       </c>
       <c r="D5" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="E5" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="F5">
-        <v>410</v>
+        <v>1140</v>
       </c>
       <c r="G5">
-        <v>1336</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>214</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6230,16 +7080,16 @@
         <v>10000</v>
       </c>
       <c r="D6" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>125</v>
       </c>
       <c r="F6">
-        <v>404</v>
-      </c>
-      <c r="G6" s="18">
-        <v>1176</v>
+        <v>932</v>
+      </c>
+      <c r="G6">
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -6256,36 +7106,201 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="26.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>30000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2">
+        <v>746</v>
+      </c>
+      <c r="G2">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>20000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3">
+        <v>448</v>
+      </c>
+      <c r="G3">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>15000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4">
+        <v>198</v>
+      </c>
+      <c r="G4">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>12000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5">
+        <v>410</v>
+      </c>
+      <c r="G5">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>10000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6">
+        <v>404</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1176</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
     <col min="2" max="2" width="65.625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="29.25" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>221</v>
+        <v>129</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>223</v>
+        <v>131</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>224</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6293,16 +7308,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>247</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>306</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6310,16 +7325,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>133</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>163</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6327,16 +7342,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>308</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6344,16 +7359,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>165</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6361,16 +7376,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>228</v>
+        <v>136</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>166</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6378,16 +7393,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>137</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>167</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6395,16 +7410,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="C8" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6412,16 +7427,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="D9" t="s">
-        <v>261</v>
+        <v>169</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6429,16 +7444,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6446,16 +7461,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>314</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="E11" t="s">
-        <v>263</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6463,16 +7478,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>172</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6480,16 +7495,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="D13" t="s">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>316</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6497,16 +7512,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>266</v>
+        <v>174</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6514,16 +7529,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>248</v>
+        <v>156</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6531,16 +7546,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>268</v>
+        <v>176</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6548,16 +7563,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>250</v>
+        <v>158</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6565,33 +7580,33 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>175</v>
       </c>
       <c r="E18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>253</v>
+        <v>161</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>330</v>
+        <v>238</v>
       </c>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>178</v>
       </c>
       <c r="E19" t="s">
-        <v>296</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6599,16 +7614,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>236</v>
+        <v>144</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="D20" t="s">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="E20" t="s">
-        <v>320</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6616,50 +7631,50 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="E21" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="32">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>238</v>
+        <v>146</v>
       </c>
       <c r="C22" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="32">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6667,16 +7682,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>240</v>
+        <v>148</v>
       </c>
       <c r="C24" t="s">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="D24" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="E24" t="s">
-        <v>301</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6684,16 +7699,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>254</v>
+        <v>162</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
       <c r="D25" t="s">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="E25" t="s">
-        <v>302</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6701,16 +7716,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="E26" t="s">
-        <v>325</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32">
@@ -6718,16 +7733,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="E27" t="s">
-        <v>326</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6735,16 +7750,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="E28" t="s">
-        <v>327</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6752,16 +7767,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="C29" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>336</v>
-      </c>
       <c r="E29" s="20" t="s">
-        <v>337</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6769,16 +7784,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>328</v>
+        <v>236</v>
       </c>
       <c r="D30" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -6786,16 +7801,84 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>246</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="D31" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="E31" t="s">
-        <v>329</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -6814,7 +7897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -8010,13 +9093,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -8360,23 +9443,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="18.625" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="75.125" customWidth="1"/>
+    <col min="3" max="3" width="54.625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8387,95 +9469,86 @@
         <v>65</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>66</v>
+        <v>411</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>67</v>
+      <c r="B2" t="s">
+        <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>68</v>
+      <c r="B3" t="s">
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>69</v>
+      <c r="B4" t="s">
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>70</v>
+      <c r="B5" t="s">
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>71</v>
+      <c r="B6" t="s">
+        <v>273</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>72</v>
+      <c r="B7" t="s">
+        <v>274</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8491,23 +9564,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="31.75" customWidth="1"/>
-    <col min="3" max="3" width="35.125" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="59.5" customWidth="1"/>
+    <col min="3" max="3" width="42.375" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8517,68 +9589,57 @@
       <c r="C1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="D1" s="9"/>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>67</v>
+      <c r="B2" t="s">
+        <v>275</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>68</v>
+      <c r="B3" t="s">
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>69</v>
+      <c r="B4" t="s">
+        <v>277</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>70</v>
+      <c r="B5" t="s">
+        <v>278</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>133</v>
-      </c>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -8594,21 +9655,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="29.75" customWidth="1"/>
-    <col min="4" max="4" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="67.625" customWidth="1"/>
+    <col min="3" max="3" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8618,358 +9678,269 @@
       <c r="C1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>67</v>
+      <c r="B2" t="s">
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>68</v>
+      <c r="B3" t="s">
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>69</v>
+      <c r="B4" t="s">
+        <v>389</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>70</v>
+      <c r="B5" t="s">
+        <v>390</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>71</v>
+      <c r="B6" t="s">
+        <v>391</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>72</v>
+      <c r="B7" t="s">
+        <v>392</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>73</v>
+      <c r="B8" s="16" t="s">
+        <v>393</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>74</v>
+      <c r="B9" s="16" t="s">
+        <v>394</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>75</v>
+      <c r="B10" s="16" t="s">
+        <v>395</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>76</v>
+      <c r="B11" s="16" t="s">
+        <v>396</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>87</v>
+      <c r="B12" s="16" t="s">
+        <v>397</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>89</v>
+      <c r="B13" s="16" t="s">
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>91</v>
+      <c r="B14" s="16" t="s">
+        <v>399</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>93</v>
+      <c r="B15" s="16" t="s">
+        <v>400</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>95</v>
+      <c r="B16" s="16" t="s">
+        <v>401</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D16" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>97</v>
+      <c r="B17" s="16" t="s">
+        <v>402</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>99</v>
+      <c r="B18" s="16" t="s">
+        <v>403</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>101</v>
+      <c r="B19" s="16" t="s">
+        <v>404</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>103</v>
+      <c r="B20" s="16" t="s">
+        <v>405</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
-      </c>
-      <c r="D20" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>105</v>
+      <c r="B21" s="16" t="s">
+        <v>406</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
-      </c>
-      <c r="D21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>107</v>
+      <c r="B22" s="16" t="s">
+        <v>407</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>109</v>
+      <c r="B23" s="16" t="s">
+        <v>408</v>
       </c>
       <c r="C23" t="s">
-        <v>110</v>
-      </c>
-      <c r="D23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>111</v>
+      <c r="B24" s="16" t="s">
+        <v>409</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>113</v>
+      <c r="B25" s="16" t="s">
+        <v>410</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" t="s">
-        <v>155</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -8986,207 +9957,384 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="118.875" customWidth="1"/>
+    <col min="1" max="1" width="8.625" customWidth="1"/>
+    <col min="2" max="3" width="28.75" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>66</v>
+        <v>279</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:1">
+        <v>289</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -9202,129 +10350,192 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="7.25" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="118.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
+        <v>355</v>
+      </c>
       <c r="C2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>68</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>167</v>
+        <v>69</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>357</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B5" t="s">
-        <v>168</v>
+        <v>70</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>358</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>161</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>359</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" t="s">
-        <v>168</v>
-      </c>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="20"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="0" windowWidth="25600" windowHeight="14320" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -940,43 +940,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>sentinel_1,8;crossbowman_1,7;horseArcher_1,3;swordsman_1,5;lancer_1,2;archer_1,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_1,8;sentinel_1,7;horseArcher_1,3;archer_1,5;ballista_1,1;swordsman_1,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_1,4;swordsman_1,7;archer_1,6;sentinel_1,5;horseArcher_1,2;crossbowman_1,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_1,2;archer_1,7;crossbowman_1,6;swordsman_1,5;lancer_1,2;sentinel_1,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>deathKnight,4;skeletonWarrior,4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>meatWagon,2;skeletonArcher,4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_2,8;archer_2,7;horseArcher_2,3;swordsman_2,5;ballista_2,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>archer_2,8;swordsman_2,7;lancer_2,3;crossbowman_2,5;catapult_2,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_2,4;crossbowman_2,7;swordsman_2,6;archer_2,5;horseArcher_2,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_2,2;crossbowman_2,7;lancer_2,3;archer_2_5;swordsman_2,4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1390,98 +1358,50 @@
     <t>resources,gem,240</t>
   </si>
   <si>
-    <t>catapult_3,3;swordsman_3,11;lancer_3,5;archer_3,9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_3,13;sentinel_3,47;horseArcher_3,20;crossbowman_3,33</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>catapult_3,37;swordsman_3,126;lancer_3,52;archer_3,83</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_3,79;sentinel_3,267;horseArcher_3,109;crossbowman_3,170</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>catapult_3,143;swordsman_3,483;lancer_3,196;archer_3,302</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_3,235;sentinel_3,791;horseArcher_3,320;crossbowman_3,489</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>catapult_3,359;swordsman_3,1204;lancer_3,486;archer_3,739</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_3,519;sentinel_3,1737;horseArcher_3,700;crossbowman_3,1061</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>catapult_3,718;swordsman_3,2403;lancer_3,967;archer_3,1463</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_3,961;sentinel_3,3215;horseArcher_3,1292;crossbowman_3,1953</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>catapult_3,1252;swordsman_3,4186;lancer_3,1681;archer_3,2538</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_3,1595;sentinel_3,5328;horseArcher_3,2139;crossbowman_3,3226</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>catapult_3,1993;swordsman_3,6655;lancer_3,2670;archer_3,4024</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_3,2449;sentinel_3,8177;horseArcher_3,3279;crossbowman_3,4940</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>catapult_3,2968;swordsman_3,9908;lancer_3,3972;archer_3,5981</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_3,3553;sentinel_3,11859;horseArcher_4753;crossbowman_3,7154</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>catapult_3,4207;swordsman_3,14041;lancer_3,5627;archer_3,8465</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_3,4934;sentinel_3,16466;horseArcher_3,6597;crossbowman_3,9923</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>catapult_3,5738;swordsman_3,19146;lancer_3,7670;archer_3,11533</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_3,6621;sentinel_3,22091;horseArcher_3,8848;crossbowman_3,13303</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>catapult_3,7588;swordsman_3,25313;lancer_3,10138;archer_3,15238</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_3,8640;sentinel_3,28824;horseArcher_3,11543;crossbowman_3,17347</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>catapult_3,9783;swordsman_3,32632;lancer_3,13067;archer_3,19635</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_3,11018;sentinel_3,36751;horseArcher_3,14715;crossbowman_3,22108</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1495,6 +1415,86 @@
   </si>
   <si>
     <t>items,heroBlood_1,1,40;items,heroBlood_2,1,20;items,warSpeedupClass_1,1,40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2,8;ranger_2,7;horseArcher_2,3;swordsman_2,5;ballista_2,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_2,8;swordsman_2,7;lancer_2,3;crossbowman_2,5;catapult_2,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_2,2;crossbowman_2,7;lancer_2,3;ranger_2_5;swordsman_2,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_2,4;crossbowman_2,7;swordsman_2,6;ranger_2,5;horseArcher_2,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_1,8;crossbowman_1,7;horseArcher_1,3;swordsman_1,5;lancer_1,2;ranger_1,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_1,8;sentinel_1,7;horseArcher_1,3;ranger_1,5;ballista_1,1;swordsman_1,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_1,4;swordsman_1,7;ranger_1,6;sentinel_1,5;horseArcher_1,2;crossbowman_1,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_1,2;ranger_1,7;crossbowman_1,6;swordsman_1,5;lancer_1,2;sentinel_1,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,3;swordsman_3,11;lancer_3,5;ranger_3,9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,37;swordsman_3,126;lancer_3,52;ranger_3,83</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,143;swordsman_3,483;lancer_3,196;ranger_3,302</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,359;swordsman_3,1204;lancer_3,486;ranger_3,739</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,718;swordsman_3,2403;lancer_3,967;ranger_3,1463</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,1252;swordsman_3,4186;lancer_3,1681;ranger_3,2538</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,1993;swordsman_3,6655;lancer_3,2670;ranger_3,4024</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,2968;swordsman_3,9908;lancer_3,3972;ranger_3,5981</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,4207;swordsman_3,14041;lancer_3,5627;ranger_3,8465</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,5738;swordsman_3,19146;lancer_3,7670;ranger_3,11533</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,7588;swordsman_3,25313;lancer_3,10138;ranger_3,15238</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>catapult_3,9783;swordsman_3,32632;lancer_3,13067;ranger_3,19635</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -9446,7 +9446,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9469,7 +9469,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -9479,7 +9479,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>398</v>
       </c>
       <c r="C2" t="s">
         <v>262</v>
@@ -9491,7 +9491,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
         <v>263</v>
@@ -9503,7 +9503,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>400</v>
       </c>
       <c r="C4" t="s">
         <v>265</v>
@@ -9514,7 +9514,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>401</v>
       </c>
       <c r="C5" t="s">
         <v>264</v>
@@ -9525,7 +9525,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C6" t="s">
         <v>266</v>
@@ -9536,7 +9536,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C7" t="s">
         <v>267</v>
@@ -9566,8 +9566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9598,7 +9598,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>394</v>
       </c>
       <c r="C2" t="s">
         <v>268</v>
@@ -9609,7 +9609,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
         <v>268</v>
@@ -9620,7 +9620,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>397</v>
       </c>
       <c r="C4" t="s">
         <v>268</v>
@@ -9631,7 +9631,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>396</v>
       </c>
       <c r="C5" t="s">
         <v>268</v>
@@ -9658,7 +9658,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9684,10 +9684,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="C2" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9695,10 +9695,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="C3" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9706,10 +9706,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="C4" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9717,10 +9717,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9728,10 +9728,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="C6" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9739,10 +9739,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="C7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9750,10 +9750,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="C8" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9761,10 +9761,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C9" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9772,10 +9772,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9783,10 +9783,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="C11" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9794,10 +9794,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C12" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -9805,10 +9805,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C13" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9816,10 +9816,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="C14" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9827,10 +9827,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C15" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9838,10 +9838,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9849,10 +9849,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C17" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9860,10 +9860,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="C18" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9871,10 +9871,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="C19" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9882,10 +9882,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C20" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9893,10 +9893,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C21" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9904,10 +9904,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C22" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9915,10 +9915,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="C23" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9926,10 +9926,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C24" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9937,10 +9937,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="C25" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -9975,13 +9975,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9989,13 +9989,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10003,13 +10003,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10017,13 +10017,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10031,13 +10031,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10045,13 +10045,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10059,13 +10059,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10073,13 +10073,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10087,13 +10087,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10101,13 +10101,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10115,13 +10115,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10129,13 +10129,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10143,13 +10143,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -10157,13 +10157,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -10171,13 +10171,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10185,13 +10185,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10199,13 +10199,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10213,13 +10213,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10227,13 +10227,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10241,13 +10241,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10255,13 +10255,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10269,13 +10269,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10283,13 +10283,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10297,13 +10297,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10311,13 +10311,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10352,8 +10352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -10378,7 +10378,7 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
@@ -10389,7 +10389,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
         <v>92</v>
@@ -10400,7 +10400,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C4" t="s">
         <v>92</v>
@@ -10411,7 +10411,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C5" t="s">
         <v>92</v>
@@ -10422,7 +10422,7 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
@@ -10433,7 +10433,7 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -10444,7 +10444,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -10455,7 +10455,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C9" t="s">
         <v>94</v>
@@ -10466,7 +10466,7 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
@@ -10477,7 +10477,7 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -10488,7 +10488,7 @@
         <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="416">
   <si>
     <t>INT_index</t>
   </si>
@@ -912,39 +912,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>resources,iron,500;resources,food,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,wood,500;resources,iron,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,wood,500;resources,stone,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,stone,500;resources,iron,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>soldierMaterials,deathHand,1;soldierMaterials,soulStone,1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>soldierMaterials,heroBones,1;soldierMaterials,magicBox,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,coin,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathKnight,4;skeletonWarrior,4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>meatWagon,2;skeletonArcher,4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -952,39 +924,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>blueDragon,4,4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,5,5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,6,6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,8,9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,13,14</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,19,21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>blueDragon,23,26</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,27,31</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,31,35</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -992,35 +932,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>blueDragon,9,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,12,13</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,14,16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>greenDragon,19,22</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>redDragon,32,36</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,47,53</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>blueDragon,58,65</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,68,76</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1032,42 +948,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>blueDragon,22,25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,29,32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,35,40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,48,54</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,80,90</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,118,133</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,144,162</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,170,191</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,195,220</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>redDragon,84,95</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1076,425 +956,572 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>blueDragon,617,694</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,748,842</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,822,924</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,68,77</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,170,192</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,211,238</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,334,376</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,347,390</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,867,975</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,682,768</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,1706,1920</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,1870,2104</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,2054,2311</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,1542,1735</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,252,284</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,infantryAtkBonus_1,1,20;items,archerAtkBonus_1,1,20;items,cavalryAtkBonus_1,1,20;items,siegeAtkBonus_1,1,20;items,masterOfDefender_1,1,20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,woodBonus_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,stoneBonus_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,ironBonus_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,foodBonus_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,taxesBonus_1,1,40;items,citizenBonus_1,1,30;items,troopSizeBonus_1,1,30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,dragonHpBonus_1,1;items,dragonExpBonus_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,vipActive_1,1,60;items,vipActive_2,1,30;items,vipActive_3,1,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,stamina_2,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,speedup_3,1,30;items,speedup_4,1,30;items,speedup_5,1,30;items,speedup_6,1,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,heroBlood_1,1,40;items,heroBlood_2,1,20;items,warSpeedupClass_1,1,40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_1,8;catapult_1,3;ranger_1,8;swordsman_1,4</t>
+  </si>
+  <si>
+    <t>resources,iron,500;resources,food,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_1,16;horseArcher_1,6;ballista_1,2;ranger_1,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,500;resources,iron,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_1,16;swordsman_1,12;lancer_1,4;catapult_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,stone,500;resources,iron,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_1,4;ranger_1,12;sentinel_1,8;horseArcher_1,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,500;resources,stone,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathKnight,6;skeletonWarrior,8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>meatWagon,3;skeletonArcher,8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_2,8;horseArcher_2,6;sentine_2,8;swordsman_2,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,coin,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_2,16;swordsman_2,12;ranger_2,8;crossbowman_2,4</t>
+  </si>
+  <si>
+    <t>resources,coin,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranger_2,16;crossbowman_2,12;catapult_2,2;ballista_2,1</t>
+  </si>
+  <si>
+    <t>ballista_2,4;catapult_2,3;lancer_2,4;horseArcher_2,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,coin,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,8;swordsman_3,12;ranger_3,8;catapult_3,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,49;sentinel_3,73;crossbowman_3,49;ballista_3,6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,139;swordsman_3,209;ranger_3,139;catapult_3,17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,150</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,294;sentinel_3,441;crossbowman_3,294;ballista_3,37</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,525;swordsman_3,788;ranger_3,525;catapult_3,66</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,250</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,844;sentinel_3,1266;crossbowman_3,844;ballista_3,105</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,300</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,1260;swordsman_3,1890;ranger_3,1260;catapult_3,157</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,350</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,1783;sentinel_3,2674;crossbowman_3,1783;ballista_3,223</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,400</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,2422;swordsman_3,3633;ranger_3,2422;catapult_3,303</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,450</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,3185;sentinel_3,4777;crossbowman_3,3185;ballista_3,398</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,4080;swordsman_3,6121;ranger_3,4080;catapult_3,510</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,550</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,5116;sentinel_3,7675;crossbowman_3,5116;ballista_3,640</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,600</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,6300;swordsman_3,9450;ranger_3,6300;catapult_3,788</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,650</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,7639;sentinel_3,11458;crossbowman_3,7639;ballista_3,955</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,700</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,9140;swordsman_3,13709;ranger_3,9140;catapult_3,1142</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,750</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,10809;sentinel_3,16214;crossbowman_3,10809;ballista_3,1351</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,800</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,12655;swordsman_3,18982;ranger_3,12655;catapult_3,1582</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,850</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,14682;sentinel_3,22024;crossbowman_3,14682;ballista_3,1835</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,900</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,16899;swordsman_3,25348;ranger_3,16899;catapult_3,2112</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,950</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,19309;sentinel_3,28964;crossbowman_3,19309;ballista_3,2414</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,21921;swordsman_3,32881;ranger_3,21921;catapult_3,2740</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1050</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,24739;sentinel_3,37109;crossbowman_3,24739;ballista_3,3092</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,27770;swordsman_3,41656;ranger_3,27770;catapult_3,3471</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1150</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,31020;sentinel_3,46530;crossbowman_3,31020;ballista_3,3877</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,4,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,9,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,22,25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,5,5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,12,13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,29,32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,6,6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,14,16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,35,40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,8,9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,48,54</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,13,14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,32,36</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,80,90</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,19,21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,47,53</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,118,133</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,144,162</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,27,31</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,68,76</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,170,191</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,31,35</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,195,220</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,426,479</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,528,594</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,630,709</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,117,132</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,293,330</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,733,824</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>greenDragon,134,150</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>blackDragon,835,940</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>greenDragon,216,242</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>greenDragon,539,606</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,1347,1516</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,248,279</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,621,698</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,1552,1746</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>redDragon,281,316</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>redDragon,703,791</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,1757,1976</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>redDragon,314,353</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>redDragon,785,883</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,1962,2207</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,2166,2437</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>blueDragon,551,620</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>blueDragon,617,694</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,748,842</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,822,924</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,68,77</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,170,192</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,211,238</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,117,132</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,293,330</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,334,376</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,248,279</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,621,698</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,703,791</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,347,390</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,867,975</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>blueDragon,1379,1551</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>greenDragon,682,768</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,1706,1920</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,1870,2104</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,2054,2311</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,5136,5778</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,4675,5260</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,4266,4780</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,1542,1735</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,3856,4338</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,3446,3877</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,2166,2437</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,785,883</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,1962,2207</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,1757,1976</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,1552,1746</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,539,606</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,1347,1516</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,835,940</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,733,824</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,252,284</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,630,709</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,528,594</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,426,479</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,infantryAtkBonus_1,1,20;items,archerAtkBonus_1,1,20;items,cavalryAtkBonus_1,1,20;items,siegeAtkBonus_1,1,20;items,masterOfDefender_1,1,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,woodBonus_1,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,stoneBonus_1,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,ironBonus_1,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,foodBonus_1,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,taxesBonus_1,1,40;items,citizenBonus_1,1,30;items,troopSizeBonus_1,1,30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,dragonHpBonus_1,1;items,dragonExpBonus_1,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,vipActive_1,1,60;items,vipActive_2,1,30;items,vipActive_3,1,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,stamina_2,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,50</t>
-  </si>
-  <si>
-    <t>resources,gem,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,20</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,30</t>
-  </si>
-  <si>
-    <t>resources,gem,40</t>
-  </si>
-  <si>
-    <t>resources,gem,60</t>
-  </si>
-  <si>
-    <t>resources,gem,70</t>
-  </si>
-  <si>
-    <t>resources,gem,80</t>
-  </si>
-  <si>
-    <t>resources,gem,90</t>
-  </si>
-  <si>
-    <t>resources,gem,100</t>
-  </si>
-  <si>
-    <t>resources,gem,110</t>
-  </si>
-  <si>
-    <t>resources,gem,120</t>
-  </si>
-  <si>
-    <t>resources,gem,130</t>
-  </si>
-  <si>
-    <t>resources,gem,140</t>
-  </si>
-  <si>
-    <t>resources,gem,150</t>
-  </si>
-  <si>
-    <t>resources,gem,160</t>
-  </si>
-  <si>
-    <t>resources,gem,170</t>
-  </si>
-  <si>
-    <t>resources,gem,180</t>
-  </si>
-  <si>
-    <t>resources,gem,190</t>
-  </si>
-  <si>
-    <t>resources,gem,200</t>
-  </si>
-  <si>
-    <t>resources,gem,210</t>
-  </si>
-  <si>
-    <t>resources,gem,220</t>
-  </si>
-  <si>
-    <t>resources,gem,230</t>
-  </si>
-  <si>
-    <t>resources,gem,240</t>
-  </si>
-  <si>
-    <t>ballista_3,13;sentinel_3,47;horseArcher_3,20;crossbowman_3,33</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3,79;sentinel_3,267;horseArcher_3,109;crossbowman_3,170</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3,235;sentinel_3,791;horseArcher_3,320;crossbowman_3,489</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3,519;sentinel_3,1737;horseArcher_3,700;crossbowman_3,1061</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3,961;sentinel_3,3215;horseArcher_3,1292;crossbowman_3,1953</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3,1595;sentinel_3,5328;horseArcher_3,2139;crossbowman_3,3226</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3,2449;sentinel_3,8177;horseArcher_3,3279;crossbowman_3,4940</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3,3553;sentinel_3,11859;horseArcher_4753;crossbowman_3,7154</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3,4934;sentinel_3,16466;horseArcher_3,6597;crossbowman_3,9923</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3,6621;sentinel_3,22091;horseArcher_3,8848;crossbowman_3,13303</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3,8640;sentinel_3,28824;horseArcher_3,11543;crossbowman_3,17347</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_3,11018;sentinel_3,36751;horseArcher_3,14715;crossbowman_3,22108</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_desc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,speedup_3,1,30;items,speedup_4,1,30;items,speedup_5,1,30;items,speedup_6,1,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,heroBlood_1,1,40;items,heroBlood_2,1,20;items,warSpeedupClass_1,1,40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_2,8;ranger_2,7;horseArcher_2,3;swordsman_2,5;ballista_2,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranger_2,8;swordsman_2,7;lancer_2,3;crossbowman_2,5;catapult_2,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_2,2;crossbowman_2,7;lancer_2,3;ranger_2_5;swordsman_2,4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_2,4;crossbowman_2,7;swordsman_2,6;ranger_2,5;horseArcher_2,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_1,8;crossbowman_1,7;horseArcher_1,3;swordsman_1,5;lancer_1,2;ranger_1,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_1,8;sentinel_1,7;horseArcher_1,3;ranger_1,5;ballista_1,1;swordsman_1,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_1,4;swordsman_1,7;ranger_1,6;sentinel_1,5;horseArcher_1,2;crossbowman_1,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_1,2;ranger_1,7;crossbowman_1,6;swordsman_1,5;lancer_1,2;sentinel_1,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3,3;swordsman_3,11;lancer_3,5;ranger_3,9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3,37;swordsman_3,126;lancer_3,52;ranger_3,83</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3,143;swordsman_3,483;lancer_3,196;ranger_3,302</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3,359;swordsman_3,1204;lancer_3,486;ranger_3,739</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3,718;swordsman_3,2403;lancer_3,967;ranger_3,1463</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3,1252;swordsman_3,4186;lancer_3,1681;ranger_3,2538</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3,1993;swordsman_3,6655;lancer_3,2670;ranger_3,4024</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3,2968;swordsman_3,9908;lancer_3,3972;ranger_3,5981</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3,4207;swordsman_3,14041;lancer_3,5627;ranger_3,8465</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3,5738;swordsman_3,19146;lancer_3,7670;ranger_3,11533</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3,7588;swordsman_3,25313;lancer_3,10138;ranger_3,15238</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>catapult_3,9783;swordsman_3,32632;lancer_3,13067;ranger_3,19635</t>
+    <t>blackDragon,3446,3877</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,3856,4338</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,4266,4780</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,4675,5260</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,5136,5778</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -9446,7 +9473,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9469,7 +9496,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>391</v>
+        <v>297</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -9479,10 +9506,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -9491,10 +9518,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -9503,10 +9530,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>400</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9514,10 +9541,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9525,10 +9552,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="C6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9536,10 +9563,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9566,8 +9593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9598,10 +9625,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>394</v>
+        <v>310</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9609,10 +9636,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>312</v>
       </c>
       <c r="C3" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9620,10 +9647,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9631,10 +9658,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>396</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9658,7 +9685,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9684,10 +9711,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9695,10 +9722,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>379</v>
+        <v>319</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9706,10 +9733,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>321</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9717,10 +9744,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>323</v>
       </c>
       <c r="C5" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9728,10 +9755,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="C6" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9739,10 +9766,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="C7" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9750,10 +9777,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>405</v>
+        <v>329</v>
       </c>
       <c r="C8" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9761,10 +9788,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="C9" t="s">
-        <v>362</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9772,10 +9799,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>406</v>
+        <v>333</v>
       </c>
       <c r="C10" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9783,10 +9810,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="C11" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9794,10 +9821,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>407</v>
+        <v>337</v>
       </c>
       <c r="C12" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -9805,10 +9832,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>384</v>
+        <v>339</v>
       </c>
       <c r="C13" t="s">
-        <v>366</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9816,10 +9843,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>408</v>
+        <v>341</v>
       </c>
       <c r="C14" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9827,10 +9854,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>385</v>
+        <v>343</v>
       </c>
       <c r="C15" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9838,10 +9865,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>409</v>
+        <v>345</v>
       </c>
       <c r="C16" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9849,10 +9876,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="C17" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9860,10 +9887,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>410</v>
+        <v>349</v>
       </c>
       <c r="C18" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9871,10 +9898,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>387</v>
+        <v>351</v>
       </c>
       <c r="C19" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9882,10 +9909,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>411</v>
+        <v>353</v>
       </c>
       <c r="C20" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9893,10 +9920,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="C21" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9904,10 +9931,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>412</v>
+        <v>357</v>
       </c>
       <c r="C22" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9915,10 +9942,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="C23" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9926,10 +9953,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="C24" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9937,10 +9964,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="C25" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -9959,8 +9986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9975,13 +10002,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -9989,13 +10016,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>272</v>
+        <v>365</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>282</v>
+        <v>366</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>292</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10003,13 +10030,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>273</v>
+        <v>368</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>283</v>
+        <v>369</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>293</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10017,13 +10044,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>274</v>
+        <v>371</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>284</v>
+        <v>372</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10031,13 +10058,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>275</v>
+        <v>374</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>295</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10045,13 +10072,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>276</v>
+        <v>376</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>286</v>
+        <v>377</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10059,13 +10086,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>277</v>
+        <v>379</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>287</v>
+        <v>380</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>297</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10073,13 +10100,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>298</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10087,13 +10114,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>279</v>
+        <v>383</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>289</v>
+        <v>384</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>299</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10101,13 +10128,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>280</v>
+        <v>386</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>300</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10115,13 +10142,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>345</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10129,13 +10156,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10143,13 +10170,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -10157,13 +10184,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>314</v>
+        <v>391</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>315</v>
+        <v>392</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -10171,13 +10198,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>303</v>
+        <v>394</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>340</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10185,13 +10212,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>304</v>
+        <v>396</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>338</v>
+        <v>397</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>339</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10199,13 +10226,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>318</v>
+        <v>400</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>337</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10213,13 +10240,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>305</v>
+        <v>402</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>336</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10227,13 +10254,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>306</v>
+        <v>405</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>335</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10241,13 +10268,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>333</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10255,13 +10282,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>307</v>
+        <v>409</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10269,13 +10296,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>331</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10283,13 +10310,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>329</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10297,13 +10324,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>328</v>
+        <v>414</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10311,13 +10338,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>327</v>
+        <v>415</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10378,7 +10405,7 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
@@ -10389,7 +10416,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="C3" t="s">
         <v>92</v>
@@ -10400,7 +10427,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="C4" t="s">
         <v>92</v>
@@ -10411,7 +10438,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="C5" t="s">
         <v>92</v>
@@ -10422,7 +10449,7 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
@@ -10433,7 +10460,7 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -10444,7 +10471,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>392</v>
+        <v>298</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -10455,7 +10482,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
         <v>94</v>
@@ -10466,7 +10493,7 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>393</v>
+        <v>299</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
@@ -10477,7 +10504,7 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -10488,7 +10515,7 @@
         <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>353</v>
+        <v>295</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,10 @@
     <sheet name="wonder_desert" sheetId="12" r:id="rId12"/>
     <sheet name="wonder_iceField" sheetId="13" r:id="rId13"/>
     <sheet name="selena_question" sheetId="14" r:id="rId14"/>
+    <sheet name="alliance_name_single_name" sheetId="16" r:id="rId15"/>
+    <sheet name="alliance_name_adj" sheetId="17" r:id="rId16"/>
+    <sheet name="alliance_name_noun" sheetId="18" r:id="rId17"/>
+    <sheet name="alliance_name_fixed" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="539">
   <si>
     <t>INT_index</t>
   </si>
@@ -477,10 +481,6 @@
     <t>优先升级住宅</t>
   </si>
   <si>
-    <t>LOCAL_title</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>LOCAL_answer_1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1522,6 +1522,502 @@
   </si>
   <si>
     <t>blackDragon,5136,5778</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL_title</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Titan</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cronos</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prometheus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pandora</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Olympic</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vulcan</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Muses</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flora</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hygeia</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morpheus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hera</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hades</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Demeter</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Artemis</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Athene</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persephone</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ares</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hephaestus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hebe</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hermes</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dionysus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eros</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heracles</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceanus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crius</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iapetus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thethys</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mnemosyne</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hyperion</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epimetheus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Odin</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frigg</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thor</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sif</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freyr</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freyja</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loki</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tyr</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heimdall</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baldur</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hodr</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forseti</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bragi</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sleipnir</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gullfaxi</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hrungnir</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magni</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matres</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matrones</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cernunnos</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sucellus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taranis</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agreeable</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skillful</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swan Song</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honor of War</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atlas</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaea</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uranus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rhea</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeus</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poseidon</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hestia</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apollo</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aphrodite</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immortal</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furious</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrathful</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intelligent</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bright</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resourceful</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aesthetic</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noble</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mighty</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aggressive</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ambitious</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devoted</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distinguished</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brave</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powerful</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divine</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kingdom</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nation</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Territory</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chaos</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empire</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>History</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sons</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alliance</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annal</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>World</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rise</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pandora's box</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword of Damocles</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damon and Pythias</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple of Discord</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judgment of Paris</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helen of Troy</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Trojan Horse</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stables of Augeas</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Under the Rose</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ariadne's Thread</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cadmean Victory</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cask of Danaide</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freedom of Pan</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lord of War</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>God of War</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chaos of War</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Crusades</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood Rose</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free Lancer</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun and Rose</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_value</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1529,7 +2025,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1598,6 +2094,20 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1798,7 +2308,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="531">
+  <cellStyleXfs count="559">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3392,8 +3902,92 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3450,8 +4044,291 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="531">
+  <cellStyles count="559">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -3717,272 +4594,20 @@
     <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="470" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -7136,7 +7761,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -7301,7 +7926,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -7318,16 +7943,16 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7335,16 +7960,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
         <v>128</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7352,16 +7977,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7369,16 +7994,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7386,16 +8011,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7403,16 +8028,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7420,16 +8045,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7437,16 +8062,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7454,16 +8079,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7471,16 +8096,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7488,16 +8113,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7505,16 +8130,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7522,16 +8147,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7539,16 +8164,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7556,16 +8181,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7573,16 +8198,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7590,16 +8215,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7607,16 +8232,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7624,16 +8249,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7641,16 +8266,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7658,16 +8283,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7675,16 +8300,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7692,16 +8317,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -7709,16 +8334,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -7726,16 +8351,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -7743,16 +8368,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E26" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32">
@@ -7760,16 +8385,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7777,16 +8402,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -7794,16 +8419,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D29" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>244</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7811,16 +8436,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D30" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -7828,16 +8453,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
@@ -7845,16 +8470,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="D32" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="E32" s="20" t="s">
         <v>249</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -7862,16 +8487,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>252</v>
-      </c>
       <c r="D33" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>257</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -7879,16 +8504,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>254</v>
-      </c>
       <c r="D34" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>259</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -7896,22 +8521,1120 @@
         <v>34</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>256</v>
-      </c>
       <c r="D35" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="32">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="32">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="32">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9496,7 +11219,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -9506,10 +11229,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" t="s">
         <v>300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>301</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -9518,10 +11241,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" t="s">
         <v>302</v>
-      </c>
-      <c r="C3" t="s">
-        <v>303</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -9530,10 +11253,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C4" t="s">
         <v>304</v>
-      </c>
-      <c r="C4" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9541,10 +11264,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" t="s">
         <v>306</v>
-      </c>
-      <c r="C5" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9552,10 +11275,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9563,10 +11286,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -9625,10 +11348,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" t="s">
         <v>310</v>
-      </c>
-      <c r="C2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -9636,10 +11359,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" t="s">
         <v>312</v>
-      </c>
-      <c r="C3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -9647,10 +11370,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -9658,10 +11381,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" t="s">
         <v>315</v>
-      </c>
-      <c r="C5" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -9711,10 +11434,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" t="s">
         <v>317</v>
-      </c>
-      <c r="C2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -9722,10 +11445,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C3" t="s">
         <v>319</v>
-      </c>
-      <c r="C3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -9733,10 +11456,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4" t="s">
         <v>321</v>
-      </c>
-      <c r="C4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -9744,10 +11467,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" t="s">
         <v>323</v>
-      </c>
-      <c r="C5" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -9755,10 +11478,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" t="s">
         <v>325</v>
-      </c>
-      <c r="C6" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -9766,10 +11489,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" t="s">
         <v>327</v>
-      </c>
-      <c r="C7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -9777,10 +11500,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" t="s">
         <v>329</v>
-      </c>
-      <c r="C8" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -9788,10 +11511,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" t="s">
         <v>331</v>
-      </c>
-      <c r="C9" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -9799,10 +11522,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" t="s">
         <v>333</v>
-      </c>
-      <c r="C10" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -9810,10 +11533,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" t="s">
         <v>335</v>
-      </c>
-      <c r="C11" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -9821,10 +11544,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" t="s">
         <v>337</v>
-      </c>
-      <c r="C12" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -9832,10 +11555,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="C13" t="s">
         <v>339</v>
-      </c>
-      <c r="C13" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -9843,10 +11566,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C14" t="s">
         <v>341</v>
-      </c>
-      <c r="C14" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -9854,10 +11577,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="C15" t="s">
         <v>343</v>
-      </c>
-      <c r="C15" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -9865,10 +11588,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" t="s">
         <v>345</v>
-      </c>
-      <c r="C16" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -9876,10 +11599,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="C17" t="s">
         <v>347</v>
-      </c>
-      <c r="C17" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -9887,10 +11610,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="C18" t="s">
         <v>349</v>
-      </c>
-      <c r="C18" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -9898,10 +11621,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" t="s">
         <v>351</v>
-      </c>
-      <c r="C19" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -9909,10 +11632,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="C20" t="s">
         <v>353</v>
-      </c>
-      <c r="C20" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -9920,10 +11643,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C21" t="s">
         <v>355</v>
-      </c>
-      <c r="C21" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -9931,10 +11654,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" t="s">
         <v>357</v>
-      </c>
-      <c r="C22" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -9942,10 +11665,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C23" t="s">
         <v>359</v>
-      </c>
-      <c r="C23" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -9953,10 +11676,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" t="s">
         <v>361</v>
-      </c>
-      <c r="C24" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -9964,10 +11687,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25" t="s">
         <v>363</v>
-      </c>
-      <c r="C25" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -9986,7 +11709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -10002,13 +11725,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -10016,13 +11739,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10030,13 +11753,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10044,13 +11767,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10058,13 +11781,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -10072,13 +11795,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>377</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10086,13 +11809,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>380</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10100,13 +11823,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10114,13 +11837,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>384</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10128,13 +11851,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>386</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10142,13 +11865,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>277</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10156,13 +11879,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10170,13 +11893,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -10184,13 +11907,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>392</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -10198,13 +11921,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10212,13 +11935,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="21" t="s">
         <v>397</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -10226,13 +11949,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10240,13 +11963,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10254,13 +11977,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>406</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10268,13 +11991,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10282,13 +12005,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>410</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10296,13 +12019,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -10310,13 +12033,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="D23" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -10324,13 +12047,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -10338,13 +12061,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -10405,7 +12128,7 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
@@ -10416,7 +12139,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C3" t="s">
         <v>92</v>
@@ -10427,7 +12150,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C4" t="s">
         <v>92</v>
@@ -10438,7 +12161,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
         <v>92</v>
@@ -10449,7 +12172,7 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
@@ -10460,7 +12183,7 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -10471,7 +12194,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -10482,7 +12205,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C9" t="s">
         <v>94</v>
@@ -10493,7 +12216,7 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
@@ -10504,7 +12227,7 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -10515,7 +12238,7 @@
         <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="1020" yWindow="2120" windowWidth="25600" windowHeight="16060" tabRatio="870" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="537">
   <si>
     <t>INT_index</t>
   </si>
@@ -1036,10 +1036,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>items,taxesBonus_1,1,40;items,citizenBonus_1,1,30;items,troopSizeBonus_1,1,30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>items,dragonHpBonus_1,1;items,dragonExpBonus_1,1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1067,34 +1063,18 @@
     <t>lancer_1,8;catapult_1,3;ranger_1,8;swordsman_1,4</t>
   </si>
   <si>
-    <t>resources,iron,500;resources,food,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>sentinel_1,16;horseArcher_1,6;ballista_1,2;ranger_1,4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>resources,wood,500;resources,iron,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>crossbowman_1,16;swordsman_1,12;lancer_1,4;catapult_1,1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>resources,stone,500;resources,iron,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_1,4;ranger_1,12;sentinel_1,8;horseArcher_1,2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>resources,wood,500;resources,stone,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>deathKnight,6;skeletonWarrior,8</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1107,25 +1087,13 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>resources,coin,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>sentinel_2,16;swordsman_2,12;ranger_2,8;crossbowman_2,4</t>
   </si>
   <si>
-    <t>resources,coin,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ranger_2,16;crossbowman_2,12;catapult_2,2;ballista_2,1</t>
   </si>
   <si>
     <t>ballista_2,4;catapult_2,3;lancer_2,4;horseArcher_2,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,coin,500</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2018,6 +1986,30 @@
   </si>
   <si>
     <t>STR_value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,iron,1000;resources,food,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,1000;resources,iron,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,stone,1000;resources,iron,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,1000;resources,stone,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,coin,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,coinBonus_1,1,40;items,citizenBonus_1,1,30;items,troopSizeBonus_1,1,30</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4049,7 +4041,285 @@
     </xf>
   </cellXfs>
   <cellStyles count="559">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4329,285 +4599,7 @@
     <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="469" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -5926,7 +5918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV67"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -7294,7 +7286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
@@ -7432,7 +7424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -7597,7 +7589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
@@ -7760,7 +7752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -7925,7 +7917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -7943,7 +7935,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>129</v>
@@ -8549,7 +8541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -8560,7 +8552,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8568,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8576,7 +8568,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8584,7 +8576,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8592,7 +8584,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8600,7 +8592,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8608,7 +8600,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8616,7 +8608,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8624,7 +8616,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8632,7 +8624,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8640,7 +8632,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8648,7 +8640,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8656,7 +8648,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8664,7 +8656,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8672,7 +8664,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8680,7 +8672,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8688,7 +8680,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8696,7 +8688,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8704,7 +8696,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8712,7 +8704,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8720,7 +8712,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8728,7 +8720,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8736,7 +8728,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8744,7 +8736,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8752,7 +8744,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8760,7 +8752,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8768,7 +8760,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8776,7 +8768,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8784,7 +8776,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8792,7 +8784,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8800,7 +8792,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8808,7 +8800,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8816,7 +8808,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8824,7 +8816,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8832,7 +8824,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8840,7 +8832,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8848,7 +8840,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8856,7 +8848,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8864,7 +8856,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8872,7 +8864,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8880,7 +8872,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8888,7 +8880,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8896,7 +8888,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8904,7 +8896,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8912,7 +8904,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -8920,7 +8912,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8928,7 +8920,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8936,7 +8928,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8944,7 +8936,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -8952,7 +8944,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8960,7 +8952,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8968,7 +8960,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8976,7 +8968,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8984,7 +8976,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8992,7 +8984,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -9000,7 +8992,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -9008,7 +9000,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -9016,7 +9008,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -9024,7 +9016,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -9032,7 +9024,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -9040,7 +9032,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -9048,7 +9040,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -9056,7 +9048,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -9064,7 +9056,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -9083,7 +9075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9094,7 +9086,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9102,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9110,7 +9102,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9118,7 +9110,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9126,7 +9118,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9134,7 +9126,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9142,7 +9134,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9150,7 +9142,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9158,7 +9150,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9166,7 +9158,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9174,7 +9166,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9182,7 +9174,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9190,7 +9182,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9198,7 +9190,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9206,7 +9198,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9214,7 +9206,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="32">
@@ -9222,7 +9214,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9230,7 +9222,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9238,7 +9230,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9246,7 +9238,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9254,7 +9246,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -9273,7 +9265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9284,7 +9276,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9292,7 +9284,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9300,7 +9292,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9308,7 +9300,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9316,7 +9308,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9324,7 +9316,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9332,7 +9324,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9340,7 +9332,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9348,7 +9340,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9356,7 +9348,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9364,7 +9356,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9372,7 +9364,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9380,7 +9372,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9388,7 +9380,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9396,7 +9388,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9404,7 +9396,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9412,7 +9404,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9420,7 +9412,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
   </sheetData>
@@ -9439,7 +9431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -9453,7 +9445,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9461,7 +9453,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32">
@@ -9469,7 +9461,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32">
@@ -9477,7 +9469,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9485,7 +9477,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32">
@@ -9493,7 +9485,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9501,7 +9493,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9509,7 +9501,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="32">
@@ -9517,7 +9509,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9525,7 +9517,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9533,7 +9525,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9541,7 +9533,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9549,7 +9541,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9557,7 +9549,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9565,7 +9557,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9573,7 +9565,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9581,7 +9573,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9589,7 +9581,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9597,7 +9589,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9605,7 +9597,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9613,7 +9605,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9621,7 +9613,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9629,7 +9621,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -9647,7 +9639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -10347,7 +10339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
@@ -10843,7 +10835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -11195,8 +11187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11219,7 +11211,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -11229,10 +11221,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>531</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -11241,10 +11233,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>532</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -11253,10 +11245,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11264,10 +11256,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>306</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11275,7 +11267,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>261</v>
@@ -11286,7 +11278,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C7" t="s">
         <v>262</v>
@@ -11316,8 +11308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11348,10 +11340,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11359,10 +11351,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="C3" t="s">
-        <v>312</v>
+        <v>535</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11370,10 +11362,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11381,10 +11373,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C5" t="s">
-        <v>315</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11407,7 +11399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -11434,10 +11426,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11445,10 +11437,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11456,10 +11448,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11467,10 +11459,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11478,10 +11470,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11489,10 +11481,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -11500,10 +11492,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C8" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11511,10 +11503,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11522,10 +11514,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11533,10 +11525,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11544,10 +11536,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C12" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -11555,10 +11547,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C13" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11566,10 +11558,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C14" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11577,10 +11569,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C15" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11588,10 +11580,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11599,10 +11591,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C17" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11610,10 +11602,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11621,10 +11613,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C19" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11632,10 +11624,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11643,10 +11635,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C21" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11654,10 +11646,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C22" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11665,10 +11657,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C23" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11676,10 +11668,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11687,10 +11679,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C25" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -11709,7 +11701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -11739,13 +11731,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11753,13 +11745,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11767,13 +11759,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11781,13 +11773,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11795,13 +11787,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11809,13 +11801,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11829,7 +11821,7 @@
         <v>267</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11837,13 +11829,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11851,13 +11843,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>268</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11871,7 +11863,7 @@
         <v>276</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11885,7 +11877,7 @@
         <v>277</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11899,7 +11891,7 @@
         <v>286</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11907,13 +11899,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11921,13 +11913,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>278</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -11935,13 +11927,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11949,13 +11941,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11963,13 +11955,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11977,13 +11969,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11997,7 +11989,7 @@
         <v>280</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -12005,13 +11997,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -12025,7 +12017,7 @@
         <v>285</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -12039,7 +12031,7 @@
         <v>282</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12053,7 +12045,7 @@
         <v>283</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12067,7 +12059,7 @@
         <v>284</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12102,8 +12094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -12172,7 +12164,7 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>536</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
@@ -12194,7 +12186,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -12205,7 +12197,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C9" t="s">
         <v>94</v>
@@ -12216,7 +12208,7 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
@@ -12227,7 +12219,7 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -12238,7 +12230,7 @@
         <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2120" windowWidth="25600" windowHeight="16060" tabRatio="870" activeTab="8"/>
+    <workbookView xWindow="2940" yWindow="2100" windowWidth="25600" windowHeight="16060" tabRatio="870" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -1083,10 +1083,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>lancer_2,8;horseArcher_2,6;sentine_2,8;swordsman_2,4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>sentinel_2,16;swordsman_2,12;ranger_2,8;crossbowman_2,4</t>
   </si>
   <si>
@@ -2010,6 +2006,10 @@
   </si>
   <si>
     <t>items,coinBonus_1,1,40;items,citizenBonus_1,1,30;items,troopSizeBonus_1,1,30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_2,8;horseArcher_2,6;sentinel_2,8;swordsman_2,4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7935,7 +7935,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>129</v>
@@ -8552,7 +8552,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8560,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8568,7 +8568,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8576,7 +8576,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8584,7 +8584,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8592,7 +8592,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8600,7 +8600,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8608,7 +8608,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8616,7 +8616,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8624,7 +8624,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8632,7 +8632,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8640,7 +8640,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8648,7 +8648,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8656,7 +8656,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8664,7 +8664,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8672,7 +8672,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8680,7 +8680,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8688,7 +8688,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8696,7 +8696,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8704,7 +8704,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8712,7 +8712,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8720,7 +8720,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8728,7 +8728,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8736,7 +8736,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8744,7 +8744,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8752,7 +8752,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8760,7 +8760,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8768,7 +8768,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8776,7 +8776,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8784,7 +8784,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8792,7 +8792,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8800,7 +8800,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8808,7 +8808,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8816,7 +8816,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8824,7 +8824,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8832,7 +8832,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8840,7 +8840,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8848,7 +8848,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8856,7 +8856,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8864,7 +8864,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8872,7 +8872,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8880,7 +8880,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8888,7 +8888,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8896,7 +8896,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8904,7 +8904,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -8912,7 +8912,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8920,7 +8920,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8928,7 +8928,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8936,7 +8936,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -8944,7 +8944,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8952,7 +8952,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8960,7 +8960,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8968,7 +8968,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8976,7 +8976,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8984,7 +8984,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8992,7 +8992,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -9000,7 +9000,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -9008,7 +9008,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -9016,7 +9016,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -9024,7 +9024,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -9032,7 +9032,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -9040,7 +9040,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -9048,7 +9048,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -9056,7 +9056,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -9086,7 +9086,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9094,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9102,7 +9102,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9110,7 +9110,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9118,7 +9118,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9126,7 +9126,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9134,7 +9134,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9142,7 +9142,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9150,7 +9150,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9158,7 +9158,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9166,7 +9166,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9174,7 +9174,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9182,7 +9182,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9190,7 +9190,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9198,7 +9198,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9206,7 +9206,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="32">
@@ -9214,7 +9214,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9222,7 +9222,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9230,7 +9230,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9238,7 +9238,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9246,7 +9246,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -9276,7 +9276,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9284,7 +9284,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9292,7 +9292,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9300,7 +9300,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9308,7 +9308,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9316,7 +9316,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9324,7 +9324,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9332,7 +9332,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9340,7 +9340,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9348,7 +9348,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9356,7 +9356,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9364,7 +9364,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9372,7 +9372,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9380,7 +9380,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9388,7 +9388,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9396,7 +9396,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9404,7 +9404,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9412,7 +9412,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -9445,7 +9445,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9453,7 +9453,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32">
@@ -9461,7 +9461,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32">
@@ -9469,7 +9469,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9477,7 +9477,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32">
@@ -9485,7 +9485,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9493,7 +9493,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9501,7 +9501,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="32">
@@ -9509,7 +9509,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9517,7 +9517,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9525,7 +9525,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9533,7 +9533,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9541,7 +9541,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9549,7 +9549,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9557,7 +9557,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9565,7 +9565,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9573,7 +9573,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9581,7 +9581,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9589,7 +9589,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9597,7 +9597,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9605,7 +9605,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9613,7 +9613,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9621,7 +9621,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -11224,7 +11224,7 @@
         <v>298</v>
       </c>
       <c r="C2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -11236,7 +11236,7 @@
         <v>299</v>
       </c>
       <c r="C3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -11248,7 +11248,7 @@
         <v>300</v>
       </c>
       <c r="C4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11259,7 +11259,7 @@
         <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11308,8 +11308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11340,10 +11340,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>536</v>
       </c>
       <c r="C2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11351,10 +11351,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11362,10 +11362,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11373,10 +11373,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11426,10 +11426,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C2" t="s">
         <v>308</v>
-      </c>
-      <c r="C2" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11437,10 +11437,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" t="s">
         <v>310</v>
-      </c>
-      <c r="C3" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11448,10 +11448,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C4" t="s">
         <v>312</v>
-      </c>
-      <c r="C4" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11459,10 +11459,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" t="s">
         <v>314</v>
-      </c>
-      <c r="C5" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11470,10 +11470,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" t="s">
         <v>316</v>
-      </c>
-      <c r="C6" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11481,10 +11481,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7" t="s">
         <v>318</v>
-      </c>
-      <c r="C7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -11492,10 +11492,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" t="s">
         <v>320</v>
-      </c>
-      <c r="C8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11503,10 +11503,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="C9" t="s">
         <v>322</v>
-      </c>
-      <c r="C9" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11514,10 +11514,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" t="s">
         <v>324</v>
-      </c>
-      <c r="C10" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11525,10 +11525,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" t="s">
         <v>326</v>
-      </c>
-      <c r="C11" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11536,10 +11536,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" t="s">
         <v>328</v>
-      </c>
-      <c r="C12" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -11547,10 +11547,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="C13" t="s">
         <v>330</v>
-      </c>
-      <c r="C13" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11558,10 +11558,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14" t="s">
         <v>332</v>
-      </c>
-      <c r="C14" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11569,10 +11569,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" t="s">
         <v>334</v>
-      </c>
-      <c r="C15" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11580,10 +11580,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" t="s">
         <v>336</v>
-      </c>
-      <c r="C16" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11591,10 +11591,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" t="s">
         <v>338</v>
-      </c>
-      <c r="C17" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11602,10 +11602,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" t="s">
         <v>340</v>
-      </c>
-      <c r="C18" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11613,10 +11613,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" t="s">
         <v>342</v>
-      </c>
-      <c r="C19" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11624,10 +11624,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="C20" t="s">
         <v>344</v>
-      </c>
-      <c r="C20" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11635,10 +11635,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C21" t="s">
         <v>346</v>
-      </c>
-      <c r="C21" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11646,10 +11646,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C22" t="s">
         <v>348</v>
-      </c>
-      <c r="C22" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11657,10 +11657,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" t="s">
         <v>350</v>
-      </c>
-      <c r="C23" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11668,10 +11668,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C24" t="s">
         <v>352</v>
-      </c>
-      <c r="C24" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11679,10 +11679,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" t="s">
         <v>354</v>
-      </c>
-      <c r="C25" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -11731,13 +11731,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11745,13 +11745,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11759,13 +11759,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11773,13 +11773,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11787,13 +11787,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11801,13 +11801,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11821,7 +11821,7 @@
         <v>267</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11829,13 +11829,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>375</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11843,13 +11843,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>268</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11863,7 +11863,7 @@
         <v>276</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11877,7 +11877,7 @@
         <v>277</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11891,7 +11891,7 @@
         <v>286</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11899,13 +11899,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>383</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11913,13 +11913,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>278</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -11927,13 +11927,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="21" t="s">
         <v>388</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11941,13 +11941,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11955,13 +11955,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11969,13 +11969,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11989,7 +11989,7 @@
         <v>280</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11997,13 +11997,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -12017,7 +12017,7 @@
         <v>285</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -12031,7 +12031,7 @@
         <v>282</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12045,7 +12045,7 @@
         <v>283</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12059,7 +12059,7 @@
         <v>284</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12094,7 +12094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -12164,7 +12164,7 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2100" windowWidth="25600" windowHeight="16060" tabRatio="870" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14060" tabRatio="870" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -912,14 +912,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>soldierMaterials,deathHand,1;soldierMaterials,soulStone,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldierMaterials,heroBones,1;soldierMaterials,magicBox,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_normal_dragon_strength_vitality</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -932,70 +924,14 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>greenDragon,19,22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,58,65</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,78,88</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>STR_boss_dragon_strength_vitality</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>redDragon,84,95</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,101,113</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,617,694</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,748,842</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,822,924</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,68,77</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,170,192</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,211,238</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>greenDragon,334,376</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>blueDragon,347,390</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,867,975</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,682,768</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>greenDragon,1706,1920</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1004,18 +940,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>greenDragon,2054,2311</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,1542,1735</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,252,284</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>items,infantryAtkBonus_1,1,20;items,archerAtkBonus_1,1,20;items,cavalryAtkBonus_1,1,20;items,siegeAtkBonus_1,1,20;items,masterOfDefender_1,1,20</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1063,26 +987,6 @@
     <t>lancer_1,8;catapult_1,3;ranger_1,8;swordsman_1,4</t>
   </si>
   <si>
-    <t>sentinel_1,16;horseArcher_1,6;ballista_1,2;ranger_1,4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_1,16;swordsman_1,12;lancer_1,4;catapult_1,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_1,4;ranger_1,12;sentinel_1,8;horseArcher_1,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathKnight,6;skeletonWarrior,8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>meatWagon,3;skeletonArcher,8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>sentinel_2,16;swordsman_2,12;ranger_2,8;crossbowman_2,4</t>
   </si>
   <si>
@@ -1093,30 +997,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>lancer_3,8;swordsman_3,12;ranger_3,8;catapult_3,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,50</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,49;sentinel_3,73;crossbowman_3,49;ballista_3,6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,139;swordsman_3,209;ranger_3,139;catapult_3,17</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,150</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>horseArcher_3,294;sentinel_3,441;crossbowman_3,294;ballista_3,37</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1141,158 +1021,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>lancer_3,1260;swordsman_3,1890;ranger_3,1260;catapult_3,157</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,350</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,1783;sentinel_3,2674;crossbowman_3,1783;ballista_3,223</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,400</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,2422;swordsman_3,3633;ranger_3,2422;catapult_3,303</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,450</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,3185;sentinel_3,4777;crossbowman_3,3185;ballista_3,398</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,4080;swordsman_3,6121;ranger_3,4080;catapult_3,510</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,550</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,5116;sentinel_3,7675;crossbowman_3,5116;ballista_3,640</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,600</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,6300;swordsman_3,9450;ranger_3,6300;catapult_3,788</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,650</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,7639;sentinel_3,11458;crossbowman_3,7639;ballista_3,955</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,700</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,9140;swordsman_3,13709;ranger_3,9140;catapult_3,1142</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,750</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,10809;sentinel_3,16214;crossbowman_3,10809;ballista_3,1351</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,800</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,12655;swordsman_3,18982;ranger_3,12655;catapult_3,1582</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,850</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,14682;sentinel_3,22024;crossbowman_3,14682;ballista_3,1835</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,900</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,16899;swordsman_3,25348;ranger_3,16899;catapult_3,2112</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,950</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,19309;sentinel_3,28964;crossbowman_3,19309;ballista_3,2414</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,21921;swordsman_3,32881;ranger_3,21921;catapult_3,2740</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,1050</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,24739;sentinel_3,37109;crossbowman_3,24739;ballista_3,3092</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,1100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,27770;swordsman_3,41656;ranger_3,27770;catapult_3,3471</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,1150</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,31020;sentinel_3,46530;crossbowman_3,31020;ballista_3,3877</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,1200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,4,4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,9,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>blackDragon,22,25</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1301,22 +1029,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>blueDragon,12,13</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,29,32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>greenDragon,6,6</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>greenDragon,14,16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>blackDragon,35,40</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1325,26 +1041,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>blackDragon,48,54</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,13,14</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,32,36</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,80,90</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,19,21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>redDragon,47,53</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1361,10 +1057,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>blueDragon,68,76</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>blackDragon,170,191</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1373,46 +1065,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>blackDragon,195,220</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,426,479</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,528,594</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,630,709</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,117,132</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,293,330</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>blackDragon,733,824</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>greenDragon,134,150</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>blackDragon,835,940</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>greenDragon,216,242</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>greenDragon,539,606</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1421,71 +1081,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>redDragon,248,279</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>redDragon,621,698</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>blackDragon,1552,1746</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,281,316</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,703,791</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,1757,1976</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>redDragon,314,353</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,785,883</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,1962,2207</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,2166,2437</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,551,620</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,1379,1551</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,3446,3877</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,3856,4338</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,4266,4780</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,4675,5260</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,5136,5778</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1985,31 +1585,431 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>items,coinBonus_1,1,40;items,citizenBonus_1,1,30;items,troopSizeBonus_1,1,30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_2,8;horseArcher_2,6;sentinel_2,8;swordsman_2,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,coin,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>resources,iron,1000;resources,food,1000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>sentinel_1,16;horseArcher_1,6;ballista_1,2;ranger_1,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>resources,wood,1000;resources,iron,1000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>crossbowman_1,16;swordsman_1,12;lancer_1,4;catapult_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>resources,stone,1000;resources,iron,1000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>ballista_1,4;ranger_1,12;sentinel_1,8;horseArcher_1,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>resources,wood,1000;resources,stone,1000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>resources,coin,1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,coinBonus_1,1,40;items,citizenBonus_1,1,30;items,troopSizeBonus_1,1,30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_2,8;horseArcher_2,6;sentinel_2,8;swordsman_2,4</t>
+    <t>deathKnight,6;skeletonWarrior,8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldierMaterials,deathHand,1;soldierMaterials,soulStone,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>meatWagon,3;skeletonArcher,8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldierMaterials,heroBones,1;soldierMaterials,magicBox,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,8;swordsman_3,12;ranger_3,8;catapult_3,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,1260;swordsman_3,1890;ranger_3,1260;catapult_3,157</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,6300;swordsman_3,9450;ranger_3,6300;catapult_3,788</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,16899;swordsman_3,25348;ranger_3,16899;catapult_3,2112</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,21921;swordsman_3,32881;ranger_3,21921;catapult_3,2740</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1050</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,24739;sentinel_3,37109;crossbowman_3,24739;ballista_3,3092</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,49;sentinel_3,73;crossbowman_3,49;ballista_3,6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,139;swordsman_3,209;ranger_3,139;catapult_3,17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,150</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,350</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,1783;sentinel_3,2674;crossbowman_3,1783;ballista_3,223</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,400</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,2422;swordsman_3,3633;ranger_3,2422;catapult_3,303</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,450</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,3185;sentinel_3,4777;crossbowman_3,3185;ballista_3,398</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,4080;swordsman_3,6121;ranger_3,4080;catapult_3,510</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,550</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,5116;sentinel_3,7675;crossbowman_3,5116;ballista_3,640</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,600</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,650</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,7639;sentinel_3,11458;crossbowman_3,7639;ballista_3,955</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,700</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,9140;swordsman_3,13709;ranger_3,9140;catapult_3,1142</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,750</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,10809;sentinel_3,16214;crossbowman_3,10809;ballista_3,1351</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,800</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,12655;swordsman_3,18982;ranger_3,12655;catapult_3,1582</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,850</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,14682;sentinel_3,22024;crossbowman_3,14682;ballista_3,1835</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,900</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,950</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,19309;sentinel_3,28964;crossbowman_3,19309;ballista_3,2414</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,27770;swordsman_3,41656;ranger_3,27770;catapult_3,3471</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1150</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,31020;sentinel_3,46530;crossbowman_3,31020;ballista_3,3877</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,4,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,9,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,12,13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,29,32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,14,16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,19,22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,48,54</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,13,14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,32,36</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,80,90</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,19,21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,58,65</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,68,76</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,78,88</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,195,220</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,68,77</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,170,192</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,426,479</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,84,95</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,211,238</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,528,594</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,101,113</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,252,284</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,630,709</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,117,132</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,293,330</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,134,150</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,216,242</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,248,279</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,1552,1746</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,281,316</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,703,791</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,1757,1976</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,785,883</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,1962,2207</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,347,390</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,867,975</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,2166,2437</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,551,620</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,1379,1551</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,3446,3877</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,617,694</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,1542,1735</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,3856,4338</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,682,768</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,4266,4780</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,748,842</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,4675,5260</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,822,924</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,2054,2311</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,5136,5778</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7935,7 +7935,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>129</v>
@@ -8552,7 +8552,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>529</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -8560,7 +8560,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>465</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -8568,7 +8568,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -8576,7 +8576,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -8584,7 +8584,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>409</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -8592,7 +8592,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -8600,7 +8600,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -8608,7 +8608,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8616,7 +8616,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8624,7 +8624,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>414</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -8632,7 +8632,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>415</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -8640,7 +8640,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -8648,7 +8648,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -8656,7 +8656,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>418</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -8664,7 +8664,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>466</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -8672,7 +8672,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>467</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -8680,7 +8680,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>468</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -8688,7 +8688,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>419</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8696,7 +8696,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>469</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8704,7 +8704,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>470</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -8712,7 +8712,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -8720,7 +8720,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>421</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -8728,7 +8728,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>471</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -8736,7 +8736,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>472</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8744,7 +8744,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>422</v>
+        <v>322</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -8752,7 +8752,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>473</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -8760,7 +8760,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>423</v>
+        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -8768,7 +8768,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>424</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -8776,7 +8776,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -8784,7 +8784,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>426</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8792,7 +8792,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>427</v>
+        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -8800,7 +8800,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>428</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -8808,7 +8808,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -8816,7 +8816,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>430</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -8824,7 +8824,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>431</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -8832,7 +8832,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>432</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -8840,7 +8840,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>433</v>
+        <v>333</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -8848,7 +8848,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>434</v>
+        <v>334</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -8856,7 +8856,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>435</v>
+        <v>335</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -8864,7 +8864,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>436</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -8872,7 +8872,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>437</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -8880,7 +8880,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>438</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -8888,7 +8888,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>439</v>
+        <v>339</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -8896,7 +8896,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>440</v>
+        <v>340</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -8904,7 +8904,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>441</v>
+        <v>341</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -8912,7 +8912,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>442</v>
+        <v>342</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -8920,7 +8920,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>443</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -8928,7 +8928,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>444</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -8936,7 +8936,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>445</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -8944,7 +8944,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>446</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -8952,7 +8952,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>447</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -8960,7 +8960,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>448</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -8968,7 +8968,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>449</v>
+        <v>349</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -8976,7 +8976,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>450</v>
+        <v>350</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -8984,7 +8984,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>451</v>
+        <v>351</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -8992,7 +8992,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>452</v>
+        <v>352</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -9000,7 +9000,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>453</v>
+        <v>353</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -9008,7 +9008,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>454</v>
+        <v>354</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -9016,7 +9016,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>455</v>
+        <v>355</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -9024,7 +9024,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>456</v>
+        <v>356</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -9032,7 +9032,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>457</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -9040,7 +9040,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>458</v>
+        <v>358</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -9048,7 +9048,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>459</v>
+        <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -9056,7 +9056,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>460</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -9086,7 +9086,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>529</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9094,7 +9094,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>475</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9102,7 +9102,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>476</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9110,7 +9110,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>477</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9118,7 +9118,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>478</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9126,7 +9126,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>479</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9134,7 +9134,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>480</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9142,7 +9142,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9150,7 +9150,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>481</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9158,7 +9158,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>482</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9166,7 +9166,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>483</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9174,7 +9174,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>484</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9182,7 +9182,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>462</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9190,7 +9190,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>485</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9198,7 +9198,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>486</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9206,7 +9206,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>487</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="32">
@@ -9214,7 +9214,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>488</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9222,7 +9222,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9230,7 +9230,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>490</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9238,7 +9238,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>491</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9246,7 +9246,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>474</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -9276,7 +9276,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>529</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9284,7 +9284,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>492</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9292,7 +9292,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>493</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9300,7 +9300,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>494</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9308,7 +9308,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>495</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9316,7 +9316,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>496</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9324,7 +9324,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>497</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9332,7 +9332,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>498</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9340,7 +9340,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9348,7 +9348,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>500</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9356,7 +9356,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>501</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9364,7 +9364,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>502</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9372,7 +9372,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>503</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9380,7 +9380,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>504</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9388,7 +9388,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>505</v>
+        <v>405</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9396,7 +9396,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>506</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9404,7 +9404,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>507</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9412,7 +9412,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>508</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -9445,7 +9445,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>529</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -9453,7 +9453,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="32">
@@ -9461,7 +9461,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="32">
@@ -9469,7 +9469,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -9477,7 +9477,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>512</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="32">
@@ -9485,7 +9485,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>513</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -9493,7 +9493,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9501,7 +9501,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>515</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="32">
@@ -9509,7 +9509,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>516</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9517,7 +9517,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>463</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9525,7 +9525,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>517</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9533,7 +9533,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>518</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9541,7 +9541,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>519</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9549,7 +9549,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>520</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -9557,7 +9557,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>521</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9565,7 +9565,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>522</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -9573,7 +9573,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>523</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9581,7 +9581,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>524</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9589,7 +9589,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>464</v>
+        <v>364</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -9597,7 +9597,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>525</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9605,7 +9605,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>526</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -9613,7 +9613,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>527</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9621,7 +9621,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>528</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -11188,7 +11188,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11211,7 +11211,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -11221,10 +11221,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>530</v>
+        <v>433</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -11233,10 +11233,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>434</v>
       </c>
       <c r="C3" t="s">
-        <v>531</v>
+        <v>435</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -11245,10 +11245,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>300</v>
+        <v>436</v>
       </c>
       <c r="C4" t="s">
-        <v>532</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11256,10 +11256,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>301</v>
+        <v>438</v>
       </c>
       <c r="C5" t="s">
-        <v>533</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11267,10 +11267,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>440</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>441</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11278,10 +11278,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>442</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>443</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -11308,8 +11308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11340,10 +11340,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>536</v>
+        <v>431</v>
       </c>
       <c r="C2" t="s">
-        <v>534</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11351,10 +11351,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="C3" t="s">
-        <v>534</v>
+        <v>432</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11362,10 +11362,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>534</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11373,10 +11373,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C5" t="s">
-        <v>534</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11400,7 +11400,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11426,10 +11426,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>444</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11437,10 +11437,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>309</v>
+        <v>452</v>
       </c>
       <c r="C3" t="s">
-        <v>310</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11448,10 +11448,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>454</v>
       </c>
       <c r="C4" t="s">
-        <v>312</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11459,10 +11459,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
       <c r="C5" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11470,10 +11470,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C6" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11481,10 +11481,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="C7" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -11492,10 +11492,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>319</v>
+        <v>446</v>
       </c>
       <c r="C8" t="s">
-        <v>320</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11503,10 +11503,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>321</v>
+        <v>457</v>
       </c>
       <c r="C9" t="s">
-        <v>322</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11514,10 +11514,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>323</v>
+        <v>459</v>
       </c>
       <c r="C10" t="s">
-        <v>324</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11525,10 +11525,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>325</v>
+        <v>461</v>
       </c>
       <c r="C11" t="s">
-        <v>326</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11536,10 +11536,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>327</v>
+        <v>463</v>
       </c>
       <c r="C12" t="s">
-        <v>328</v>
+        <v>464</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -11547,10 +11547,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>329</v>
+        <v>465</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11558,10 +11558,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>331</v>
+        <v>447</v>
       </c>
       <c r="C14" t="s">
-        <v>332</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11569,10 +11569,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>333</v>
+        <v>468</v>
       </c>
       <c r="C15" t="s">
-        <v>334</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11580,10 +11580,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>335</v>
+        <v>470</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11591,10 +11591,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>337</v>
+        <v>472</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11602,10 +11602,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>339</v>
+        <v>474</v>
       </c>
       <c r="C18" t="s">
-        <v>340</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11613,10 +11613,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>341</v>
+        <v>476</v>
       </c>
       <c r="C19" t="s">
-        <v>342</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11624,10 +11624,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>343</v>
+        <v>448</v>
       </c>
       <c r="C20" t="s">
-        <v>344</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11635,10 +11635,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>345</v>
+        <v>479</v>
       </c>
       <c r="C21" t="s">
-        <v>346</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11646,10 +11646,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>347</v>
+        <v>449</v>
       </c>
       <c r="C22" t="s">
-        <v>348</v>
+        <v>450</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11657,10 +11657,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>349</v>
+        <v>451</v>
       </c>
       <c r="C23" t="s">
-        <v>350</v>
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11668,10 +11668,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>351</v>
+        <v>482</v>
       </c>
       <c r="C24" t="s">
-        <v>352</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11679,10 +11679,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>353</v>
+        <v>484</v>
       </c>
       <c r="C25" t="s">
-        <v>354</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -11702,7 +11702,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11717,13 +11717,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>265</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11731,13 +11731,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>355</v>
+        <v>486</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>356</v>
+        <v>487</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>357</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11745,13 +11745,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>358</v>
+        <v>290</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>359</v>
+        <v>488</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>360</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11759,13 +11759,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>361</v>
+        <v>291</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>362</v>
+        <v>490</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>363</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11773,13 +11773,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>364</v>
+        <v>293</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>266</v>
+        <v>491</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>365</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11787,13 +11787,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>366</v>
+        <v>493</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>367</v>
+        <v>494</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>368</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11801,13 +11801,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>369</v>
+        <v>496</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>371</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11815,13 +11815,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>267</v>
+        <v>497</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>372</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11829,13 +11829,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>373</v>
+        <v>297</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>374</v>
+        <v>498</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>375</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11843,13 +11843,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>376</v>
+        <v>299</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>268</v>
+        <v>499</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>377</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11857,13 +11857,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>275</v>
+        <v>501</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>276</v>
+        <v>502</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>378</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11871,13 +11871,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>270</v>
+        <v>504</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>277</v>
+        <v>505</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>379</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11885,13 +11885,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>271</v>
+        <v>507</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>286</v>
+        <v>508</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>380</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11899,13 +11899,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>381</v>
+        <v>510</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>382</v>
+        <v>511</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>383</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11913,13 +11913,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>384</v>
+        <v>512</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>385</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -11927,13 +11927,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>386</v>
+        <v>513</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>388</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11941,13 +11941,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>389</v>
+        <v>514</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>390</v>
+        <v>304</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>391</v>
+        <v>515</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11955,13 +11955,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>392</v>
+        <v>516</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>393</v>
+        <v>517</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>394</v>
+        <v>518</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11969,13 +11969,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>395</v>
+        <v>305</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>396</v>
+        <v>519</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>397</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11983,13 +11983,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>279</v>
+        <v>521</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>280</v>
+        <v>522</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>398</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11997,13 +11997,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>399</v>
+        <v>524</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>401</v>
+        <v>526</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -12011,13 +12011,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>272</v>
+        <v>527</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>285</v>
+        <v>528</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>402</v>
+        <v>529</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -12025,13 +12025,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>281</v>
+        <v>530</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>403</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12039,13 +12039,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>273</v>
+        <v>532</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>404</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12053,13 +12053,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>274</v>
+        <v>534</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>284</v>
+        <v>535</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>405</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12094,8 +12094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -12120,7 +12120,7 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
@@ -12131,7 +12131,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
         <v>92</v>
@@ -12142,7 +12142,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>92</v>
@@ -12153,7 +12153,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
         <v>92</v>
@@ -12164,7 +12164,7 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>535</v>
+        <v>430</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
@@ -12175,7 +12175,7 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -12186,7 +12186,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -12197,7 +12197,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
         <v>94</v>
@@ -12208,7 +12208,7 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
@@ -12219,7 +12219,7 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -12230,7 +12230,7 @@
         <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14060" tabRatio="870" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14060" tabRatio="870" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="507">
   <si>
     <t>INT_index</t>
   </si>
@@ -1093,924 +1093,762 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>Sword of Damocles</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damon and Pythias</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apple of Discord</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Judgment of Paris</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Helen of Troy</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Trojan Horse</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stables of Augeas</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Under the Rose</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cadmean Victory</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cask of Danaide</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freedom of Pan</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lord of War</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>God of War</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chaos of War</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Crusades</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blood Rose</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free Lancer</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gun and Rose</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_value</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>items,coinBonus_1,1,40;items,citizenBonus_1,1,30;items,troopSizeBonus_1,1,30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_2,8;horseArcher_2,6;sentinel_2,8;swordsman_2,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,coin,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,iron,1000;resources,food,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>sentinel_1,16;horseArcher_1,6;ballista_1,2;ranger_1,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,1000;resources,iron,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>crossbowman_1,16;swordsman_1,12;lancer_1,4;catapult_1,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,stone,1000;resources,iron,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ballista_1,4;ranger_1,12;sentinel_1,8;horseArcher_1,2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,1000;resources,stone,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>deathKnight,6;skeletonWarrior,8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldierMaterials,deathHand,1;soldierMaterials,soulStone,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>meatWagon,3;skeletonArcher,8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldierMaterials,heroBones,1;soldierMaterials,magicBox,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,8;swordsman_3,12;ranger_3,8;catapult_3,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,1260;swordsman_3,1890;ranger_3,1260;catapult_3,157</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,6300;swordsman_3,9450;ranger_3,6300;catapult_3,788</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,16899;swordsman_3,25348;ranger_3,16899;catapult_3,2112</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,21921;swordsman_3,32881;ranger_3,21921;catapult_3,2740</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1050</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,24739;sentinel_3,37109;crossbowman_3,24739;ballista_3,3092</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,49;sentinel_3,73;crossbowman_3,49;ballista_3,6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,139;swordsman_3,209;ranger_3,139;catapult_3,17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,150</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,350</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,1783;sentinel_3,2674;crossbowman_3,1783;ballista_3,223</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,400</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,2422;swordsman_3,3633;ranger_3,2422;catapult_3,303</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,450</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,3185;sentinel_3,4777;crossbowman_3,3185;ballista_3,398</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,4080;swordsman_3,6121;ranger_3,4080;catapult_3,510</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,550</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,5116;sentinel_3,7675;crossbowman_3,5116;ballista_3,640</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,600</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,650</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,7639;sentinel_3,11458;crossbowman_3,7639;ballista_3,955</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,700</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,9140;swordsman_3,13709;ranger_3,9140;catapult_3,1142</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,750</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,10809;sentinel_3,16214;crossbowman_3,10809;ballista_3,1351</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,800</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,12655;swordsman_3,18982;ranger_3,12655;catapult_3,1582</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,850</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,14682;sentinel_3,22024;crossbowman_3,14682;ballista_3,1835</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,900</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,950</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,19309;sentinel_3,28964;crossbowman_3,19309;ballista_3,2414</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lancer_3,27770;swordsman_3,41656;ranger_3,27770;catapult_3,3471</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1150</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>horseArcher_3,31020;sentinel_3,46530;crossbowman_3,31020;ballista_3,3877</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,gem,1200</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,4,4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,9,10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,12,13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,29,32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,14,16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,19,22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,48,54</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,13,14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,32,36</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,80,90</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,19,21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,58,65</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,68,76</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,78,88</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,195,220</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,68,77</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,170,192</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,426,479</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,84,95</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,211,238</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,528,594</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,101,113</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,252,284</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,630,709</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,117,132</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,293,330</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,134,150</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,216,242</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,248,279</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,1552,1746</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,281,316</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,703,791</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,1757,1976</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon,785,883</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,1962,2207</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,347,390</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,867,975</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,2166,2437</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,551,620</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,1379,1551</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,3446,3877</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,617,694</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon,1542,1735</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,3856,4338</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,682,768</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,4266,4780</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,748,842</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,4675,5260</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,822,924</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon,2054,2311</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon,5136,5778</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atlas</t>
+  </si>
+  <si>
     <t>Titan</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Cronos</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prometheus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Pandora</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Olympic</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Vulcan</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Venus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Muses</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Pan</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Flora</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Hygeia</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Morpheus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gaea</t>
+  </si>
+  <si>
+    <t>Uranus</t>
+  </si>
+  <si>
+    <t>Rhea</t>
   </si>
   <si>
     <t>Hera</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeus</t>
   </si>
   <si>
     <t>Hades</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Demeter</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hestia</t>
+  </si>
+  <si>
+    <t>Apollo</t>
   </si>
   <si>
     <t>Artemis</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Athene</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Persephone</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Ares</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hephaestus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Hebe</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Hermes</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dionysus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Eros</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heracles</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Oceanus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Crius</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Iapetus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Thethys</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mnemosyne</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hyperion</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Epimetheus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Odin</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Frigg</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Thor</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Sif</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Freyr</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Freyja</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Loki</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Tyr</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Heimdall</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Baldur</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Hodr</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Forseti</t>
-    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Bragi</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sleipnir</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gullfaxi</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hrungnir</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Magni</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matres</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Matrones</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cernunnos</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sucellus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taranis</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Agreeable</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furious</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrathful</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bright</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valiant</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Naïve</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Noble</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mighty</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Skillful</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devoted</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brave</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powerful</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Divine</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Immortal</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kingdom</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nation</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Territory</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chaos</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Empire</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legend</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>History</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Region</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warrior</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sons</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alliance</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annal</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guild</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>World</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rise</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Swan Song</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>Honor of War</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Atlas</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gaea</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Uranus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rhea</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zeus</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poseidon</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hestia</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apollo</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aphrodite</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Immortal</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Furious</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wrathful</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intelligent</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bright</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resourceful</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aesthetic</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valiant</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Naïve</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Noble</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mighty</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aggressive</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ambitious</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Devoted</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distinguished</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Brave</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Powerful</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Divine</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kingdom</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nation</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Territory</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chaos</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Empire</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Legend</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>History</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Region</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Warrior</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sons</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alliance</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annal</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Guild</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>World</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rise</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pandora's box</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword of Damocles</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damon and Pythias</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apple of Discord</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Judgment of Paris</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helen of Troy</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Trojan Horse</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stables of Augeas</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Under the Rose</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ariadne's Thread</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cadmean Victory</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cask of Danaide</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freedom of Pan</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lord of War</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>God of War</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chaos of War</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>The Crusades</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blood Rose</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Free Lancer</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gun and Rose</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_value</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>items,coinBonus_1,1,40;items,citizenBonus_1,1,30;items,troopSizeBonus_1,1,30</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_2,8;horseArcher_2,6;sentinel_2,8;swordsman_2,4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,coin,1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,iron,1000;resources,food,1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>sentinel_1,16;horseArcher_1,6;ballista_1,2;ranger_1,4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,wood,1000;resources,iron,1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>crossbowman_1,16;swordsman_1,12;lancer_1,4;catapult_1,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,stone,1000;resources,iron,1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ballista_1,4;ranger_1,12;sentinel_1,8;horseArcher_1,2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,wood,1000;resources,stone,1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>deathKnight,6;skeletonWarrior,8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldierMaterials,deathHand,1;soldierMaterials,soulStone,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>meatWagon,3;skeletonArcher,8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldierMaterials,heroBones,1;soldierMaterials,magicBox,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,8;swordsman_3,12;ranger_3,8;catapult_3,1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,50</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,1260;swordsman_3,1890;ranger_3,1260;catapult_3,157</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,6300;swordsman_3,9450;ranger_3,6300;catapult_3,788</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,16899;swordsman_3,25348;ranger_3,16899;catapult_3,2112</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,21921;swordsman_3,32881;ranger_3,21921;catapult_3,2740</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,1050</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,24739;sentinel_3,37109;crossbowman_3,24739;ballista_3,3092</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,49;sentinel_3,73;crossbowman_3,49;ballista_3,6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,139;swordsman_3,209;ranger_3,139;catapult_3,17</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,150</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,350</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,1783;sentinel_3,2674;crossbowman_3,1783;ballista_3,223</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,400</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,2422;swordsman_3,3633;ranger_3,2422;catapult_3,303</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,450</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,3185;sentinel_3,4777;crossbowman_3,3185;ballista_3,398</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,4080;swordsman_3,6121;ranger_3,4080;catapult_3,510</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,550</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,5116;sentinel_3,7675;crossbowman_3,5116;ballista_3,640</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,600</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,650</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,7639;sentinel_3,11458;crossbowman_3,7639;ballista_3,955</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,700</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,9140;swordsman_3,13709;ranger_3,9140;catapult_3,1142</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,750</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,10809;sentinel_3,16214;crossbowman_3,10809;ballista_3,1351</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,800</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,12655;swordsman_3,18982;ranger_3,12655;catapult_3,1582</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,850</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,14682;sentinel_3,22024;crossbowman_3,14682;ballista_3,1835</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,900</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,950</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,19309;sentinel_3,28964;crossbowman_3,19309;ballista_3,2414</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,1100</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lancer_3,27770;swordsman_3,41656;ranger_3,27770;catapult_3,3471</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,1150</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>horseArcher_3,31020;sentinel_3,46530;crossbowman_3,31020;ballista_3,3877</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,gem,1200</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,4,4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,9,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,12,13</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,29,32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,14,16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,19,22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,48,54</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,13,14</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,32,36</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,80,90</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,19,21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,58,65</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,68,76</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,78,88</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,195,220</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,68,77</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,170,192</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,426,479</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,84,95</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,211,238</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,528,594</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,101,113</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,252,284</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,630,709</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,117,132</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,293,330</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,134,150</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,216,242</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,248,279</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,1552,1746</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,281,316</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,703,791</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,1757,1976</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,785,883</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,1962,2207</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,347,390</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,867,975</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,2166,2437</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,551,620</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,1379,1551</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,3446,3877</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,617,694</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,1542,1735</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,3856,4338</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,682,768</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,4266,4780</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,748,842</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,4675,5260</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,822,924</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,2054,2311</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,5136,5778</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2088,18 +1926,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Helvetica"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4036,7 +3874,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8539,10 +8377,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -8552,511 +8390,343 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="22" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" s="22" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="22" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18" s="22" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" s="22" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" s="22" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" s="22" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22" s="22" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="17">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="17">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="B24" s="22" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="17">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="B25" s="22" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="17">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="B26" s="22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="17">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27" s="22" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="17">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="B28" s="22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="17">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="B29" s="22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="17">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="B30" s="22" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="17">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B31" s="22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="17">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="B32" s="22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B33" s="22" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="B34" s="22" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="17">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35" s="22" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="17">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="B36" s="22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="17">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="B37" s="22" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="B38" s="22" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="B39" s="22" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="17">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="B40" s="22" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="17">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="B41" s="22" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="17">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="B42" s="22" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="17">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>360</v>
+      <c r="B43" s="22" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -9073,10 +8743,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9086,167 +8756,111 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="22" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="22" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="22" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="22" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="22" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="22" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="22" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="22" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="32">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>374</v>
+      <c r="B14" s="22" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -9266,7 +8880,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9276,143 +8890,143 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="B2" s="22" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="B3" s="22" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="22" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" s="22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="22" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" s="22" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="22" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="22" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="22" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="22" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="22" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="22" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" s="22" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="22" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="22" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>408</v>
+      <c r="B18" s="22" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -9429,15 +9043,15 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -9445,183 +9059,167 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="32">
+      <c r="B2" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="32">
+      <c r="B3" s="22" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" s="22" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="32">
+      <c r="B5" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" s="22" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" s="22" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32">
+      <c r="B8" s="22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" s="22" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" s="22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="B11" s="22" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="B12" s="22" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="B13" s="22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="B14" s="22" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="B15" s="22" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="22" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="B17" s="22" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="B19" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="17">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="B20" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="17">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>428</v>
+      <c r="B21" s="22" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -11224,7 +10822,7 @@
         <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -11233,10 +10831,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>330</v>
       </c>
       <c r="C3" t="s">
-        <v>435</v>
+        <v>331</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -11245,10 +10843,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>436</v>
+        <v>332</v>
       </c>
       <c r="C4" t="s">
-        <v>437</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11256,10 +10854,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>334</v>
       </c>
       <c r="C5" t="s">
-        <v>439</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11267,10 +10865,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>336</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11278,10 +10876,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>442</v>
+        <v>338</v>
       </c>
       <c r="C7" t="s">
-        <v>443</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -11340,10 +10938,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>431</v>
+        <v>327</v>
       </c>
       <c r="C2" t="s">
-        <v>432</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11354,7 +10952,7 @@
         <v>280</v>
       </c>
       <c r="C3" t="s">
-        <v>432</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11365,7 +10963,7 @@
         <v>281</v>
       </c>
       <c r="C4" t="s">
-        <v>432</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11376,7 +10974,7 @@
         <v>282</v>
       </c>
       <c r="C5" t="s">
-        <v>432</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11426,10 +11024,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>444</v>
+        <v>340</v>
       </c>
       <c r="C2" t="s">
-        <v>445</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11437,10 +11035,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>452</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
-        <v>453</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11448,10 +11046,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>350</v>
       </c>
       <c r="C4" t="s">
-        <v>455</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11492,10 +11090,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>446</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s">
-        <v>456</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11503,10 +11101,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>457</v>
+        <v>353</v>
       </c>
       <c r="C9" t="s">
-        <v>458</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11514,10 +11112,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>459</v>
+        <v>355</v>
       </c>
       <c r="C10" t="s">
-        <v>460</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11525,10 +11123,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>461</v>
+        <v>357</v>
       </c>
       <c r="C11" t="s">
-        <v>462</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11536,10 +11134,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>463</v>
+        <v>359</v>
       </c>
       <c r="C12" t="s">
-        <v>464</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -11547,10 +11145,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>465</v>
+        <v>361</v>
       </c>
       <c r="C13" t="s">
-        <v>466</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11558,10 +11156,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>447</v>
+        <v>343</v>
       </c>
       <c r="C14" t="s">
-        <v>467</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11569,10 +11167,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>468</v>
+        <v>364</v>
       </c>
       <c r="C15" t="s">
-        <v>469</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11580,10 +11178,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>470</v>
+        <v>366</v>
       </c>
       <c r="C16" t="s">
-        <v>471</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11591,10 +11189,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>472</v>
+        <v>368</v>
       </c>
       <c r="C17" t="s">
-        <v>473</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11602,10 +11200,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>474</v>
+        <v>370</v>
       </c>
       <c r="C18" t="s">
-        <v>475</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11613,10 +11211,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>476</v>
+        <v>372</v>
       </c>
       <c r="C19" t="s">
-        <v>477</v>
+        <v>373</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11624,10 +11222,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>448</v>
+        <v>344</v>
       </c>
       <c r="C20" t="s">
-        <v>478</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11635,10 +11233,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>479</v>
+        <v>375</v>
       </c>
       <c r="C21" t="s">
-        <v>480</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11646,10 +11244,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>449</v>
+        <v>345</v>
       </c>
       <c r="C22" t="s">
-        <v>450</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11657,10 +11255,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>451</v>
+        <v>347</v>
       </c>
       <c r="C23" t="s">
-        <v>481</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11668,10 +11266,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>482</v>
+        <v>378</v>
       </c>
       <c r="C24" t="s">
-        <v>483</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11679,10 +11277,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>484</v>
+        <v>380</v>
       </c>
       <c r="C25" t="s">
-        <v>485</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -11731,10 +11329,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>486</v>
+        <v>382</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>487</v>
+        <v>383</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>289</v>
@@ -11748,10 +11346,10 @@
         <v>290</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>488</v>
+        <v>384</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>489</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11762,7 +11360,7 @@
         <v>291</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>490</v>
+        <v>386</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>292</v>
@@ -11776,10 +11374,10 @@
         <v>293</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>491</v>
+        <v>387</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>492</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11787,13 +11385,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>493</v>
+        <v>389</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>494</v>
+        <v>390</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>495</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11801,7 +11399,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>496</v>
+        <v>392</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>294</v>
@@ -11818,7 +11416,7 @@
         <v>262</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>497</v>
+        <v>393</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>296</v>
@@ -11832,7 +11430,7 @@
         <v>297</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>498</v>
+        <v>394</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>298</v>
@@ -11846,10 +11444,10 @@
         <v>299</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>499</v>
+        <v>395</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>500</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11857,13 +11455,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>501</v>
+        <v>397</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>502</v>
+        <v>398</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>503</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11871,13 +11469,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>504</v>
+        <v>400</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>505</v>
+        <v>401</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>506</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11885,13 +11483,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>508</v>
+        <v>404</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>509</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11899,10 +11497,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>510</v>
+        <v>406</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>511</v>
+        <v>407</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>300</v>
@@ -11913,7 +11511,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>512</v>
+        <v>408</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>265</v>
@@ -11927,7 +11525,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>513</v>
+        <v>409</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>302</v>
@@ -11941,13 +11539,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>514</v>
+        <v>410</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>304</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>515</v>
+        <v>411</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11955,13 +11553,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>516</v>
+        <v>412</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>517</v>
+        <v>413</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>518</v>
+        <v>414</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11972,10 +11570,10 @@
         <v>305</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>519</v>
+        <v>415</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>520</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11983,13 +11581,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>521</v>
+        <v>417</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>522</v>
+        <v>418</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>523</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11997,13 +11595,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>524</v>
+        <v>420</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>525</v>
+        <v>421</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>526</v>
+        <v>422</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -12011,13 +11609,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>527</v>
+        <v>423</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>528</v>
+        <v>424</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>529</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -12025,13 +11623,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>530</v>
+        <v>426</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>266</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>531</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12039,13 +11637,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>532</v>
+        <v>428</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>267</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>533</v>
+        <v>429</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12053,13 +11651,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>534</v>
+        <v>430</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>535</v>
+        <v>431</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>536</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12094,7 +11692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -12164,7 +11762,7 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>430</v>
+        <v>326</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14060" tabRatio="870" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14060" tabRatio="870" firstSheet="9" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -1815,10 +1815,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>Warrior</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>Sons</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1848,6 +1844,10 @@
   </si>
   <si>
     <t>Honor of War</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warriors</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -3879,6 +3879,286 @@
     </xf>
   </cellXfs>
   <cellStyles count="559">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4158,286 +4438,6 @@
     <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="470" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="538" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="540" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="542" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="544" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="546" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="548" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="550" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="552" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -8379,7 +8379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -8879,8 +8879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -8978,7 +8978,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -8986,7 +8986,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -8994,7 +8994,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9002,7 +9002,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9010,7 +9010,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9018,7 +9018,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9026,7 +9026,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -9123,7 +9123,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9187,7 +9187,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14060" tabRatio="870" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="870" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="503">
   <si>
     <t>INT_index</t>
   </si>
@@ -912,34 +912,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>STR_normal_dragon_strength_vitality</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,23,26</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_elite_dragon_strength_vitality</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_boss_dragon_strength_vitality</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,334,376</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,1706,1920</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,1870,2104</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>items,infantryAtkBonus_1,1,20;items,archerAtkBonus_1,1,20;items,cavalryAtkBonus_1,1,20;items,siegeAtkBonus_1,1,20;items,masterOfDefender_1,1,20</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1018,74 +990,6 @@
   </si>
   <si>
     <t>resources,gem,300</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,22,25</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,5,5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,6,6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,35,40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,8,9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,47,53</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,118,133</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,144,162</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,27,31</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,170,191</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,31,35</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,733,824</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,835,940</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,539,606</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,1347,1516</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,621,698</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,314,353</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1393,210 +1297,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>blueDragon,4,4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,9,10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,12,13</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,29,32</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,14,16</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,19,22</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,48,54</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,13,14</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,32,36</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,80,90</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,19,21</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,58,65</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,68,76</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,78,88</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,195,220</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,68,77</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,170,192</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,426,479</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,84,95</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,211,238</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,528,594</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,101,113</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,252,284</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,630,709</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,117,132</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,293,330</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,134,150</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,216,242</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,248,279</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,1552,1746</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,281,316</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,703,791</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,1757,1976</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>redDragon,785,883</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,1962,2207</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,347,390</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,867,975</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,2166,2437</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,551,620</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,1379,1551</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,3446,3877</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,617,694</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blueDragon,1542,1735</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,3856,4338</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,682,768</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,4266,4780</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,748,842</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,4675,5260</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,822,924</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>greenDragon,2054,2311</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>blackDragon,5136,5778</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Atlas</t>
   </si>
   <si>
@@ -1849,6 +1549,290 @@
   <si>
     <t>Warriors</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_1_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_1_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_1_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_1_4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_1_5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_1_6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_1_5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_1_8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_1_7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_1_6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_1_5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_1_4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_1_3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_2_11</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_2_12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_2_13</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_2_14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_2_15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_2_16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_3_21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_3_22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_3_23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_3_24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_3_25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_3_26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_4_31</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_4_32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_4_33</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_4_34</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_4_35</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_4_36</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_2_14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_2_15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_2_17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_2_18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_3_23</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_3_24</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_3_25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_3_27</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>redDragon_3_28</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_4_34</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueDragon_4_35</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_4_36</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_4_37</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenDragon_4_38</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_15</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_16</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_17</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_19</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_2_20</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_27</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_28</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_29</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_3_30</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_35</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_36</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_37</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_38</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_39</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>blackDragon_4_40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_normal_dragon_star_level</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_elite_dragon_star_level</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_boss_dragon_star_level</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3879,7 +3863,285 @@
     </xf>
   </cellXfs>
   <cellStyles count="559">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4159,285 +4421,7 @@
     <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="469" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -7773,7 +7757,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>129</v>
@@ -8390,7 +8374,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -8398,7 +8382,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>433</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -8406,7 +8390,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>434</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -8414,7 +8398,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>435</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -8422,7 +8406,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>436</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -8430,7 +8414,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>437</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -8438,7 +8422,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>438</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -8446,7 +8430,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>439</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -8454,7 +8438,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>440</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -8462,7 +8446,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>441</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -8470,7 +8454,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>442</v>
+        <v>367</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -8478,7 +8462,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>443</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -8486,7 +8470,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>444</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -8494,7 +8478,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>445</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -8502,7 +8486,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>446</v>
+        <v>371</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -8510,7 +8494,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>447</v>
+        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -8518,7 +8502,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>448</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -8526,7 +8510,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>449</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
@@ -8534,7 +8518,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>450</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -8542,7 +8526,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>451</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
@@ -8550,7 +8534,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>452</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
@@ -8558,7 +8542,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>453</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17">
@@ -8566,7 +8550,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>454</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
@@ -8574,7 +8558,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>455</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17">
@@ -8582,7 +8566,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>456</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17">
@@ -8590,7 +8574,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>457</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17">
@@ -8598,7 +8582,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>458</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
@@ -8606,7 +8590,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>459</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17">
@@ -8614,7 +8598,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>460</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
@@ -8622,7 +8606,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>461</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
@@ -8630,7 +8614,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>462</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
@@ -8638,7 +8622,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>463</v>
+        <v>388</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
@@ -8646,7 +8630,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>464</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
@@ -8654,7 +8638,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>465</v>
+        <v>390</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
@@ -8662,7 +8646,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>466</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17">
@@ -8670,7 +8654,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>467</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17">
@@ -8678,7 +8662,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>468</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17">
@@ -8686,7 +8670,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>469</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17">
@@ -8694,7 +8678,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>470</v>
+        <v>395</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17">
@@ -8702,7 +8686,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>471</v>
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17">
@@ -8710,7 +8694,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>472</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17">
@@ -8718,7 +8702,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>473</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17">
@@ -8726,7 +8710,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>474</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -8756,7 +8740,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -8764,7 +8748,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>475</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -8772,7 +8756,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>476</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -8780,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>477</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -8788,7 +8772,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>478</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -8796,7 +8780,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>479</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -8804,7 +8788,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>480</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -8812,7 +8796,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>481</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -8820,7 +8804,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>482</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -8828,7 +8812,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>483</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -8836,7 +8820,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>484</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -8844,7 +8828,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>485</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -8852,7 +8836,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>486</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -8860,7 +8844,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>487</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -8879,7 +8863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -8890,7 +8874,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -8898,7 +8882,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>488</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -8906,7 +8890,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>489</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -8914,7 +8898,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>490</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -8922,7 +8906,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>491</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -8930,7 +8914,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>492</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -8938,7 +8922,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>493</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -8946,7 +8930,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>494</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -8954,7 +8938,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>495</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -8962,7 +8946,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>496</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -8970,7 +8954,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>497</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -8978,7 +8962,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>506</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -8986,7 +8970,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>498</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -8994,7 +8978,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>499</v>
+        <v>424</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9002,7 +8986,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>500</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9010,7 +8994,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>501</v>
+        <v>426</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9018,7 +9002,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>502</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9026,7 +9010,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>503</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -9059,7 +9043,7 @@
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9067,7 +9051,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9075,7 +9059,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9083,7 +9067,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9091,7 +9075,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9099,7 +9083,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9107,7 +9091,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9115,7 +9099,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9123,7 +9107,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>504</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9131,7 +9115,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9139,7 +9123,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>315</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9147,7 +9131,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>316</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9155,7 +9139,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>317</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9163,7 +9147,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>318</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9171,7 +9155,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>319</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9179,7 +9163,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9187,7 +9171,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>505</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9195,7 +9179,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
@@ -9203,7 +9187,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -9211,7 +9195,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
@@ -9219,7 +9203,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -10809,7 +10793,7 @@
         <v>65</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -10819,10 +10803,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -10831,10 +10815,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -10843,10 +10827,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10854,10 +10838,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10865,10 +10849,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -10876,10 +10860,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -10938,10 +10922,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -10949,10 +10933,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -10960,10 +10944,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -10971,10 +10955,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11024,10 +11008,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11035,10 +11019,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11046,10 +11030,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="C4" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11057,10 +11041,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11068,10 +11052,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11079,10 +11063,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -11090,10 +11074,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C8" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11101,10 +11085,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="C9" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11112,10 +11096,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="C10" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11123,10 +11107,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11134,10 +11118,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="C12" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -11145,10 +11129,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="C13" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11156,10 +11140,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C14" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11167,10 +11151,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="C15" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11178,10 +11162,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="C16" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11189,10 +11173,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="C17" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11200,10 +11184,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="C18" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11211,10 +11195,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="C19" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11222,10 +11206,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="C20" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11233,10 +11217,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="C21" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11244,10 +11228,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="C22" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11255,10 +11239,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="C23" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11266,10 +11250,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C24" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11277,10 +11261,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="C25" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -11299,8 +11283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11315,13 +11299,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>261</v>
+        <v>500</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>263</v>
+        <v>501</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>264</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11329,13 +11313,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>289</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11343,13 +11327,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>290</v>
+        <v>433</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11357,13 +11341,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>291</v>
+        <v>434</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>292</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11371,13 +11355,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>293</v>
+        <v>435</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>387</v>
+        <v>446</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>388</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11385,13 +11369,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11399,13 +11383,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>294</v>
+        <v>444</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>295</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11413,13 +11397,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>262</v>
+        <v>450</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>296</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11427,13 +11411,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>297</v>
+        <v>451</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>298</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11441,13 +11425,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>299</v>
+        <v>452</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>395</v>
+        <v>469</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>396</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11455,13 +11439,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11469,13 +11453,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>401</v>
+        <v>470</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>402</v>
+        <v>486</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11483,13 +11467,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>404</v>
+        <v>471</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11497,13 +11481,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>407</v>
+        <v>472</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>300</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11511,13 +11495,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>265</v>
+        <v>473</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>301</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -11525,13 +11509,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>302</v>
+        <v>474</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>303</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11539,13 +11523,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>304</v>
+        <v>461</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>411</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11553,13 +11537,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>413</v>
+        <v>475</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>414</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11567,13 +11551,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>305</v>
+        <v>461</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>415</v>
+        <v>476</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>416</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11581,13 +11565,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>419</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11595,13 +11579,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>422</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -11609,13 +11593,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>424</v>
+        <v>478</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>425</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -11623,13 +11607,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>266</v>
+        <v>479</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>427</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -11637,13 +11621,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>267</v>
+        <v>480</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>429</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -11651,13 +11635,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>430</v>
+        <v>467</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>432</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -11718,7 +11702,7 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C2" t="s">
         <v>91</v>
@@ -11729,7 +11713,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
         <v>92</v>
@@ -11740,7 +11724,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C4" t="s">
         <v>92</v>
@@ -11751,7 +11735,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s">
         <v>92</v>
@@ -11762,7 +11746,7 @@
         <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
         <v>95</v>
@@ -11773,7 +11757,7 @@
         <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -11784,7 +11768,7 @@
         <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
@@ -11795,7 +11779,7 @@
         <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
         <v>94</v>
@@ -11806,7 +11790,7 @@
         <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C10" t="s">
         <v>92</v>
@@ -11817,7 +11801,7 @@
         <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C11" t="s">
         <v>92</v>
@@ -11828,7 +11812,7 @@
         <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="870" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="870" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,16 @@
     <sheet name="pve_boss" sheetId="8" r:id="rId7"/>
     <sheet name="pve_dragon" sheetId="15" r:id="rId8"/>
     <sheet name="pve_npc" sheetId="9" r:id="rId9"/>
-    <sheet name="soldier_vs" sheetId="10" r:id="rId10"/>
-    <sheet name="wonder_grassLand" sheetId="11" r:id="rId11"/>
-    <sheet name="wonder_desert" sheetId="12" r:id="rId12"/>
-    <sheet name="wonder_iceField" sheetId="13" r:id="rId13"/>
-    <sheet name="selena_question" sheetId="14" r:id="rId14"/>
-    <sheet name="alliance_name_single_name" sheetId="16" r:id="rId15"/>
-    <sheet name="alliance_name_adj" sheetId="17" r:id="rId16"/>
-    <sheet name="alliance_name_noun" sheetId="18" r:id="rId17"/>
-    <sheet name="alliance_name_fixed" sheetId="19" r:id="rId18"/>
+    <sheet name="pve_func" sheetId="20" r:id="rId10"/>
+    <sheet name="soldier_vs" sheetId="10" r:id="rId11"/>
+    <sheet name="wonder_grassLand" sheetId="11" r:id="rId12"/>
+    <sheet name="wonder_desert" sheetId="12" r:id="rId13"/>
+    <sheet name="wonder_iceField" sheetId="13" r:id="rId14"/>
+    <sheet name="selena_question" sheetId="14" r:id="rId15"/>
+    <sheet name="alliance_name_single_name" sheetId="16" r:id="rId16"/>
+    <sheet name="alliance_name_adj" sheetId="17" r:id="rId17"/>
+    <sheet name="alliance_name_noun" sheetId="18" r:id="rId18"/>
+    <sheet name="alliance_name_fixed" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="508">
   <si>
     <t>INT_index</t>
   </si>
@@ -1832,6 +1833,26 @@
   </si>
   <si>
     <t>STR_boss_dragon_star_level</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldiers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewards</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>function(floor,count,C,D,E) return math.ceil(count * floor ^ 2.6) end</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>function(floor,count,C,D,E) return count * floor ^ 2 end</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUNC_countFunc</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2122,8 +2143,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="559">
+  <cellStyleXfs count="567">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3862,7 +3907,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="559">
+  <cellStyles count="567">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4142,6 +4187,10 @@
     <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="565" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4421,6 +4470,10 @@
     <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="566" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7106,6 +7159,56 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="56.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7242,11 +7345,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -7407,7 +7510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -7570,7 +7673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -7735,7 +7838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -8359,7 +8462,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
@@ -8711,140 +8814,6 @@
       </c>
       <c r="B43" s="22" t="s">
         <v>399</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="17">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="17">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="17">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="17">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="17">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="17">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="17">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="17">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="17">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="17">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="17">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -8861,10 +8830,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -8882,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -8890,7 +8859,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -8898,7 +8867,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -8906,7 +8875,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -8914,7 +8883,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -8922,7 +8891,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -8930,7 +8899,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -8938,7 +8907,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -8946,7 +8915,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -8954,7 +8923,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -8962,7 +8931,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -8970,7 +8939,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -8978,39 +8947,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="17">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="17">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="17">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -9026,6 +8963,172 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="17">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="17">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="17">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="17">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="17">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="17">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="17">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="17">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>428</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -11283,7 +11386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="870" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="870" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -1840,20 +1840,20 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>rewards</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>function(floor,count,C,D,E) return math.ceil(count * floor ^ 2.6) end</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>function(floor,count,C,D,E) return count * floor ^ 2 end</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>FUNC_countFunc</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewards</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>function(floor,count,C,D,E) return math.ceil(count * floor ^ 2.6) end</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>function(floor,count,C,D,E) return math.ceil(count * floor ^ 2) end</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2143,8 +2143,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="567">
+  <cellStyleXfs count="575">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3907,7 +3931,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="567">
+  <cellStyles count="575">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4191,6 +4215,10 @@
     <cellStyle name="超链接" xfId="561" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="563" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4474,6 +4502,10 @@
     <cellStyle name="访问过的超链接" xfId="562" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="564" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="574" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7162,12 +7194,12 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
     <col min="2" max="2" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7176,7 +7208,7 @@
         <v>66</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -7184,15 +7216,15 @@
         <v>503</v>
       </c>
       <c r="B2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -10873,7 +10905,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11780,7 +11812,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -1852,7 +1852,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>function(floor,count,C,D,E) return math.ceil(count * floor ^ 2) end</t>
+    <t>function(floor,count,C,D,E) return math.ceil(count * floor ^ 1.8) end</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -7194,7 +7194,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -10905,7 +10905,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="870" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="870" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -2143,8 +2143,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="575">
+  <cellStyleXfs count="587">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3931,7 +3967,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="575">
+  <cellStyles count="587">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4219,6 +4255,12 @@
     <cellStyle name="超链接" xfId="569" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="571" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4506,6 +4548,12 @@
     <cellStyle name="访问过的超链接" xfId="570" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="572" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7193,8 +7241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9356,8 +9404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9732,7 +9780,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C15" s="8">
         <v>36</v>
@@ -9752,14 +9800,14 @@
       <c r="H15" s="8">
         <v>3</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C16" s="6">
         <v>36</v>
@@ -9779,13 +9827,14 @@
       <c r="H16" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C17" s="8">
         <v>36</v>
@@ -9805,8 +9854,9 @@
       <c r="H17" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -9832,7 +9882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:9">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -9858,7 +9908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:9">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -9884,7 +9934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -9910,7 +9960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:9">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -9936,7 +9986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:9">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -9962,7 +10012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:9">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -9988,7 +10038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:9">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -10014,7 +10064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:9">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -10552,7 +10602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -2143,8 +2143,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="587">
+  <cellStyleXfs count="603">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3967,7 +4015,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="587">
+  <cellStyles count="603">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4261,6 +4309,14 @@
     <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4554,6 +4610,14 @@
     <cellStyle name="访问过的超链接" xfId="582" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9405,7 +9469,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9861,7 +9925,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C18" s="6">
         <v>6</v>
@@ -9881,13 +9945,14 @@
       <c r="H18" s="6">
         <v>5</v>
       </c>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>22</v>
+      <c r="B19" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C19" s="8">
         <v>16</v>
@@ -9907,13 +9972,14 @@
       <c r="H19" s="8">
         <v>5</v>
       </c>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="6">
         <v>26</v>
@@ -9933,13 +9999,14 @@
       <c r="H20" s="6">
         <v>5</v>
       </c>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>23</v>
+      <c r="B21" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="C21" s="8">
         <v>36</v>
@@ -9959,6 +10026,7 @@
       <c r="H21" s="8">
         <v>5</v>
       </c>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="7">

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14280" tabRatio="870" activeTab="1"/>
+    <workbookView xWindow="1020" yWindow="23780" windowWidth="25600" windowHeight="14280" tabRatio="870" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -4016,6 +4016,308 @@
     </xf>
   </cellXfs>
   <cellStyles count="603">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4317,308 +4619,6 @@
     <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="470" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="538" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="540" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="542" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="544" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="546" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="548" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="550" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="552" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="560" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="562" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="564" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="566" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="568" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="570" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="572" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="574" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="576" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="578" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="580" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="582" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="588" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="590" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="592" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="594" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="596" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="598" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="600" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -9468,7 +9468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -10670,8 +10670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -10692,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -10700,7 +10700,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -10708,7 +10708,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -10716,7 +10716,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -10724,7 +10724,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -10732,7 +10732,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -10740,7 +10740,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>13</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -10748,7 +10748,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -10756,7 +10756,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -10764,7 +10764,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -10772,7 +10772,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>15</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -10780,7 +10780,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>15</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -10788,7 +10788,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>16</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -10796,7 +10796,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -10804,7 +10804,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -10812,7 +10812,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -10820,7 +10820,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -10828,7 +10828,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -10836,7 +10836,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -10844,7 +10844,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -10852,7 +10852,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -10860,7 +10860,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -10868,7 +10868,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>21</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -10876,7 +10876,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>21</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -10884,7 +10884,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>22</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -10892,7 +10892,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -10900,7 +10900,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>23</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -10908,7 +10908,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>23</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -10916,7 +10916,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -10924,7 +10924,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -10932,7 +10932,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -10940,7 +10940,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>25</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -10948,7 +10948,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>26</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -10956,7 +10956,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>26</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -10964,7 +10964,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>27</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -10972,7 +10972,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>27</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -10980,7 +10980,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>28</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -10988,7 +10988,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>28</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -10996,7 +10996,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>30</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -11004,7 +11004,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>30</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="23780" windowWidth="25600" windowHeight="14280" tabRatio="870" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="870" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="510">
   <si>
     <t>INT_index</t>
   </si>
@@ -1853,6 +1853,14 @@
   </si>
   <si>
     <t>function(floor,count,C,D,E) return math.ceil(count * floor ^ 1.8) end</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>random</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4016,7 +4024,307 @@
     </xf>
   </cellXfs>
   <cellStyles count="603">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4318,307 +4626,7 @@
     <cellStyle name="访问过的超链接" xfId="598" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="600" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="469" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="559" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="561" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="563" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="565" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="567" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="569" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="571" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="575" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="577" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="579" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -10670,7 +10678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -11929,8 +11937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -12024,7 +12032,7 @@
         <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -12046,7 +12054,7 @@
         <v>271</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:3">

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="870" activeTab="8"/>
+    <workbookView xWindow="5780" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="870" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="513">
   <si>
     <t>INT_index</t>
   </si>
@@ -1082,38 +1082,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>resources,coin,1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,iron,1000;resources,food,1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>sentinel_1,16;horseArcher_1,6;ballista_1,2;ranger_1,4</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>resources,wood,1000;resources,iron,1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>crossbowman_1,16;swordsman_1,12;lancer_1,4;catapult_1,1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>resources,stone,1000;resources,iron,1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>ballista_1,4;ranger_1,12;sentinel_1,8;horseArcher_1,2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>resources,wood,1000;resources,stone,1000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>deathKnight,6;skeletonWarrior,8</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1123,10 +1103,6 @@
   </si>
   <si>
     <t>meatWagon,3;skeletonArcher,8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>soldierMaterials,heroBones,1;soldierMaterials,magicBox,1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1848,10 +1824,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>function(floor,count,C,D,E) return math.ceil(count * floor ^ 2.6) end</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>function(floor,count,C,D,E) return math.ceil(count * floor ^ 1.8) end</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1861,6 +1833,46 @@
   </si>
   <si>
     <t>random</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>function(floor,count,C,D,E) return math.ceil(count * floor ^ 2.4) end</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>soldierMaterials,heroBones,1;soldierMaterials,magicBox,1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,1000;resources,coin,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,stone,1000;resources,coin,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,iron,1000;resources,coin,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,food,1000;resources,coin,500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,food,5000;resources,coin,2000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,iron,5000;resources,coin,2000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,5000;resources,coin,2000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,stone,5000;resources,coin,2000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2151,8 +2163,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="603">
+  <cellStyleXfs count="607">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4023,7 +4047,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="603">
+  <cellStyles count="607">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4325,6 +4349,8 @@
     <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="605" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4626,6 +4652,8 @@
     <cellStyle name="访问过的超链接" xfId="598" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="600" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="606" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7314,7 +7342,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -7328,23 +7356,23 @@
         <v>66</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" t="s">
         <v>503</v>
-      </c>
-      <c r="B2" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B3" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -8637,7 +8665,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -8645,7 +8673,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -8653,7 +8681,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -8661,7 +8689,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -8669,7 +8697,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -8677,7 +8705,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -8685,7 +8713,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -8693,7 +8721,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -8701,7 +8729,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -8709,7 +8737,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -8717,7 +8745,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -8725,7 +8753,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -8733,7 +8761,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -8741,7 +8769,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -8749,7 +8777,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -8757,7 +8785,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -8765,7 +8793,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
@@ -8773,7 +8801,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -8781,7 +8809,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
@@ -8789,7 +8817,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
@@ -8797,7 +8825,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17">
@@ -8805,7 +8833,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
@@ -8813,7 +8841,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17">
@@ -8821,7 +8849,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17">
@@ -8829,7 +8857,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17">
@@ -8837,7 +8865,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
@@ -8845,7 +8873,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17">
@@ -8853,7 +8881,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
@@ -8861,7 +8889,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
@@ -8869,7 +8897,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
@@ -8877,7 +8905,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
@@ -8885,7 +8913,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
@@ -8893,7 +8921,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
@@ -8901,7 +8929,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17">
@@ -8909,7 +8937,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17">
@@ -8917,7 +8945,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17">
@@ -8925,7 +8953,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17">
@@ -8933,7 +8961,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17">
@@ -8941,7 +8969,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17">
@@ -8949,7 +8977,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17">
@@ -8957,7 +8985,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17">
@@ -8965,7 +8993,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -9003,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9011,7 +9039,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9019,7 +9047,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9027,7 +9055,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9035,7 +9063,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9043,7 +9071,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9051,7 +9079,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9059,7 +9087,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9067,7 +9095,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9075,7 +9103,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9083,7 +9111,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9091,7 +9119,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9099,7 +9127,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -9137,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9145,7 +9173,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9153,7 +9181,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9161,7 +9189,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9169,7 +9197,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9177,7 +9205,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9185,7 +9213,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9193,7 +9221,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9201,7 +9229,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9209,7 +9237,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9217,7 +9245,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9225,7 +9253,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9233,7 +9261,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9241,7 +9269,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9249,7 +9277,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9257,7 +9285,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9265,7 +9293,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -9362,7 +9390,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9426,7 +9454,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -11030,8 +11058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11067,7 +11095,7 @@
         <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>508</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -11076,10 +11104,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
-        <v>307</v>
+        <v>507</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -11088,10 +11116,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
-        <v>309</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11099,10 +11127,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C5" t="s">
-        <v>311</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11110,10 +11138,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C6" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11121,10 +11149,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C7" t="s">
-        <v>315</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -11152,7 +11180,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11186,7 +11214,7 @@
         <v>303</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11197,7 +11225,7 @@
         <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11208,7 +11236,7 @@
         <v>274</v>
       </c>
       <c r="C4" t="s">
-        <v>304</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11219,12 +11247,11 @@
         <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -11269,10 +11296,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C2" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11280,10 +11307,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11291,10 +11318,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11335,10 +11362,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11346,10 +11373,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C9" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11357,10 +11384,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11368,10 +11395,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11379,10 +11406,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C12" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -11390,10 +11417,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C13" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11401,10 +11428,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C14" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11412,10 +11439,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C15" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11423,10 +11450,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C16" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11434,10 +11461,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C17" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11445,10 +11472,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11456,10 +11483,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C19" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11467,10 +11494,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C20" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11478,10 +11505,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C21" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11489,10 +11516,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C22" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11500,10 +11527,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C23" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11511,10 +11538,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C24" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11522,10 +11549,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C25" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -11560,13 +11587,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11574,13 +11601,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11588,13 +11615,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11602,13 +11629,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11616,13 +11643,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11630,13 +11657,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11644,13 +11671,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11658,13 +11685,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11672,13 +11699,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11686,13 +11713,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11700,13 +11727,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11714,13 +11741,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11728,13 +11755,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11742,13 +11769,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11756,13 +11783,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -11770,13 +11797,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11784,13 +11811,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11798,13 +11825,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11812,13 +11839,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11826,13 +11853,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -11840,13 +11867,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -11854,13 +11881,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -11868,13 +11895,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -11882,13 +11909,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -11896,13 +11923,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -11937,7 +11964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -12032,7 +12059,7 @@
         <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -12054,7 +12081,7 @@
         <v>271</v>
       </c>
       <c r="C10" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:3">

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="870" activeTab="4"/>
+    <workbookView xWindow="720" yWindow="1660" windowWidth="25600" windowHeight="14240" tabRatio="870" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="513">
   <si>
     <t>INT_index</t>
   </si>
@@ -2163,8 +2163,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="607">
+  <cellStyleXfs count="647">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4047,7 +4167,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="607">
+  <cellStyles count="647">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4351,6 +4471,26 @@
     <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="603" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="645" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4654,6 +4794,26 @@
     <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="604" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="646" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7389,24 +7549,23 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="7.125" customWidth="1"/>
-    <col min="6" max="6" width="7.25" customWidth="1"/>
-    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="5" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
@@ -7425,92 +7584,79 @@
       <c r="F1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="9"/>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -11058,7 +11204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1660" windowWidth="25600" windowHeight="14240" tabRatio="870" activeTab="10"/>
+    <workbookView xWindow="720" yWindow="1660" windowWidth="25600" windowHeight="14240" tabRatio="870" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>INT_waringMinute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>INT_level</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1873,6 +1869,10 @@
   </si>
   <si>
     <t>resources,stone,5000;resources,coin,2000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLOAT_waringMinute</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -4168,6 +4168,330 @@
     </xf>
   </cellXfs>
   <cellStyles count="647">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="646" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4491,330 +4815,6 @@
     <cellStyle name="超链接" xfId="641" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="645" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="470" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="472" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="474" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="476" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="478" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="480" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="482" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="484" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="486" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="488" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="490" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="492" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="494" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="496" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="498" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="500" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="502" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="504" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="506" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="508" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="510" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="512" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="514" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="516" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="518" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="520" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="522" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="524" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="526" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="528" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="530" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="532" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="534" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="536" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="538" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="540" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="542" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="544" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="546" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="548" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="550" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="552" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="554" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="556" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="558" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="560" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="562" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="564" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="566" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="568" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="570" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="572" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="574" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="576" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="578" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="580" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="582" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="584" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="586" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="588" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="590" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="592" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="594" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="596" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="598" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="600" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="602" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="604" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="606" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="608" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="610" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="612" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="614" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="616" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="618" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="620" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="622" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="624" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="626" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="628" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="630" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="632" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="634" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="636" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="638" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="640" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="642" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="644" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="646" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -7513,26 +7513,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B3" t="s">
         <v>499</v>
-      </c>
-      <c r="B3" t="s">
-        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -7551,7 +7551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -7567,96 +7567,96 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -7688,30 +7688,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7720,10 +7720,10 @@
         <v>30000</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F2">
         <v>273</v>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7743,10 +7743,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3">
         <v>510</v>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7766,10 +7766,10 @@
         <v>15000</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4">
         <v>782</v>
@@ -7780,7 +7780,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7789,10 +7789,10 @@
         <v>12000</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F5">
         <v>680</v>
@@ -7803,7 +7803,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7812,10 +7812,10 @@
         <v>10000</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <v>440</v>
@@ -7851,30 +7851,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7883,10 +7883,10 @@
         <v>30000</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2">
         <v>1252</v>
@@ -7897,7 +7897,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -7906,10 +7906,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3">
         <v>1304</v>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -7929,10 +7929,10 @@
         <v>15000</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4">
         <v>1112</v>
@@ -7943,7 +7943,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -7952,10 +7952,10 @@
         <v>12000</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5">
         <v>1140</v>
@@ -7966,7 +7966,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -7975,10 +7975,10 @@
         <v>10000</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6">
         <v>932</v>
@@ -8016,30 +8016,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>106</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8048,10 +8048,10 @@
         <v>30000</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2">
         <v>746</v>
@@ -8062,7 +8062,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8071,10 +8071,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3">
         <v>448</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8094,10 +8094,10 @@
         <v>15000</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4">
         <v>198</v>
@@ -8108,7 +8108,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8117,10 +8117,10 @@
         <v>12000</v>
       </c>
       <c r="D5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5">
         <v>410</v>
@@ -8131,7 +8131,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8140,10 +8140,10 @@
         <v>10000</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6">
         <v>404</v>
@@ -8183,19 +8183,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8203,16 +8203,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8220,16 +8220,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8237,16 +8237,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8254,16 +8254,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8271,16 +8271,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8288,16 +8288,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8305,16 +8305,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8322,16 +8322,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8339,16 +8339,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8356,16 +8356,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8373,16 +8373,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8390,16 +8390,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8407,16 +8407,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>173</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8424,16 +8424,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8441,16 +8441,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8458,16 +8458,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8475,16 +8475,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8492,16 +8492,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8509,16 +8509,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8526,16 +8526,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8543,16 +8543,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8560,16 +8560,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8577,16 +8577,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8594,16 +8594,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8611,16 +8611,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32">
@@ -8628,16 +8628,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8645,16 +8645,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -8662,16 +8662,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D29" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>243</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -8679,16 +8679,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -8696,16 +8696,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
@@ -8713,16 +8713,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C32" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="D32" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="E32" s="20" t="s">
         <v>248</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -8730,16 +8730,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="C33" s="20" t="s">
-        <v>251</v>
-      </c>
       <c r="D33" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>256</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -8747,16 +8747,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>253</v>
-      </c>
       <c r="D34" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="E34" s="20" t="s">
         <v>258</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -8764,16 +8764,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="C35" s="20" t="s">
-        <v>255</v>
-      </c>
       <c r="D35" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -8800,10 +8800,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -8811,7 +8811,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -8819,7 +8819,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -8827,7 +8827,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -8835,7 +8835,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -8843,7 +8843,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -8851,7 +8851,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -8859,7 +8859,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -8867,7 +8867,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -8875,7 +8875,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -8883,7 +8883,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -8891,7 +8891,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -8899,7 +8899,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -8907,7 +8907,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -8915,7 +8915,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -8923,7 +8923,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -8931,7 +8931,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -8939,7 +8939,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
@@ -8947,7 +8947,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -8955,7 +8955,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
@@ -8963,7 +8963,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
@@ -8971,7 +8971,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17">
@@ -8979,7 +8979,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
@@ -8987,7 +8987,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17">
@@ -8995,7 +8995,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17">
@@ -9003,7 +9003,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17">
@@ -9011,7 +9011,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
@@ -9019,7 +9019,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17">
@@ -9027,7 +9027,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
@@ -9035,7 +9035,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
@@ -9043,7 +9043,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
@@ -9051,7 +9051,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
@@ -9059,7 +9059,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
@@ -9067,7 +9067,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
@@ -9075,7 +9075,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17">
@@ -9083,7 +9083,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17">
@@ -9091,7 +9091,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17">
@@ -9099,7 +9099,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17">
@@ -9107,7 +9107,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17">
@@ -9115,7 +9115,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17">
@@ -9123,7 +9123,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17">
@@ -9131,7 +9131,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17">
@@ -9139,7 +9139,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -9166,10 +9166,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9177,7 +9177,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9185,7 +9185,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9193,7 +9193,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9201,7 +9201,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9209,7 +9209,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9217,7 +9217,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9225,7 +9225,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9233,7 +9233,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9241,7 +9241,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9249,7 +9249,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9257,7 +9257,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9265,7 +9265,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9273,7 +9273,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -9300,10 +9300,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9311,7 +9311,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9319,7 +9319,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9327,7 +9327,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9335,7 +9335,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9343,7 +9343,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9351,7 +9351,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9359,7 +9359,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9367,7 +9367,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9375,7 +9375,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9383,7 +9383,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9391,7 +9391,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9399,7 +9399,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9407,7 +9407,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9415,7 +9415,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9423,7 +9423,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9431,7 +9431,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9439,7 +9439,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -9469,10 +9469,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9480,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9488,7 +9488,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9496,7 +9496,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9504,7 +9504,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9512,7 +9512,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9520,7 +9520,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9528,7 +9528,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9536,7 +9536,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9544,7 +9544,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9552,7 +9552,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9560,7 +9560,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9568,7 +9568,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9576,7 +9576,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9584,7 +9584,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9592,7 +9592,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9600,7 +9600,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9608,7 +9608,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
@@ -9616,7 +9616,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -9624,7 +9624,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
@@ -9632,7 +9632,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -10188,7 +10188,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="8">
         <v>36</v>
@@ -10319,7 +10319,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="6">
         <v>46</v>
@@ -10852,8 +10852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -10863,10 +10863,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>61</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11222,13 +11222,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -11238,10 +11238,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -11250,10 +11250,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -11262,10 +11262,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11273,10 +11273,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11284,10 +11284,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C6" t="s">
         <v>307</v>
-      </c>
-      <c r="C6" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11295,10 +11295,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -11343,10 +11343,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>65</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -11357,10 +11357,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11368,10 +11368,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11379,10 +11379,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11390,10 +11390,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11431,10 +11431,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11442,10 +11442,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" t="s">
         <v>310</v>
-      </c>
-      <c r="C2" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11453,10 +11453,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C3" t="s">
         <v>318</v>
-      </c>
-      <c r="C3" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -11464,10 +11464,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" t="s">
         <v>320</v>
-      </c>
-      <c r="C4" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11475,10 +11475,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" t="s">
         <v>276</v>
-      </c>
-      <c r="C5" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -11486,10 +11486,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C6" t="s">
         <v>278</v>
-      </c>
-      <c r="C6" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11497,10 +11497,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" t="s">
         <v>280</v>
-      </c>
-      <c r="C7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -11508,10 +11508,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -11519,10 +11519,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" t="s">
         <v>323</v>
-      </c>
-      <c r="C9" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11530,10 +11530,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="C10" t="s">
         <v>325</v>
-      </c>
-      <c r="C10" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -11541,10 +11541,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" t="s">
         <v>327</v>
-      </c>
-      <c r="C11" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11552,10 +11552,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" t="s">
         <v>329</v>
-      </c>
-      <c r="C12" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -11563,10 +11563,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" t="s">
         <v>331</v>
-      </c>
-      <c r="C13" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11574,10 +11574,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -11585,10 +11585,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" t="s">
         <v>334</v>
-      </c>
-      <c r="C15" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -11596,10 +11596,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" t="s">
         <v>336</v>
-      </c>
-      <c r="C16" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11607,10 +11607,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="C17" t="s">
         <v>338</v>
-      </c>
-      <c r="C17" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11618,10 +11618,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" t="s">
         <v>340</v>
-      </c>
-      <c r="C18" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -11629,10 +11629,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" t="s">
         <v>342</v>
-      </c>
-      <c r="C19" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11640,10 +11640,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -11651,10 +11651,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" t="s">
         <v>345</v>
-      </c>
-      <c r="C21" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11662,10 +11662,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" t="s">
         <v>315</v>
-      </c>
-      <c r="C22" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11673,10 +11673,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11684,10 +11684,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C24" t="s">
         <v>348</v>
-      </c>
-      <c r="C24" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11695,10 +11695,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" t="s">
         <v>350</v>
-      </c>
-      <c r="C25" t="s">
-        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -11733,13 +11733,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>495</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -11747,13 +11747,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -11761,13 +11761,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -11775,13 +11775,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -11789,13 +11789,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -11803,13 +11803,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -11817,13 +11817,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>431</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -11831,13 +11831,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11845,13 +11845,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -11859,13 +11859,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -11873,13 +11873,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -11887,13 +11887,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11901,13 +11901,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -11915,13 +11915,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -11929,13 +11929,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -11943,13 +11943,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -11957,13 +11957,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -11971,13 +11971,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -11985,13 +11985,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -11999,13 +11999,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -12013,13 +12013,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -12027,13 +12027,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -12041,13 +12041,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -12055,13 +12055,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -12069,13 +12069,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -12122,134 +12122,134 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3">

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1660" windowWidth="25600" windowHeight="14240" tabRatio="870" activeTab="3"/>
+    <workbookView xWindow="1040" yWindow="0" windowWidth="33820" windowHeight="16280" tabRatio="966" firstSheet="4" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="alliance_name_adj" sheetId="17" r:id="rId17"/>
     <sheet name="alliance_name_noun" sheetId="18" r:id="rId18"/>
     <sheet name="alliance_name_fixed" sheetId="19" r:id="rId19"/>
+    <sheet name="pve_level" sheetId="21" r:id="rId20"/>
+    <sheet name="pve_wanted" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="529">
   <si>
     <t>INT_index</t>
   </si>
@@ -1840,39 +1842,99 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>resources,wood,1000;resources,coin,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,stone,1000;resources,coin,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,iron,1000;resources,coin,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,food,1000;resources,coin,500</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,food,5000;resources,coin,2000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,iron,5000;resources,coin,2000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,wood,5000;resources,coin,2000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>resources,stone,5000;resources,coin,2000</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>FLOAT_waringMinute</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_2</t>
+  </si>
+  <si>
+    <t>INT_floor</t>
+  </si>
+  <si>
+    <t>STR_itemName</t>
+  </si>
+  <si>
+    <t>resource:gemClass_3</t>
+  </si>
+  <si>
+    <t>INT_count</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource:gemClass_2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_coin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_swordsman</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_sentinel</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_ranger</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_crossbowman</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_lancer</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_horseArcher</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_catapult</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT_ballista</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,food,5000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,iron,5000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,5000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,stone,5000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,food,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,iron,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,wood,1000</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>resources,stone,1000</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1880,7 +1942,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1962,6 +2024,11 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2163,7 +2230,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="647">
+  <cellStyleXfs count="713">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4105,8 +4172,206 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4166,9 +4431,376 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="647">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+  <cellStyles count="713">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="711" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -4492,329 +5124,40 @@
     <cellStyle name="访问过的超链接" xfId="642" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="644" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="646" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="469" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="471" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="473" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="475" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="477" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="479" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="481" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="483" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="485" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="487" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="489" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="491" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="493" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="495" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="497" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="499" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="501" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="503" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="505" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="507" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="509" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="511" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="513" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="515" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="517" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="519" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="521" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="523" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="525" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="527" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="529" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="531" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="533" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="535" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="537" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="539" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="541" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="543" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="545" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="547" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="549" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="551" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="553" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="555" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="557" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="559" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="561" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="563" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="565" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="567" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="569" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="571" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="573" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="575" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="577" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="579" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="581" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="583" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="585" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="587" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="589" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="591" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="593" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="595" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="597" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="599" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="601" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="603" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="605" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="607" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="609" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="611" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="613" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="615" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="617" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="619" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="621" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="623" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="625" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="627" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="629" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="631" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="633" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="635" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="637" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="639" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="641" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="643" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
@@ -6133,7 +6476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV67"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRuler="0" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -7501,7 +7844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -7551,7 +7894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -7675,7 +8018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -7840,7 +8183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
@@ -8003,7 +8346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -8168,7 +8511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -8792,7 +9135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -9158,7 +9501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
@@ -9292,7 +9635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -9458,8 +9801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -9650,7 +9993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
@@ -10339,6 +10682,1155 @@
       <c r="H26" s="6">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C2" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C3" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C4" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C5" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="C6" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C7" s="25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C8" s="25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C9" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="25">
+        <v>9</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="25">
+        <v>10</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="25">
+        <v>11</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="25">
+        <v>12</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="25">
+        <v>13</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C14" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="25">
+        <v>14</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C15" s="25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="25">
+        <v>15</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C16" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="25">
+        <v>16</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17" s="25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="25">
+        <v>17</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C18" s="25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="25">
+        <v>18</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C19" s="25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="25">
+        <v>19</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C20" s="25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="25">
+        <v>20</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="C21" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="25">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C22" s="25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="25">
+        <v>22</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="C23" s="25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="25">
+        <v>23</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C24" s="25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C25" s="25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D31" sqref="D30:D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="12.75" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2500</v>
+      </c>
+      <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>8700</v>
+      </c>
+      <c r="C3">
+        <v>420</v>
+      </c>
+      <c r="D3">
+        <v>420</v>
+      </c>
+      <c r="E3">
+        <v>420</v>
+      </c>
+      <c r="F3">
+        <v>420</v>
+      </c>
+      <c r="G3">
+        <v>210</v>
+      </c>
+      <c r="H3">
+        <v>210</v>
+      </c>
+      <c r="I3">
+        <v>105</v>
+      </c>
+      <c r="J3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>18050</v>
+      </c>
+      <c r="C4">
+        <v>1120</v>
+      </c>
+      <c r="D4">
+        <v>1120</v>
+      </c>
+      <c r="E4">
+        <v>1120</v>
+      </c>
+      <c r="F4">
+        <v>1120</v>
+      </c>
+      <c r="G4">
+        <v>560</v>
+      </c>
+      <c r="H4">
+        <v>560</v>
+      </c>
+      <c r="I4">
+        <v>280</v>
+      </c>
+      <c r="J4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>30300</v>
+      </c>
+      <c r="C5">
+        <v>2220</v>
+      </c>
+      <c r="D5">
+        <v>2220</v>
+      </c>
+      <c r="E5">
+        <v>2220</v>
+      </c>
+      <c r="F5">
+        <v>2220</v>
+      </c>
+      <c r="G5">
+        <v>1110</v>
+      </c>
+      <c r="H5">
+        <v>1110</v>
+      </c>
+      <c r="I5">
+        <v>555</v>
+      </c>
+      <c r="J5">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>45275</v>
+      </c>
+      <c r="C6">
+        <v>3800</v>
+      </c>
+      <c r="D6">
+        <v>3800</v>
+      </c>
+      <c r="E6">
+        <v>3800</v>
+      </c>
+      <c r="F6">
+        <v>3800</v>
+      </c>
+      <c r="G6">
+        <v>1900</v>
+      </c>
+      <c r="H6">
+        <v>1900</v>
+      </c>
+      <c r="I6">
+        <v>950</v>
+      </c>
+      <c r="J6">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>62875</v>
+      </c>
+      <c r="C7">
+        <v>5900</v>
+      </c>
+      <c r="D7">
+        <v>5900</v>
+      </c>
+      <c r="E7">
+        <v>5900</v>
+      </c>
+      <c r="F7">
+        <v>5900</v>
+      </c>
+      <c r="G7">
+        <v>2950</v>
+      </c>
+      <c r="H7">
+        <v>2950</v>
+      </c>
+      <c r="I7">
+        <v>1475</v>
+      </c>
+      <c r="J7">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>83000</v>
+      </c>
+      <c r="C8">
+        <v>8540</v>
+      </c>
+      <c r="D8">
+        <v>8540</v>
+      </c>
+      <c r="E8">
+        <v>8540</v>
+      </c>
+      <c r="F8">
+        <v>8540</v>
+      </c>
+      <c r="G8">
+        <v>4270</v>
+      </c>
+      <c r="H8">
+        <v>4270</v>
+      </c>
+      <c r="I8">
+        <v>2135</v>
+      </c>
+      <c r="J8">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>105550</v>
+      </c>
+      <c r="C9">
+        <v>11760</v>
+      </c>
+      <c r="D9">
+        <v>11760</v>
+      </c>
+      <c r="E9">
+        <v>11760</v>
+      </c>
+      <c r="F9">
+        <v>11760</v>
+      </c>
+      <c r="G9">
+        <v>5880</v>
+      </c>
+      <c r="H9">
+        <v>5880</v>
+      </c>
+      <c r="I9">
+        <v>2940</v>
+      </c>
+      <c r="J9">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>130475</v>
+      </c>
+      <c r="C10">
+        <v>15600</v>
+      </c>
+      <c r="D10">
+        <v>15600</v>
+      </c>
+      <c r="E10">
+        <v>15600</v>
+      </c>
+      <c r="F10">
+        <v>15600</v>
+      </c>
+      <c r="G10">
+        <v>7800</v>
+      </c>
+      <c r="H10">
+        <v>7800</v>
+      </c>
+      <c r="I10">
+        <v>3900</v>
+      </c>
+      <c r="J10">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>157725</v>
+      </c>
+      <c r="C11">
+        <v>20100</v>
+      </c>
+      <c r="D11">
+        <v>20100</v>
+      </c>
+      <c r="E11">
+        <v>20100</v>
+      </c>
+      <c r="F11">
+        <v>20100</v>
+      </c>
+      <c r="G11">
+        <v>10050</v>
+      </c>
+      <c r="H11">
+        <v>10050</v>
+      </c>
+      <c r="I11">
+        <v>5025</v>
+      </c>
+      <c r="J11">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>187250</v>
+      </c>
+      <c r="C12">
+        <v>25260</v>
+      </c>
+      <c r="D12">
+        <v>25260</v>
+      </c>
+      <c r="E12">
+        <v>25260</v>
+      </c>
+      <c r="F12">
+        <v>25260</v>
+      </c>
+      <c r="G12">
+        <v>12630</v>
+      </c>
+      <c r="H12">
+        <v>12630</v>
+      </c>
+      <c r="I12">
+        <v>6315</v>
+      </c>
+      <c r="J12">
+        <v>6315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>219000</v>
+      </c>
+      <c r="C13">
+        <v>31120</v>
+      </c>
+      <c r="D13">
+        <v>31120</v>
+      </c>
+      <c r="E13">
+        <v>31120</v>
+      </c>
+      <c r="F13">
+        <v>31120</v>
+      </c>
+      <c r="G13">
+        <v>15560</v>
+      </c>
+      <c r="H13">
+        <v>15560</v>
+      </c>
+      <c r="I13">
+        <v>7780</v>
+      </c>
+      <c r="J13">
+        <v>7780</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>252950</v>
+      </c>
+      <c r="C14">
+        <v>37720</v>
+      </c>
+      <c r="D14">
+        <v>37720</v>
+      </c>
+      <c r="E14">
+        <v>37720</v>
+      </c>
+      <c r="F14">
+        <v>37720</v>
+      </c>
+      <c r="G14">
+        <v>18860</v>
+      </c>
+      <c r="H14">
+        <v>18860</v>
+      </c>
+      <c r="I14">
+        <v>9430</v>
+      </c>
+      <c r="J14">
+        <v>9430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>289025</v>
+      </c>
+      <c r="C15">
+        <v>45060</v>
+      </c>
+      <c r="D15">
+        <v>45060</v>
+      </c>
+      <c r="E15">
+        <v>45060</v>
+      </c>
+      <c r="F15">
+        <v>45060</v>
+      </c>
+      <c r="G15">
+        <v>22530</v>
+      </c>
+      <c r="H15">
+        <v>22530</v>
+      </c>
+      <c r="I15">
+        <v>11265</v>
+      </c>
+      <c r="J15">
+        <v>11265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>327250</v>
+      </c>
+      <c r="C16">
+        <v>53180</v>
+      </c>
+      <c r="D16">
+        <v>53180</v>
+      </c>
+      <c r="E16">
+        <v>53180</v>
+      </c>
+      <c r="F16">
+        <v>53180</v>
+      </c>
+      <c r="G16">
+        <v>26590</v>
+      </c>
+      <c r="H16">
+        <v>26590</v>
+      </c>
+      <c r="I16">
+        <v>13295</v>
+      </c>
+      <c r="J16">
+        <v>13295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>367575</v>
+      </c>
+      <c r="C17">
+        <v>62080</v>
+      </c>
+      <c r="D17">
+        <v>62080</v>
+      </c>
+      <c r="E17">
+        <v>62080</v>
+      </c>
+      <c r="F17">
+        <v>62080</v>
+      </c>
+      <c r="G17">
+        <v>31040</v>
+      </c>
+      <c r="H17">
+        <v>31040</v>
+      </c>
+      <c r="I17">
+        <v>15520</v>
+      </c>
+      <c r="J17">
+        <v>15520</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>409950</v>
+      </c>
+      <c r="C18">
+        <v>71800</v>
+      </c>
+      <c r="D18">
+        <v>71800</v>
+      </c>
+      <c r="E18">
+        <v>71800</v>
+      </c>
+      <c r="F18">
+        <v>71800</v>
+      </c>
+      <c r="G18">
+        <v>35900</v>
+      </c>
+      <c r="H18">
+        <v>35900</v>
+      </c>
+      <c r="I18">
+        <v>17950</v>
+      </c>
+      <c r="J18">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>454375</v>
+      </c>
+      <c r="C19">
+        <v>82360</v>
+      </c>
+      <c r="D19">
+        <v>82360</v>
+      </c>
+      <c r="E19">
+        <v>82360</v>
+      </c>
+      <c r="F19">
+        <v>82360</v>
+      </c>
+      <c r="G19">
+        <v>41180</v>
+      </c>
+      <c r="H19">
+        <v>41180</v>
+      </c>
+      <c r="I19">
+        <v>20590</v>
+      </c>
+      <c r="J19">
+        <v>20590</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>500825</v>
+      </c>
+      <c r="C20">
+        <v>93780</v>
+      </c>
+      <c r="D20">
+        <v>93780</v>
+      </c>
+      <c r="E20">
+        <v>93780</v>
+      </c>
+      <c r="F20">
+        <v>93780</v>
+      </c>
+      <c r="G20">
+        <v>46890</v>
+      </c>
+      <c r="H20">
+        <v>46890</v>
+      </c>
+      <c r="I20">
+        <v>23445</v>
+      </c>
+      <c r="J20">
+        <v>23445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>549275</v>
+      </c>
+      <c r="C21">
+        <v>106060</v>
+      </c>
+      <c r="D21">
+        <v>106060</v>
+      </c>
+      <c r="E21">
+        <v>106060</v>
+      </c>
+      <c r="F21">
+        <v>106060</v>
+      </c>
+      <c r="G21">
+        <v>53030</v>
+      </c>
+      <c r="H21">
+        <v>53030</v>
+      </c>
+      <c r="I21">
+        <v>26515</v>
+      </c>
+      <c r="J21">
+        <v>26515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>599700</v>
+      </c>
+      <c r="C22">
+        <v>119240</v>
+      </c>
+      <c r="D22">
+        <v>119240</v>
+      </c>
+      <c r="E22">
+        <v>119240</v>
+      </c>
+      <c r="F22">
+        <v>119240</v>
+      </c>
+      <c r="G22">
+        <v>59620</v>
+      </c>
+      <c r="H22">
+        <v>59620</v>
+      </c>
+      <c r="I22">
+        <v>29810</v>
+      </c>
+      <c r="J22">
+        <v>29810</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>652075</v>
+      </c>
+      <c r="C23">
+        <v>133320</v>
+      </c>
+      <c r="D23">
+        <v>133320</v>
+      </c>
+      <c r="E23">
+        <v>133320</v>
+      </c>
+      <c r="F23">
+        <v>133320</v>
+      </c>
+      <c r="G23">
+        <v>66660</v>
+      </c>
+      <c r="H23">
+        <v>66660</v>
+      </c>
+      <c r="I23">
+        <v>33330</v>
+      </c>
+      <c r="J23">
+        <v>33330</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>706375</v>
+      </c>
+      <c r="C24">
+        <v>148340</v>
+      </c>
+      <c r="D24">
+        <v>148340</v>
+      </c>
+      <c r="E24">
+        <v>148340</v>
+      </c>
+      <c r="F24">
+        <v>148340</v>
+      </c>
+      <c r="G24">
+        <v>74170</v>
+      </c>
+      <c r="H24">
+        <v>74170</v>
+      </c>
+      <c r="I24">
+        <v>37085</v>
+      </c>
+      <c r="J24">
+        <v>37085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>762625</v>
+      </c>
+      <c r="C25">
+        <v>164280</v>
+      </c>
+      <c r="D25">
+        <v>164280</v>
+      </c>
+      <c r="E25">
+        <v>164280</v>
+      </c>
+      <c r="F25">
+        <v>164280</v>
+      </c>
+      <c r="G25">
+        <v>82140</v>
+      </c>
+      <c r="H25">
+        <v>82140</v>
+      </c>
+      <c r="I25">
+        <v>41070</v>
+      </c>
+      <c r="J25">
+        <v>41070</v>
+      </c>
+    </row>
+    <row r="54" spans="11:11">
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="11:11">
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="11:11">
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="11:11">
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="11:11">
+      <c r="K58" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -10356,7 +11848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
@@ -10852,7 +12344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -10866,7 +12358,7 @@
         <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -11204,8 +12696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11241,7 +12733,7 @@
         <v>271</v>
       </c>
       <c r="C2" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -11253,7 +12745,7 @@
         <v>303</v>
       </c>
       <c r="C3" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -11265,7 +12757,7 @@
         <v>304</v>
       </c>
       <c r="C4" t="s">
-        <v>504</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11276,7 +12768,7 @@
         <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11325,8 +12817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11360,7 +12852,7 @@
         <v>302</v>
       </c>
       <c r="C2" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11371,7 +12863,7 @@
         <v>272</v>
       </c>
       <c r="C3" t="s">
-        <v>509</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11382,7 +12874,7 @@
         <v>273</v>
       </c>
       <c r="C4" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -11393,7 +12885,7 @@
         <v>274</v>
       </c>
       <c r="C5" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11415,8 +12907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -11717,7 +13209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -12110,7 +13602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="0" windowWidth="33820" windowHeight="16280" tabRatio="966" firstSheet="4" activeTab="20"/>
+    <workbookView xWindow="1040" yWindow="0" windowWidth="33820" windowHeight="16280" tabRatio="966" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="527">
   <si>
     <t>INT_index</t>
   </si>
@@ -306,9 +306,6 @@
     <t>siege</t>
   </si>
   <si>
-    <t>wall</t>
-  </si>
-  <si>
     <t>STR_infantry</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -323,10 +320,6 @@
   <si>
     <t>STR_siege</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_wall</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>strong</t>
@@ -2230,8 +2223,68 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="713">
+  <cellStyleXfs count="733">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4444,7 +4497,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="713">
+  <cellStyles count="733">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -4801,6 +4854,16 @@
     <cellStyle name="超链接" xfId="707" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="709" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="731" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -5157,6 +5220,16 @@
     <cellStyle name="访问过的超链接" xfId="708" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="710" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="732" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7859,23 +7932,23 @@
         <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -7892,10 +7965,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -7904,102 +7977,74 @@
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="6" width="8.75" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="8.75" customWidth="1"/>
+    <col min="6" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>87</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>88</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -8031,30 +8076,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8063,10 +8108,10 @@
         <v>30000</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F2">
         <v>273</v>
@@ -8077,7 +8122,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8086,10 +8131,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F3">
         <v>510</v>
@@ -8100,7 +8145,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8109,10 +8154,10 @@
         <v>15000</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F4">
         <v>782</v>
@@ -8123,7 +8168,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8132,10 +8177,10 @@
         <v>12000</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F5">
         <v>680</v>
@@ -8146,7 +8191,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8155,10 +8200,10 @@
         <v>10000</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F6">
         <v>440</v>
@@ -8194,30 +8239,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8226,10 +8271,10 @@
         <v>30000</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F2">
         <v>1252</v>
@@ -8240,7 +8285,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8249,10 +8294,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F3">
         <v>1304</v>
@@ -8263,7 +8308,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8272,10 +8317,10 @@
         <v>15000</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4">
         <v>1112</v>
@@ -8286,7 +8331,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8295,10 +8340,10 @@
         <v>12000</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5">
         <v>1140</v>
@@ -8309,7 +8354,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8318,10 +8363,10 @@
         <v>10000</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6">
         <v>932</v>
@@ -8359,30 +8404,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -8391,10 +8436,10 @@
         <v>30000</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F2">
         <v>746</v>
@@ -8405,7 +8450,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -8414,10 +8459,10 @@
         <v>20000</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3">
         <v>448</v>
@@ -8428,7 +8473,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -8437,10 +8482,10 @@
         <v>15000</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4">
         <v>198</v>
@@ -8451,7 +8496,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -8460,10 +8505,10 @@
         <v>12000</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F5">
         <v>410</v>
@@ -8474,7 +8519,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -8483,10 +8528,10 @@
         <v>10000</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F6">
         <v>404</v>
@@ -8526,19 +8571,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8546,16 +8591,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8563,16 +8608,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8580,16 +8625,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8597,16 +8642,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8614,16 +8659,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8631,16 +8676,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8648,16 +8693,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8665,16 +8710,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8682,16 +8727,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8699,16 +8744,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8716,16 +8761,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8733,16 +8778,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8750,16 +8795,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8767,16 +8812,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8784,16 +8829,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8801,16 +8846,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" t="s">
         <v>173</v>
-      </c>
-      <c r="E17" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8818,16 +8863,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8835,16 +8880,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8852,16 +8897,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8869,16 +8914,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8886,16 +8931,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -8903,16 +8948,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8920,16 +8965,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -8937,16 +8982,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" t="s">
         <v>160</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="D25" t="s">
-        <v>162</v>
-      </c>
       <c r="E25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -8954,16 +8999,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E26" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="32">
@@ -8971,16 +9016,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -8988,16 +9033,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -9005,16 +9050,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -9022,16 +9067,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -9039,16 +9084,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
@@ -9056,16 +9101,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D32" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="E32" s="20" t="s">
         <v>246</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -9073,16 +9118,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -9090,16 +9135,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -9107,16 +9152,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C35" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>256</v>
-      </c>
       <c r="E35" s="20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -9143,10 +9188,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9154,7 +9199,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9162,7 +9207,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9170,7 +9215,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9178,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9186,7 +9231,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9194,7 +9239,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9202,7 +9247,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9210,7 +9255,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9218,7 +9263,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9226,7 +9271,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9234,7 +9279,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9242,7 +9287,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9250,7 +9295,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9258,7 +9303,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9266,7 +9311,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9274,7 +9319,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9282,7 +9327,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
@@ -9290,7 +9335,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -9298,7 +9343,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
@@ -9306,7 +9351,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
@@ -9314,7 +9359,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17">
@@ -9322,7 +9367,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
@@ -9330,7 +9375,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17">
@@ -9338,7 +9383,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17">
@@ -9346,7 +9391,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17">
@@ -9354,7 +9399,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
@@ -9362,7 +9407,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17">
@@ -9370,7 +9415,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
@@ -9378,7 +9423,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
@@ -9386,7 +9431,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
@@ -9394,7 +9439,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
@@ -9402,7 +9447,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
@@ -9410,7 +9455,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
@@ -9418,7 +9463,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17">
@@ -9426,7 +9471,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17">
@@ -9434,7 +9479,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17">
@@ -9442,7 +9487,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17">
@@ -9450,7 +9495,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17">
@@ -9458,7 +9503,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17">
@@ -9466,7 +9511,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17">
@@ -9474,7 +9519,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17">
@@ -9482,7 +9527,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -9509,10 +9554,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9520,7 +9565,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9528,7 +9573,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9536,7 +9581,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9544,7 +9589,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9552,7 +9597,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9560,7 +9605,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9568,7 +9613,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9576,7 +9621,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9584,7 +9629,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9592,7 +9637,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9600,7 +9645,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9608,7 +9653,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9616,7 +9661,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -9643,10 +9688,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9654,7 +9699,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9662,7 +9707,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9670,7 +9715,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9678,7 +9723,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9686,7 +9731,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9694,7 +9739,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9702,7 +9747,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9710,7 +9755,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9718,7 +9763,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9726,7 +9771,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9734,7 +9779,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9742,7 +9787,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9750,7 +9795,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9758,7 +9803,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9766,7 +9811,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9774,7 +9819,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9782,7 +9827,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -9812,10 +9857,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9823,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9831,7 +9876,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9839,7 +9884,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9847,7 +9892,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9855,7 +9900,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9863,7 +9908,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9871,7 +9916,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9879,7 +9924,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9887,7 +9932,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9895,7 +9940,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9903,7 +9948,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9911,7 +9956,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9919,7 +9964,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9927,7 +9972,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9935,7 +9980,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9943,7 +9988,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9951,7 +9996,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
@@ -9959,7 +10004,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -9967,7 +10012,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
@@ -9975,7 +10020,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -10710,13 +10755,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>507</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -10724,7 +10769,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C2" s="25">
         <v>1</v>
@@ -10735,7 +10780,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C3" s="25">
         <v>2</v>
@@ -10746,7 +10791,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C4" s="25">
         <v>3</v>
@@ -10757,7 +10802,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C5" s="25">
         <v>4</v>
@@ -10768,7 +10813,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C6" s="25">
         <v>5</v>
@@ -10779,7 +10824,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C7" s="25">
         <v>6</v>
@@ -10790,7 +10835,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C8" s="25">
         <v>7</v>
@@ -10801,7 +10846,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C9" s="25">
         <v>8</v>
@@ -10812,7 +10857,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C10" s="25">
         <v>9</v>
@@ -10823,7 +10868,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C11" s="25">
         <v>1</v>
@@ -10834,7 +10879,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C12" s="25">
         <v>11</v>
@@ -10845,7 +10890,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C13" s="25">
         <v>12</v>
@@ -10856,7 +10901,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C14" s="25">
         <v>13</v>
@@ -10867,7 +10912,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C15" s="25">
         <v>14</v>
@@ -10878,7 +10923,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C16" s="25">
         <v>15</v>
@@ -10889,7 +10934,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C17" s="25">
         <v>16</v>
@@ -10900,7 +10945,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C18" s="25">
         <v>17</v>
@@ -10911,7 +10956,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C19" s="25">
         <v>18</v>
@@ -10922,7 +10967,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C20" s="25">
         <v>19</v>
@@ -10933,7 +10978,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C21" s="25">
         <v>2</v>
@@ -10944,7 +10989,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C22" s="25">
         <v>21</v>
@@ -10955,7 +11000,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C23" s="25">
         <v>22</v>
@@ -10966,7 +11011,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C24" s="25">
         <v>23</v>
@@ -10977,7 +11022,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C25" s="25">
         <v>24</v>
@@ -11004,7 +11049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D31" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
@@ -11019,34 +11064,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="23" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B1" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>512</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="E1" s="23" t="s">
         <v>513</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="F1" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="G1" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>518</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -12358,7 +12403,7 @@
         <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12720,7 +12765,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -12730,10 +12775,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -12742,10 +12787,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -12754,10 +12799,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -12765,10 +12810,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12776,10 +12821,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12787,10 +12832,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -12849,10 +12894,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -12860,10 +12905,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -12871,10 +12916,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -12882,10 +12927,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C5" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12934,10 +12979,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12945,10 +12990,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -12956,10 +13001,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -12967,10 +13012,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -12978,10 +13023,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -12989,10 +13034,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13000,10 +13045,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -13011,10 +13056,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C9" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13022,10 +13067,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C10" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13033,10 +13078,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13044,10 +13089,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13055,10 +13100,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13066,10 +13111,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13077,10 +13122,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C15" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13088,10 +13133,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C16" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13099,10 +13144,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C17" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -13110,10 +13155,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C18" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13121,10 +13166,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13132,10 +13177,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C20" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -13143,10 +13188,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C21" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13154,10 +13199,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13165,10 +13210,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C23" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13176,10 +13221,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13187,10 +13232,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -13225,13 +13270,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>493</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -13239,13 +13284,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -13253,13 +13298,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -13267,13 +13312,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13281,13 +13326,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13295,13 +13340,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -13309,13 +13354,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -13323,13 +13368,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>445</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13337,13 +13382,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -13351,13 +13396,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -13365,13 +13410,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>448</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -13379,13 +13424,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13393,13 +13438,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -13407,13 +13452,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -13421,13 +13466,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -13435,13 +13480,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -13449,13 +13494,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>454</v>
-      </c>
       <c r="D17" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -13463,13 +13508,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -13477,13 +13522,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -13491,13 +13536,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>457</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -13505,13 +13550,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -13519,13 +13564,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -13533,13 +13578,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -13547,13 +13592,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -13561,13 +13606,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -13620,7 +13665,7 @@
         <v>64</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -13628,10 +13673,10 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -13639,10 +13684,10 @@
         <v>67</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13650,10 +13695,10 @@
         <v>68</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13661,10 +13706,10 @@
         <v>69</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13672,10 +13717,10 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13683,10 +13728,10 @@
         <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13694,10 +13739,10 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -13705,10 +13750,10 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13716,10 +13761,10 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13727,10 +13772,10 @@
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13738,10 +13783,10 @@
         <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3">

--- a/gameData/client/ClientInitGame.xlsx
+++ b/gameData/client/ClientInitGame.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="0" windowWidth="33820" windowHeight="16280" tabRatio="966" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="36460" windowHeight="18180" tabRatio="966" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="ruins" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="512">
   <si>
     <t>INT_index</t>
   </si>
@@ -494,9 +494,6 @@
     <t>想要提升龙的技能等级，你需要下面哪一种资源？</t>
   </si>
   <si>
-    <t>匹配联盟战斗是根据什么条件进行匹配的？</t>
-  </si>
-  <si>
     <t>升级联盟宫殿可以获得什么好处？</t>
   </si>
   <si>
@@ -527,18 +524,12 @@
     <t>以下哪一个条件是控制龙装备的材料掉落的数量和品质？</t>
   </si>
   <si>
-    <t>联盟会战一旦由联盟盟主发起，并匹配成功后，会发生什么？</t>
-  </si>
-  <si>
     <t>想要带兵出征，下面哪一个条件不是必要的条件？</t>
   </si>
   <si>
     <t>如何提升联盟领地上村落的等级，从而在采集过程中获得更多资源？</t>
   </si>
   <si>
-    <t>如何提升自己在联盟领地上采集村落中资源的效率?</t>
-  </si>
-  <si>
     <t>在什么地方可以花费忠诚值购买原本需要花费金龙币才能获得道具？</t>
   </si>
   <si>
@@ -592,9 +583,6 @@
     <t>英雄之血</t>
   </si>
   <si>
-    <t>你和开发者之间的关系</t>
-  </si>
-  <si>
     <t>提升联盟的成员上限</t>
   </si>
   <si>
@@ -637,18 +625,12 @@
     <t>在一场战斗中获得更多的击杀积分</t>
   </si>
   <si>
-    <t>有发生什么吗？不知道</t>
-  </si>
-  <si>
     <t>必须派出一条巨龙</t>
   </si>
   <si>
     <t>在联盟的秩序大厅中升级科技</t>
   </si>
   <si>
-    <t>尽量采集同一种资源，从而提升该资源的采集熟练度</t>
-  </si>
-  <si>
     <t>联盟领地的联盟宫殿</t>
   </si>
   <si>
@@ -670,9 +652,6 @@
     <t>技能点数</t>
   </si>
   <si>
-    <t>你联盟的战斗力</t>
-  </si>
-  <si>
     <t>能够建一个私人泳池</t>
   </si>
   <si>
@@ -718,9 +697,6 @@
     <t>和赛琳娜搞好关系</t>
   </si>
   <si>
-    <t>己方和敌方的联盟领地拼接到一起</t>
-  </si>
-  <si>
     <t>必须派出军事单位</t>
   </si>
   <si>
@@ -748,9 +724,6 @@
     <t>信用卡</t>
   </si>
   <si>
-    <t>你自己的战斗力</t>
-  </si>
-  <si>
     <t>能够扩大联盟领地</t>
   </si>
   <si>
@@ -787,18 +760,12 @@
     <t>击杀掉敌方的龙</t>
   </si>
   <si>
-    <t>会获得一大笔联盟荣耀值</t>
-  </si>
-  <si>
     <t>必须派出英雄</t>
   </si>
   <si>
     <t>向联盟盟主发邮件</t>
   </si>
   <si>
-    <t>提升联盟宫殿的等级</t>
-  </si>
-  <si>
     <t>城市中的贸易行会</t>
   </si>
   <si>
@@ -828,10 +795,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>赶快充值吧！</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>给盟友要送一封邮件并支持他</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -860,14 +823,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>在城市中的城堡中，可以变更城市的地形，那么变更城市的地形有什么具体的好处？</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>提升对应龙的生命恢复速度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>在进攻敌方城市的时候，可以观察其地形，并派出相应的龙带领部队战斗，这么做的好处是？</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -881,10 +836,6 @@
   </si>
   <si>
     <t>击杀敌方单位时，会掉落对应龙的装备材料</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>换个口味，没什么作用</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -7932,23 +7883,23 @@
         <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -7967,7 +7918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -8554,10 +8505,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -8574,7 +8525,7 @@
         <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>126</v>
@@ -8591,16 +8542,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8611,13 +8562,13 @@
         <v>129</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8628,13 +8579,13 @@
         <v>130</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8645,13 +8596,13 @@
         <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8661,14 +8612,14 @@
       <c r="B6" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" t="s">
-        <v>162</v>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8679,47 +8630,47 @@
         <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" t="s">
-        <v>164</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>236</v>
+      <c r="B8" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" t="s">
+        <v>161</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>156</v>
+      <c r="B9" t="s">
+        <v>134</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8730,13 +8681,13 @@
         <v>135</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>217</v>
+        <v>209</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8747,13 +8698,13 @@
         <v>136</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E11" t="s">
-        <v>167</v>
+        <v>210</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -8764,13 +8715,13 @@
         <v>137</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -8781,30 +8732,30 @@
         <v>138</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>139</v>
+      <c r="B14" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8812,16 +8763,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D15" t="s">
-        <v>171</v>
+        <v>150</v>
+      </c>
+      <c r="C15" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8829,16 +8780,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" t="s">
-        <v>172</v>
+        <v>151</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>191</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>222</v>
+        <v>167</v>
+      </c>
+      <c r="E16" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8846,16 +8797,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>171</v>
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -8863,33 +8814,33 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="20" t="s">
         <v>223</v>
       </c>
       <c r="D18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E18" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>157</v>
+      <c r="B19" t="s">
+        <v>139</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="D19" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8899,14 +8850,14 @@
       <c r="B20" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>235</v>
+      <c r="C20" t="s">
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8917,13 +8868,13 @@
         <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="E21" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8934,30 +8885,30 @@
         <v>142</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="D22" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E22" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" t="s">
-        <v>204</v>
+      <c r="B23" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -8965,33 +8916,33 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D24" t="s">
-        <v>178</v>
+        <v>174</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>237</v>
+      <c r="B25" t="s">
+        <v>144</v>
+      </c>
+      <c r="C25" t="s">
+        <v>199</v>
       </c>
       <c r="D25" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E25" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -9001,17 +8952,17 @@
       <c r="B26" t="s">
         <v>145</v>
       </c>
-      <c r="C26" t="s">
-        <v>179</v>
+      <c r="C26" s="20" t="s">
+        <v>230</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="E26" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="32">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9019,13 +8970,13 @@
         <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>239</v>
+        <v>221</v>
+      </c>
+      <c r="D27" t="s">
+        <v>176</v>
       </c>
       <c r="E27" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -9036,132 +8987,64 @@
         <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>148</v>
+      <c r="B29" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>149</v>
-      </c>
-      <c r="C30" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" t="s">
-        <v>208</v>
+      <c r="B30" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" t="s">
-        <v>209</v>
-      </c>
-      <c r="D31" t="s">
-        <v>183</v>
-      </c>
-      <c r="E31" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="30">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>247</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>250</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>257</v>
+      <c r="B31" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -9191,7 +9074,7 @@
         <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9199,7 +9082,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9207,7 +9090,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9215,7 +9098,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9223,7 +9106,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9231,7 +9114,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9239,7 +9122,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9247,7 +9130,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9255,7 +9138,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9263,7 +9146,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9271,7 +9154,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9279,7 +9162,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9287,7 +9170,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9295,7 +9178,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9303,7 +9186,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9311,7 +9194,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9319,7 +9202,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9327,7 +9210,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
@@ -9335,7 +9218,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -9343,7 +9226,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
@@ -9351,7 +9234,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17">
@@ -9359,7 +9242,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17">
@@ -9367,7 +9250,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17">
@@ -9375,7 +9258,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="17">
@@ -9383,7 +9266,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="17">
@@ -9391,7 +9274,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="17">
@@ -9399,7 +9282,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="17">
@@ -9407,7 +9290,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="17">
@@ -9415,7 +9298,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="17">
@@ -9423,7 +9306,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="17">
@@ -9431,7 +9314,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="17">
@@ -9439,7 +9322,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="17">
@@ -9447,7 +9330,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="17">
@@ -9455,7 +9338,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="17">
@@ -9463,7 +9346,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17">
@@ -9471,7 +9354,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="17">
@@ -9479,7 +9362,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="17">
@@ -9487,7 +9370,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="22" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="17">
@@ -9495,7 +9378,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="22" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="17">
@@ -9503,7 +9386,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="22" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="17">
@@ -9511,7 +9394,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="17">
@@ -9519,7 +9402,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="17">
@@ -9527,7 +9410,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -9557,7 +9440,7 @@
         <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9565,7 +9448,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9573,7 +9456,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9581,7 +9464,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9589,7 +9472,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9597,7 +9480,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9605,7 +9488,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9613,7 +9496,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9621,7 +9504,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9629,7 +9512,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9637,7 +9520,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9645,7 +9528,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9653,7 +9536,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9661,7 +9544,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9574,7 @@
         <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9699,7 +9582,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9707,7 +9590,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9715,7 +9598,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9723,7 +9606,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9731,7 +9614,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9739,7 +9622,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9747,7 +9630,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9755,7 +9638,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9763,7 +9646,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9771,7 +9654,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9779,7 +9662,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9787,7 +9670,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9795,7 +9678,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9803,7 +9686,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9811,7 +9694,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9819,7 +9702,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9827,7 +9710,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -9860,7 +9743,7 @@
         <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
@@ -9868,7 +9751,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17">
@@ -9876,7 +9759,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17">
@@ -9884,7 +9767,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
@@ -9892,7 +9775,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17">
@@ -9900,7 +9783,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -9908,7 +9791,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17">
@@ -9916,7 +9799,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17">
@@ -9924,7 +9807,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17">
@@ -9932,7 +9815,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17">
@@ -9940,7 +9823,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17">
@@ -9948,7 +9831,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="17">
@@ -9956,7 +9839,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17">
@@ -9964,7 +9847,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17">
@@ -9972,7 +9855,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17">
@@ -9980,7 +9863,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17">
@@ -9988,7 +9871,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17">
@@ -9996,7 +9879,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17">
@@ -10004,7 +9887,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -10012,7 +9895,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17">
@@ -10020,7 +9903,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -10755,13 +10638,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="23" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -10769,7 +10652,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C2" s="25">
         <v>1</v>
@@ -10780,7 +10663,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C3" s="25">
         <v>2</v>
@@ -10791,7 +10674,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C4" s="25">
         <v>3</v>
@@ -10802,7 +10685,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C5" s="25">
         <v>4</v>
@@ -10813,7 +10696,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="C6" s="25">
         <v>5</v>
@@ -10824,7 +10707,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C7" s="25">
         <v>6</v>
@@ -10835,7 +10718,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C8" s="25">
         <v>7</v>
@@ -10846,7 +10729,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C9" s="25">
         <v>8</v>
@@ -10857,7 +10740,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C10" s="25">
         <v>9</v>
@@ -10868,7 +10751,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C11" s="25">
         <v>1</v>
@@ -10879,7 +10762,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C12" s="25">
         <v>11</v>
@@ -10890,7 +10773,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C13" s="25">
         <v>12</v>
@@ -10901,7 +10784,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C14" s="25">
         <v>13</v>
@@ -10912,7 +10795,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C15" s="25">
         <v>14</v>
@@ -10923,7 +10806,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C16" s="25">
         <v>15</v>
@@ -10934,7 +10817,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C17" s="25">
         <v>16</v>
@@ -10945,7 +10828,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C18" s="25">
         <v>17</v>
@@ -10956,7 +10839,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C19" s="25">
         <v>18</v>
@@ -10967,7 +10850,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C20" s="25">
         <v>19</v>
@@ -10978,7 +10861,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C21" s="25">
         <v>2</v>
@@ -10989,7 +10872,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C22" s="25">
         <v>21</v>
@@ -11000,7 +10883,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C23" s="25">
         <v>22</v>
@@ -11011,7 +10894,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C24" s="25">
         <v>23</v>
@@ -11022,7 +10905,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C25" s="25">
         <v>24</v>
@@ -11064,34 +10947,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="23" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="I1" s="23" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -12403,7 +12286,7 @@
         <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -12765,7 +12648,7 @@
         <v>64</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
@@ -12775,10 +12658,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C2" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="D2" s="20"/>
     </row>
@@ -12787,10 +12670,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C3" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="D3" s="20"/>
     </row>
@@ -12799,10 +12682,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C4" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -12810,10 +12693,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C5" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12821,10 +12704,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12832,10 +12715,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -12894,10 +12777,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C2" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -12905,10 +12788,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C3" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -12916,10 +12799,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -12927,10 +12810,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -12979,10 +12862,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -12990,10 +12873,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C3" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -13001,10 +12884,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -13012,10 +12895,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -13023,10 +12906,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -13034,10 +12917,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -13045,10 +12928,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C8" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -13056,10 +12939,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -13067,10 +12950,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13078,10 +12961,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C11" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -13089,10 +12972,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C12" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -13100,10 +12983,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C13" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -13111,10 +12994,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C14" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -13122,10 +13005,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C15" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -13133,10 +13016,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C16" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -13144,10 +13027,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C17" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -13155,10 +13038,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C18" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -13166,10 +13049,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C19" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -13177,10 +13060,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C20" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -13188,10 +13071,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C21" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -13199,10 +13082,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C22" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -13210,10 +13093,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C23" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -13221,10 +13104,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C24" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -13232,10 +13115,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C25" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -13270,13 +13153,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -13284,13 +13167,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -13298,13 +13181,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>439</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -13312,13 +13195,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13326,13 +13209,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -13340,13 +13223,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -13354,13 +13237,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -13368,13 +13251,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13382,13 +13265,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -13396,13 +13279,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -13410,13 +13293,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -13424,13 +13307,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -13438,13 +13321,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -13452,13 +13335,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -13466,13 +13349,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -13480,13 +13363,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -13494,13 +13377,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -13508,13 +13391,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>466</v>
-      </c>
       <c r="D18" s="4" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -13522,13 +13405,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>467</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -13536,13 +13419,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -13550,13 +13433,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -13564,13 +13447,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -13578,13 +13461,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -13592,13 +13475,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -13606,13 +13489,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -13673,7 +13556,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
         <v>88</v>
@@ -13684,7 +13567,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
@@ -13695,7 +13578,7 @@
         <v>68</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
         <v>89</v>
@@ -13706,7 +13589,7 @@
         <v>69</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
@@ -13717,7 +13600,7 @@
         <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C6" t="s">
         <v>92</v>
@@ -13728,7 +13611,7 @@
         <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C7" t="s">
         <v>92</v>
@@ -13739,10 +13622,10 @@
         <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C8" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -13750,7 +13633,7 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
@@ -13761,10 +13644,10 @@
         <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -13772,7 +13655,7 @@
         <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C11" t="s">
         <v>89</v>
@@ -13783,7 +13666,7 @@
         <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C12" t="s">
         <v>90</v>
